--- a/acs/all_elections_with_tracts.xlsx
+++ b/acs/all_elections_with_tracts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19741,11 +19741,7 @@
       <c r="G434" t="n">
         <v>2021</v>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>san_francisco_city_council_2012.csv</t>
-        </is>
-      </c>
+      <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
     </row>
@@ -19829,11 +19825,7 @@
       <c r="G436" t="n">
         <v>2021</v>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>san_francisco_city_council_2012.csv</t>
-        </is>
-      </c>
+      <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
     </row>
@@ -20015,11 +20007,19 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>san_francisco_city_council_2022.csv</t>
-        </is>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>24_031_701900, 24_031_701701, 24_031_701702, 24_031_701703, 24_031_701704</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>2.9626492758203975e-05, 0.08240206940034545, 0.0001918013454299876, 0.29531273997629875, 0.5644032113171775</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -20055,11 +20055,19 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>san_francisco_city_council_2022.csv</t>
-        </is>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+          <t>takoma_park_wards_2022.csv</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>24_031_701701, 24_031_701800, 24_031_702401</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>0.03667248942826369, 0.2692150429403143, 0.0030299499031383142</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">

--- a/acs/all_elections_with_tracts.xlsx
+++ b/acs/all_elections_with_tracts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J500"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>percents</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_tracts</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +566,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +605,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +644,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +683,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,6 +722,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -750,6 +761,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -784,6 +796,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -818,6 +831,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -852,6 +866,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -886,6 +901,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,6 +936,7 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -954,6 +971,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -988,6 +1006,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1022,6 +1041,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1056,6 +1076,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1090,6 +1111,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1124,6 +1146,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1158,6 +1181,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1192,6 +1216,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1226,6 +1251,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1260,6 +1286,7 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1294,6 +1321,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1328,6 +1356,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1362,6 +1391,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1396,6 +1426,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1430,6 +1461,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1464,6 +1496,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1498,6 +1531,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1532,6 +1566,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1570,6 +1605,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1604,6 +1640,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1638,6 +1675,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1672,6 +1710,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1706,6 +1745,7 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1740,6 +1780,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1774,6 +1815,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1808,6 +1850,7 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1842,6 +1885,7 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1876,6 +1920,7 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1910,6 +1955,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1944,6 +1990,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1978,6 +2025,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2012,6 +2060,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2046,6 +2095,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2080,6 +2130,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2114,6 +2165,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2148,6 +2200,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2182,6 +2235,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2216,6 +2270,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2250,6 +2305,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2284,6 +2340,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2318,6 +2375,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2352,6 +2410,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2386,6 +2445,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2420,6 +2480,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2454,6 +2515,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2488,6 +2550,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2522,6 +2585,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2556,6 +2620,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2590,6 +2655,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2624,6 +2690,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2658,6 +2725,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2692,6 +2760,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2726,6 +2795,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2760,6 +2830,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2794,6 +2865,7 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2828,6 +2900,7 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2876,6 +2949,9 @@
           <t>0.8959146638358644, 0.007147169403565304, 0.0038906035604100737, 0.0991080754683137, 0.10096369076951611, 0.0508511311382636, 0.9861050019341006, 0.002622810654645276, 1.0000000000000002, 0.10386411144385971</t>
         </is>
       </c>
+      <c r="K70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2924,6 +3000,9 @@
           <t>0.9963084989162369, 0.0011620138428508448, 0.7869448616222134, 0.0004236917510046274, 0.29144486762287997, 0.23390667473129956, 0.9146824729841725, 0.00027430077805764983, 0.9976861532928043, 2.3443186173136577e-07, 0.001521216492635183</t>
         </is>
       </c>
+      <c r="K71" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2972,6 +3051,9 @@
           <t>0.0011097449135162591, 0.906035199287081, 0.2130551383777924, 0.037757687937505044, 0.21834221275197463, 0.09904919979581206, 0.15233057019801477, 0.00044762156620333464, 0.08427773014604278, 0.9899269999644622, 0.003085901495725873, 1.0000000000000002, 0.0017708485662709696</t>
         </is>
       </c>
+      <c r="K72" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3020,6 +3102,9 @@
           <t>0.004859133187055347, 0.17586343954304084, 0.0014465477956200894, 0.8475705329029315, 1.4225699714007913e-05, 0.8791257733118172, 0.5665639293116732, 0.0002666249395750595, 0.0008554545674623952, 0.9715250602107541, 0.19137730904963077, 0.005639516352217708, 0.43610913599677503</t>
         </is>
       </c>
+      <c r="K73" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3068,6 +3153,9 @@
           <t>0.9923059442255447, 0.03767673404941949, 0.0023337580023792413, 0.005076597223445875, 9.889689907376185e-05, 0.9892311413710079, 0.11918467971309038, 0.22002505671819514, 0.011677357051293212, 0.002772179133831232, 0.0036023918232486267, 0.9943598576590309, 0.5446692901977529</t>
         </is>
       </c>
+      <c r="K74" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3116,6 +3204,9 @@
           <t>0.2878368954962686, 1.0000000000000004, 0.005212022707100119, 0.011406441742543792, 0.01389497827005669, 0.9999999999999989, 0.9994784359921596, 0.9999999999999994, 0.01138816119677284, 1.140386062478224e-05, 8.422101806639886e-05, 0.0040264361355869666, 0.006276571102208835</t>
         </is>
       </c>
+      <c r="K75" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3164,6 +3255,9 @@
           <t>0.00041221843616959247, 0.0012312450432862426, 0.0029086676569905854, 0.44460745074459496, 0.6608204638188306, 0.9879741375231399, 0.9009705195683164, 0.3993876667645053, 0.8847523045522253</t>
         </is>
       </c>
+      <c r="K76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3212,6 +3306,9 @@
           <t>0.04209565983963918, 0.999502801722031, 0.9946502004855889, 0.0006323486946706828, 0.0011117431991254914, 0.0017969030304308645, 0.00026547925258680656, 0.0034064385390410452, 0.9985209444625983, 0.9954578838742822, 0.987748704746818, 0.0006567677721536902, 0.0008632332311441118</t>
         </is>
       </c>
+      <c r="K77" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3260,6 +3357,9 @@
           <t>0.00010230158862609476, 2.15657531922014e-05, 6.252465688421987e-06, 0.0004971982779489129, 0.9973029873072885, 0.9976720326001537, 4.023838412316996e-05, 0.9941224938559089, 0.0014790555374287245, 0.0006275641566769379, 0.9997529749549185, 0.09701402095826714, 0.45118834509597144</t>
         </is>
       </c>
+      <c r="K78" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3308,6 +3408,9 @@
           <t>0.9937216895775107, 0.007068638715127452, 0.9927686100402239, 0.0005884190991710279, 0.012238980435543298, 2.394617712047931e-05, 0.26161794526216, 0.9853660782733938, 0.0005647486955948089, 0.002102814881683834, 3.1651889105736396e-09, 0.9959625316071599, 0.00260859571926889</t>
         </is>
       </c>
+      <c r="K79" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3356,6 +3459,9 @@
           <t>0.0002498119252302383, 0.8990363092304856, 0.0004968649960489796, 0.10005248537029456, 0.4417988912135978, 0.48957841177942607</t>
         </is>
       </c>
+      <c r="K80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3404,6 +3510,9 @@
           <t>0.9967231635806094, 0.004747540296964618, 0.011090167654152511, 0.9860475994381361, 0.4483553655062628, 0.556550424497035, 0.013547768103955584, 0.00378855178929788, 0.01261084807274042, 0.9913657580239439, 0.34084615399378604, 0.557951134619622, 0.047179483387626335</t>
         </is>
       </c>
+      <c r="K81" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3452,6 +3561,9 @@
           <t>0.0025817561702605346, 0.21587000872284867, 0.009667141486620595, 0.014569842402857823, 0.00046875220153292225, 0.07338059217276566, 0.9999999999999992, 1.0000000000000002, 0.011790990500166496, 0.0009839834255481951, 0.002313846707196774, 0.9700288842320858, 0.9157220354220771, 0.010073000035548618, 0.010815152711590203</t>
         </is>
       </c>
+      <c r="K82" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3500,6 +3612,9 @@
           <t>0.9009508002041845, 0.9076017795446312, 0.004454071357217367, 0.0012419254089018666, 0.21341101397012383, 0.009170427904079518, 0.001222573581633598, 0.8023915773645752, 0.987413998722135</t>
         </is>
       </c>
+      <c r="K83" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3548,6 +3663,9 @@
           <t>0.045014856282508516, 0.0011489631841268772, 0.0013367928491419734, 0.670797444439624, 0.7479055367153346, 0.9730184396396856, 0.004749965277075924, 0.0727063642209008, 0.006595530398434199, 0.9703137785411079, 0.001087105666016282, 0.999220656351117</t>
         </is>
       </c>
+      <c r="K84" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3596,6 +3714,9 @@
           <t>0.0015863009749991352, 3.980469026499476e-05, 0.0001940194040796686, 0.09280278687005732, 0.7864598264075255, 0.9855574133104584, 0.03375225053269306, 0.00018644211348855386, 0.995121046752875, 0.9943096412228561, 0.0007793436488587031, 1.772862500469658e-05, 0.00693535491980831</t>
         </is>
       </c>
+      <c r="K85" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3644,6 +3765,9 @@
           <t>0.9937216895775107, 0.007068638715127452, 0.9927686100402239, 0.0005884190991710279, 0.012238980435543298, 2.394617712047931e-05, 0.26161794526216, 0.9853660782733938, 0.0005647486955948089, 0.002102814881683834, 3.1651889105736396e-09, 0.9959625316071599, 0.00260859571926889</t>
         </is>
       </c>
+      <c r="K86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3692,6 +3816,9 @@
           <t>0.8959146638358644, 0.007147169403565304, 0.0038906035604100737, 0.0991080754683137, 0.10096369076951611, 0.0508511311382636, 0.9861050019341006, 0.002622810654645276, 1.0000000000000002, 0.10386411144385971</t>
         </is>
       </c>
+      <c r="K87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3740,6 +3867,9 @@
           <t>0.0002498119252302383, 0.8990363092304856, 0.0004968649960489796, 0.10005248537029456, 0.4417988912135978, 0.48957841177942607</t>
         </is>
       </c>
+      <c r="K88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3788,6 +3918,9 @@
           <t>0.9967231635806094, 0.004747540296964618, 0.011090167654152511, 0.9860475994381361, 0.4483553655062628, 0.556550424497035, 0.013547768103955584, 0.00378855178929788, 0.01261084807274042, 0.9913657580239439, 0.34084615399378604, 0.557951134619622, 0.047179483387626335</t>
         </is>
       </c>
+      <c r="K89" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3836,6 +3969,9 @@
           <t>0.0062783104224957715, 8.422055620631954e-05, 0.28654681152296185, 0.006799394241913022, 0.012068919617232906, 0.0001075718947141168, 0.011212495100212825, 0.9999999999999992, 1.0000000000000002, 0.015140715557606642, 0.00020603719666803974, 0.004037468392834997, 0.9711021429594142, 0.9999999999999997, 0.013894998065898969, 0.011389171522759763</t>
         </is>
       </c>
+      <c r="K90" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3884,6 +4020,9 @@
           <t>0.900891924531699, 0.9709322918476826, 0.003004003026937615, 0.4007410179851964, 0.44344957550297187, 0.010664061464825247, 0.002683016895250141, 0.6501773443510077, 0.8847467170333744</t>
         </is>
       </c>
+      <c r="K91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3932,6 +4071,9 @@
           <t>0.04462747285247424, 0.0007514563727584111, 0.0011068694535544931, 0.9877610195644753, 0.995460404917392, 0.9697306733558755, 0.003404270854717997, 0.0006545203145215535, 0.003458918846512755, 0.9730451455314668, 0.0006268197779950728, 0.9985200811087193</t>
         </is>
       </c>
+      <c r="K92" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3980,6 +4122,9 @@
           <t>0.00010397652730137419, 1.8374751908700383e-05, 3.874548548911433e-05, 0.09701669744901158, 0.9997501880747678, 0.9858130849893076, 0.0006250453450789477, 0.000482607328527201, 0.9941292446780401, 0.9907142585179556, 0.0014799188913227135, 5.515269198669694e-06, 0.4527541743835135</t>
         </is>
       </c>
+      <c r="K93" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4030,6 +4175,9 @@
           <t>0.9999509034757865, 0.0005375764716726717, 0.0008325971633641427, 7.412566787142259e-06, 0.0005511885970706353, 0.5517444957441647, 0.2509713639636632</t>
         </is>
       </c>
+      <c r="K94" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4080,6 +4228,9 @@
           <t>4.909652422861771e-05, 0.00014918375076293841, 0.31652528498228233, 4.506883624286268e-07, 0.9994624235282912, 0.9579415507525523, 0.23972240717681437, 0.005025640421381913, 0.00014396074504105925</t>
         </is>
       </c>
+      <c r="K95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4130,6 +4281,9 @@
           <t>5.45644803373707e-06, 0.6830256774311925, 5.564720647262682e-07, 0.9992883929513514, 0.7602701802564065, 0.7983461048083227, 0.29703785482810496</t>
         </is>
       </c>
+      <c r="K96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4178,6 +4332,9 @@
           <t>2.72676525230142e-06, 0.04944125885815665, 0.05557838016689584, 0.4628005812058029, 2.490503666472846e-10</t>
         </is>
       </c>
+      <c r="K97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4226,6 +4383,9 @@
           <t>0.03432450650109937, 0.0004465548310368344, 1.0000000000000004, 0.7236413927621453, 0.09864540780741832, 0.006333002104559036, 0.14589087680158042, 0.030978703543585978, 0.00016111656337326616, 0.29688494466655835, 0.44287043396290715</t>
         </is>
       </c>
+      <c r="K98" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4274,6 +4434,9 @@
           <t>0.03588125647286076, 0.013024755144285123, 0.8201211334752021, 0.8593388425101108, 0.18965634095528836, 0.34530010369429587, 0.9507018722272118, 0.1699240005942059</t>
         </is>
       </c>
+      <c r="K99" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4322,6 +4485,9 @@
           <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
+      <c r="K100" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4370,6 +4536,9 @@
           <t>2.65672307536351e-10, 0.9999999644942321, 3.9199195252087325e-09, 0.7728008248651971, 2.4453314125547988e-09, 1.5486159864377615e-09, 8.996000409760285e-09, 1.5758451289549447e-17, 5.36630906745088e-08, 7.686015201859065e-17, 6.149293024089221e-09, 9.339077827417117e-18, 2.6636532188817238e-08, 0.9999999893703201, 4.420604625854762e-08, 0.9999999999999992, 0.9999999918393139, 0.9999999922858397, 0.9999999999999998, 0.9999999824572039, 8.679030114540868e-09, 1.851889824717736e-08, 0.9670472788639843, 0.837615586947614, 1.470418399898923e-09, 0.9999999987580679, 5.165093340494517e-09</t>
         </is>
       </c>
+      <c r="K101" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4418,6 +4587,9 @@
           <t>9.84311982464558e-10, 3.102161740370261e-08, 4.078214744098905e-11, 4.026222180097482e-08, 4.67410897918868e-12, 0.9999999922734462, 1.0, 0.016288171362965537, 0.897423416718072, 3.6825234970510173e-09, 1.0693062348132424e-08, 0.004239344996607891, 0.999999920013587, 0.007028851747739098, 0.9999999399893614, 0.9999999666036592, 1.1212604291156215e-08, 1.7378417347978326e-08, 0.9999999853081035, 0.6657904680005654, 0.9999999867951449</t>
         </is>
       </c>
+      <c r="K102" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4466,6 +4638,9 @@
           <t>0.051881068183430315, 2.008939365257134e-09, 0.9878502324897683, 0.7184182350169863, 3.451168054408146e-10, 0.32126890749003445, 3.65535988055033e-08, 7.532277094289304e-09, 1.3212922179835715e-09, 0.83563724831335, 0.9999999999999999, 0.999999979123597, 0.8511569104913752, 1.8272247164621524e-08, 0.9904113116921094, 0.9999999802212244, 1.8333768306728493e-08, 5.596962499295054e-09</t>
         </is>
       </c>
+      <c r="K103" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4514,6 +4689,9 @@
           <t>0.9481189271810677, 1.251088697352282e-08, 1.3836292887666777e-09, 0.9999999714580048, 0.34975442899832826, 0.1738771111989492, 0.6075270961801343, 0.9999999987045439, 0.30829806762348827, 0.4428504467701779, 0.9999999999999998, 1.2273215409587772e-08, 0.999999992251425, 0.9999999932633977, 0.14884308950862074, 0.9999999785778206, 1.6162030978144286e-09, 1.3709746373003378e-08, 3.3445924766713944e-08, 1.9963379025163132e-08, 2.942738053435113e-08, 0.9999999587289953, 2.4356909634574864e-09, 2.611561293895982e-10</t>
         </is>
       </c>
+      <c r="K104" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4562,6 +4740,9 @@
           <t>0.9999999629886981, 0.9999999939721289, 0.9999999979910491, 0.0063601237733431955, 0.2516902872064637, 8.595305316701355e-10, 1.6839971114442424e-08, 0.9999999657797531, 0.7828856921869475, 3.5776585751517184e-08, 1.7820233074556699e-09, 9.07010962996855e-09, 4.573042997887569e-11, 9.907684891925356e-10, 0.9999999999999999, 1.0000000000000002, 0.9999999797641506, 0.009588685851157623, 1.7553728374431327e-08, 0.3342095286577153</t>
         </is>
       </c>
+      <c r="K105" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4610,6 +4791,9 @@
           <t>3.742821110394416e-08, 3.830784369208335e-08, 0.8946868164025511, 1.5452316035047996e-08, 3.1729333317726066e-09, 0.9999999996167565, 0.9999999731583631, 1.0, 1.0000000000000002, 0.803849644324828, 0.011624720899950302, 1.0000000000000002, 0.6747992351999, 2.2313018785022456e-09, 0.04298227000976226, 5.941117774128411e-09, 7.729293779276006e-09, 1.0247407277020826e-08, 0.9999999984879654</t>
         </is>
       </c>
+      <c r="K106" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4658,6 +4842,9 @@
           <t>0.22719915818100966, 0.9999999864031389, 0.9999999975546625, 1.0, 1.0, 0.025939427979661308, 3.832522670909683e-10, 0.9760547299636728, 0.651678203138432, 0.9999999999999996, 7.247162384910879e-11, 3.903579266359728e-08, 0.20095741065596331, 7.890956322205187e-10, 1.929120107491618e-08, 0.9999999260810848, 7.728214242855007e-09, 8.742014251547826e-09, 0.03295271797751822, 0.9570177299902407, 0.16238441305239545, 1.2419364852304886e-09</t>
         </is>
       </c>
+      <c r="K107" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4706,6 +4893,9 @@
           <t>0.9999999851929415, 0.999999999734329, 2.0020679562040147e-08, 0.9999999955337986, 9.479593363031937e-09, 2.4168576442852816e-09, 1.0920271939192761e-09, 0.7629401448646349, 0.9999999757595706, 0.9999999907101639, 0.9999999593870482, 1.8772965770371675e-09, 1.4968241550360494e-08, 0.9999999435932648, 0.9999999967708753, 5.612710357087217e-08, 0.2504521088155292, 2.0236280252869924e-08</t>
         </is>
       </c>
+      <c r="K108" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4754,6 +4944,9 @@
           <t>5.463394586603951e-10, 1.0, 1.0, 1.3596905461070904e-08, 0.9999999999999997, 0.9999999707548013, 1.931817428544355e-08, 0.0007449218010132886, 2.8036704935786853e-09, 0.023945270036258036, 0.7911138646082351, 0.9999999992109085, 6.703176394135223e-11, 2.9712909660319662e-08, 0.23705985513543446, 9.81473394316282e-09, 0.9999999999999994, 0.9999999289390616, 1.0000000000000007, 0.9999999559563928, 3.635810083915448e-09, 3.2290674274488673e-09, 0.9999999424023145, 0.7495478327568861, 0.9999999797637382</t>
         </is>
       </c>
+      <c r="K109" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4802,6 +4995,9 @@
           <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
+      <c r="K110" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4850,6 +5046,9 @@
           <t>1.5282781074562813e-08, 0.9999999796475257, 0.9992550536577351, 9.383399891228525e-08, 0.9999999962120065, 4.435992149747591e-08, 0.999999993763927, 0.9999999284390264, 0.9999999999953268, 0.7320215308206148, 0.10257658242240858, 5.845616745598939e-09, 5.649840765784507e-10, 0.3483217918040256, 0.007928724735848163, 2.3177433234305833e-09, 0.9999999860886701, 1.0000000000000004, 2.0042279279397118e-09, 6.348596709559675e-10, 9.496654083078392e-10, 7.998638763941061e-08, 0.00583421519120463, 6.001064049507356e-08, 6.829560202569462e-09</t>
         </is>
       </c>
+      <c r="K111" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4898,6 +5097,9 @@
           <t>4.635506977975504e-09, 0.00578964373689796, 0.2815817649830113, 0.9999999999999996, 0.9999999794774398, 9.29008319942337e-09, 0.21711429655501008, 0.5571495386826577, 1.5781095309390754e-11, 0.6787310567333892, 0.9999999986787449, 0.7495510323081138, 0.9999999961749277, 2.6566782677668606e-08, 0.9999999887874695, 0.9999999636541613, 0.3337903827959142, 0.5707453710233967, 0.16436275168662193, 1.4691757151477331e-08, 3.341804170024827e-09</t>
         </is>
       </c>
+      <c r="K112" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4946,6 +5148,9 @@
           <t>0.9999999491811336, 0.10531315739397427, 3.484528203280683e-09, 0.6502455710016495, 0.8261228888010521, 0.3924729038199026, 0.6917019230865732, 1.4201999817333694e-08, 0.9853732982209444, 6.557367911675107e-10, 7.74856306169997e-09, 0.2504489676918289, 3.825146464390418e-09, 6.248724311394363e-09, 0.6662095805812596, 0.9999999999999999, 0.4292546289765776, 0.9999999705726068, 1.526829009454857e-08, 0.999999958155319</t>
         </is>
       </c>
+      <c r="K113" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4994,6 +5199,9 @@
           <t>9.332052281831136e-18, 6.283329947436996e-06, 2.801525883503404e-15, 7.697737560039136e-17, 1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351, 4.400758764229673e-07, 6.149293024089223e-09, 6.983080853799253e-08</t>
         </is>
       </c>
+      <c r="K114" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5042,6 +5250,9 @@
           <t>0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0</t>
         </is>
       </c>
+      <c r="K115" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5090,6 +5301,9 @@
           <t>6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09</t>
         </is>
       </c>
+      <c r="K116" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5138,6 +5352,9 @@
           <t>0.2647350761742012, 6.1441874698605714e-09, 0.00025658967509615275, 0.960130250441588, 0.0005109770317998618, 0.00014711736686507661, 0.9970785218759535, 0.05372652810744943, 1.2597175986668368e-05, 0.999964942470492, 0.47142537861081946, 7.459274754617497e-05, 6.278434420097036e-07, 0.999999952356196, 0.9998403521441754, 0.4177089081052306, 0.16412275392761533, 0.9992910820063513, 0.49844199246113047, 2.4930986033855932e-08, 6.784659636601718e-05</t>
         </is>
       </c>
+      <c r="K117" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5186,6 +5403,9 @@
           <t>7.306304144617264e-06, 0.8267770525671131, 0.0002810340678726812, 0.6680113991306332, 0.0004507916477027524, 0.9905510759308098, 0.9998827215173448, 0.7400080424594764, 0.17377390907104723, 3.4929464494600746e-08, 0.9714663355626616, 0.000739524223541885, 0.45800604758199676, 4.736986208665943e-05, 5.991619485987677e-05, 0.0001771144855163568, 0.7137259153575359</t>
         </is>
       </c>
+      <c r="K118" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5234,6 +5454,9 @@
           <t>0.005010502962779569, 0.015000916728777975, 0.41876547412466575, 0.8110882923685143, 0.9768250065202035, 0.9999708771075599, 0.0012295811879718872, 6.015429817909825e-06, 0.8262260909279009, 0.9998725813095533, 5.907007364152216e-05, 0.7106680974371493, 4.364072339299996e-05, 0.5686425082314333, 0.10206236659346427, 0.9713268810541239, 0.0015122118930371103, 6.789422159419015e-05, 0.9999742737186429, 3.459005045576698e-05</t>
         </is>
       </c>
+      <c r="K119" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5282,6 +5505,9 @@
           <t>0.5195383581212006, 9.267827101566871e-05, 1.0, 0.9994623762571285, 0.999918627649069, 1.0000000000000002, 0.9995492083522769, 3.170659860133203e-05, 0.0007989585682034434, 0.9945496459741172, 0.00028720432112145045, 0.00019996240212414446, 0.00016657049749956831, 0.00017975142481258365, 0.00021463999095669407, 0.9999756932482475, 0.018658663896337673, 3.505752948618931e-05, 0.8342581327803321</t>
         </is>
       </c>
+      <c r="K120" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5330,6 +5556,9 @@
           <t>2.9377389936763162e-09, 0.00040948081600601064, 2.575048048019952e-08, 0.00035776110801404064, 0.009938463490402791, 1.0000000000000002, 0.0007668122969345709, 0.580532887285699, 0.0002645430290960209, 0.002477190748951489, 0.9906091152882879, 0.006984890030219389, 0.9995585283393706, 0.9998843588382946, 0.9999999659033841, 1.0, 0.8369402768818568, 0.20860303430198496, 0.7578393404249095, 0.9999552107246006, 0.0017627833056351426, 0.0006175660316222716, 4.0913652001358766e-05, 0.00037406669758404033, 0.0008900609040012232</t>
         </is>
       </c>
+      <c r="K121" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5378,6 +5607,9 @@
           <t>6.640613286733949e-05, 9.496243508378479e-05, 6.9986869693429e-07, 0.00033273685881326674, 0.011281147289210685, 0.991785476422288, 0.9999999999999998, 0.00271032304009899, 0.38980821505125274, 0.00022993495427498105, 0.990218579141516, 0.9999812450071236, 0.00023147186028779233, 0.7509472107782058, 0.021099779608845484, 0.005104555220351069, 0.8595258701612734, 0.42844866417379984, 0.09355269549784738</t>
         </is>
       </c>
+      <c r="K122" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5426,6 +5658,9 @@
           <t>0.0005581261145794267, 0.9578681961806658, 0.9992331877030844, 0.9993700041884975, 0.999996893999715, 0.9972896769598943, 0.029192651382966697, 0.9997354569708607, 0.9999999999999998, 0.006877310569685033, 0.017507610948956514, 0.009781420858476523, 0.9922999818663085, 0.009327589283072021, 0.0005543642266185046, 0.002923229778590442, 0.12379876549935277, 0.9999895606648831, 0.16305972311818703, 0.0013231378487050002, 0.7913969656980051, 0.4653548326570167, 0.23986022687209974, 4.478927538426933e-05, 0.0004154672130842906, 0.8113765423646023</t>
         </is>
       </c>
+      <c r="K123" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5474,6 +5709,9 @@
           <t>0.0004326173995324472, 0.0005176190441440994, 0.004432626679438356, 2.952051527977461e-05, 0.9790336812568746, 0.9971032635200198, 0.9963949204618711, 0.992460745743176, 0.9995151579717494, 0.9999733058394283, 0.20846724503192451, 0.7988792169839812, 0.0002900439432342934, 7.150508419525628e-08, 0.006685050445588673, 0.18685876303017313, 0.9998985591578106, 0.008696273577913416</t>
         </is>
       </c>
+      <c r="K124" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5522,6 +5760,9 @@
           <t>9.656009456474698e-05, 0.02831781302312104, 3.1060004053703284e-06, 0.7103258204426528, 0.9997447822039538, 0.9998414192043245, 0.0004251743773388846, 0.00266873578033898, 1.0000000000000004, 0.997321096866965, 1.0, 0.0020939542723867133, 0.00035594110140465114, 0.0018738477991745736, 0.791532754967912, 0.20112078301602743, 0.8759111905574691, 1.0367830018976e-05, 0.9833848954696155, 0.9986768621512572, 0.5338324766099338, 0.9999999999999999, 0.9995845327868639, 1.911299631051085e-06, 0.00010144084218610473</t>
         </is>
       </c>
+      <c r="K125" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5570,6 +5811,9 @@
           <t>0.0010879957171651773, 0.998345052680997, 0.9999998489191065, 0.0002616349417323619, 1.0, 0.0009169303608413006, 0.4300036153272275, 0.1850363361474291, 0.9965603054130043, 0.020411530341878557, 0.8275131868923191, 0.9999874028238455, 0.5285746213891505, 0.9999254072525815, 0.9986388467148836, 4.764372142584443e-08, 0.00015964785588873075, 1.4372633500996853e-05, 0.00010195542889184476, 0.0005139345141170862, 0.9999321534036012</t>
         </is>
       </c>
+      <c r="K126" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5618,6 +5862,9 @@
           <t>0.006568401746007169, 0.0016537638252877081, 0.0017762733014929516, 0.00637152682867379, 3.78354863690871e-06, 1.510808987247827e-07, 0.03960811461679047, 0.013813990796180139, 0.0006299958114553139, 0.2896741795566813, 0.0002549959498838723, 0.001513276918432413, 1.0, 0.9931226894303126, 0.9822624540967132, 0.9967603588070433, 0.9990830696391574, 0.007468546273446131, 0.5694854076409763, 1.0, 0.9994969415317464, 0.9584886900492045, 0.000515917150453638, 0.0029214781239986173, 0.9275998508767656, 0.9952029224223156, 0.0008126907330654685</t>
         </is>
       </c>
+      <c r="K127" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5666,6 +5913,9 @@
           <t>0.21571925940044032, 0.5573759224365663, 0.1731302630176538, 0.33075901968136034, 0.009417217470605643, 0.00011126305283701658, 0.9998228855145488, 0.2862740846424642, 7.894418817944553e-05, 0.00019952039005196153, 0.5822767192612059, 0.9998980445712159, 0.6367806823603493, 0.0007089179936055601, 0.5015580075388865, 0.0002623347736774467, 1.0, 0.9999999750690245, 1.0, 0.9998896923769423, 2.5726281346891924e-05</t>
         </is>
       </c>
+      <c r="K128" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5714,6 +5964,9 @@
           <t>0.02385860343875202, 0.1889117076315132, 2.9122892447798943e-05, 1.1834937826123378e-06, 0.0640164530743672, 0.0034396945870143144, 0.9999563592766476, 0.17197089595718515, 1.0000000000000002, 0.9948954447795902, 0.14047412983875432, 7.736209347867875e-05, 1.0000000000000004, 0.9999210558118596, 0.0011610050515516292, 0.36321931772043003, 0.8979376334065361, 0.9984877881069549, 0.9996697709116025, 0.00011030762311389733, 0.9994860654859101, 0.9064473045020321</t>
         </is>
       </c>
+      <c r="K129" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5762,6 +6015,9 @@
           <t>0.014179958690689842, 1.6372108053021672e-06, 0.995815056453645, 0.9918161533792595, 0.000583625659204062, 0.004020757249915007, 4.634070343042592e-12, 0.9999992277415305, 0.9027527898240132, 0.9999999666036586, 0.9999999999999999, 0.9999999853081041, 1.1212604291156217e-08, 1.737859383771984e-08, 0.014580563534249854, 0.6657904680005656, 3.7183171169526336e-09, 1.0, 0.0006202900391125828</t>
         </is>
       </c>
+      <c r="K130" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5810,6 +6066,9 @@
           <t>0.4588098693559743, 1.383765934543603e-06, 0.01487209149237685, 0.004960192910503212, 0.00020028637781361575, 1.2999958236364537e-09, 0.7176225522558706, 0.053465854314247475, 3.4511680544081456e-10, 0.3256071972088235, 0.8358933118740979, 2.008939365257134e-09, 0.9935661301010241, 0.9999999999999993, 0.7294885452343802, 0.851189340901316, 1.8842133498017343e-08, 0.9953484748062621</t>
         </is>
       </c>
+      <c r="K131" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5858,6 +6117,9 @@
           <t>0.0036711390100738757, 0.013195573744350448, 6.855839339830034e-10, 0.719855325378128, 2.5987169052182894e-10, 0.3504545327784966, 1.3567063425659018e-09, 0.9976982656100741, 2.9427380534351153e-08, 0.6075270961801345, 0.9999993948686094, 0.1735802787004511, 0.30829806762348827, 0.9465341410682032, 1.2766914362653308e-08, 4.810212932634604e-07, 0.4428504467701778, 0.9999994335369431, 0.9980260078080666, 0.9999999922511368, 0.14881065909868055, 0.9999402346796432</t>
         </is>
       </c>
+      <c r="K132" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5906,6 +6168,9 @@
           <t>0.9998815211214253, 4.931228208563902e-08, 0.010527143597313318, 1.5346460613408615e-10, 7.838771770943674e-07, 6.24175242884272e-07, 1.7979568813487813e-09, 1.0598239304294768e-06, 0.9999988339679441, 8.585998949290797e-10, 0.25318581043149024, 0.3342095286577152, 1.700365330841006e-08, 0.7833358596493739, 3.625984450581948e-08, 1.0, 1.0, 0.9999999629886493, 0.9999999939721244, 0.999999997991049, 0.0026846885104971725, 0.004643168449789377</t>
         </is>
       </c>
+      <c r="K133" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5954,6 +6219,9 @@
           <t>9.332052281831136e-18, 6.283329947436996e-06, 2.801525883503404e-15, 7.697737560039136e-17, 1.6210558002924201e-06, 0.012507176818028704, 1.0000000000000002, 2.455569658569226e-09, 0.6663970492126684, 5.958853227255177e-07, 0.9999085960903348, 2.6573932492387374e-10, 3.919868714785553e-09, 0.9999895871024274, 0.9999996988814746, 0.9999989369234146, 4.150721573015344e-12, 1.0, 0.8367914982278726, 0.9980960375957617, 0.7624593381095564, 0.9999999987582351, 4.400758764229673e-07, 6.149293024089223e-09, 6.983080853799253e-08</t>
         </is>
       </c>
+      <c r="K134" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6002,6 +6270,9 @@
           <t>0.4706012240295949, 0.7049673771710893, 0.9999702559323108, 0.9999999975444243, 0.9999999999999997, 0.022414604559121976, 0.9999546125843072, 0.9999999999999998, 0.6255713447736643, 0.02708812499204498, 0.0006626850708305121, 0.16320850177212526, 0.0018965955464723678, 1.429707527115575e-07, 0.23653078708081074, 1.2417688603507542e-09</t>
         </is>
       </c>
+      <c r="K135" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6050,6 +6321,9 @@
           <t>3.338906684043667e-07, 2.2503889746546973e-07, 0.0031627525856046403, 0.0005870196935288642, 1.885660953695151e-06, 0.9739829865155292, 0.9973419340752752, 0.999998973640138, 1.9992461082064234e-08, 0.9999999997342626, 0.9997401658627811, 0.9999999593870484, 0.9999993392000328, 0.9999999967708755, 0.7573479735523267, 5.433846545656407e-08, 0.2595041306246351, 9.51384392715401e-09</t>
         </is>
       </c>
+      <c r="K136" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6098,6 +6372,9 @@
           <t>0.9999981143390752, 0.5277328974138353, 2.974406772819019e-05, 1.0, 4.4791530392490824e-05, 0.9999969267158226, 0.9999999890895412, 0.004384923485539534, 1.0000000000000004, 0.9963011274146885, 0.0004601405447721599, 0.00027016174310555397, 1.0, 0.0008096171587240877, 0.0008339262180278894, 3.636877183185552e-09, 6.568801536813096e-07, 3.2290674274488664e-09, 0.24265202644774442, 0.9999999456574918, 0.7391765533076885, 1.0000000000000002, 7.366857583752121e-06, 0.9999998570292563, 0.9999999999999999, 1.0</t>
         </is>
       </c>
+      <c r="K137" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6146,6 +6423,9 @@
           <t>0.9999999935088997, 0.37801527861760226, 0.02761701297116706, 0.004208980655993217, 0.985820040643122, 4.1844699378398835e-08, 0.006894369130444439, 0.9999983627892153, 0.32283698984640147, 0.008183846620729195, 0.0003520336994105533, 1.1961038648050838e-10, 3.161190600858937e-08, 0.9891539485474161, 0.9679176180859062, 0.9993373149291909, 0.9999999850049264, 7.087816237805567e-07, 1.8967718487190625e-08, 3.6623314475502e-08</t>
         </is>
       </c>
+      <c r="K138" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6194,6 +6474,9 @@
           <t>0.9723829870288663, 1.0000000000000004, 0.0012946281508589028, 0.0016658785565436905, 0.28557136667060284, 0.002862347092496932, 0.00015090384061404729, 0.000249940307096157, 0.004184943546382751, 1.6033728150433606e-06, 0.9952630428150456, 0.000640532730533815, 0.997639455900535, 0.9994163427288266, 0.004994256921983121, 1.1447159341154269e-06, 0.9951453165320533, 0.9999999999953678, 0.9993306218112001, 7.722584711086594e-07, 0.09724720931738409, 6.829560202572792e-09, 0.7321398063088419, 0.00030427150485763514</t>
         </is>
       </c>
+      <c r="K139" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6242,6 +6525,9 @@
           <t>1.5654906414310474e-11, 0.9999999987000403, 0.28237744774412854, 2.656678267766859e-08, 1.469175715148594e-08, 0.9999999887874697, 0.9999999636537925, 0.33379491621747676, 3.3418041700248274e-09, 0.9999999792779632, 9.290083199429726e-09, 0.9999999962460414, 0.7495508234521506, 0.5707456456059813, 4.617555282825733e-09, 1.0, 0.2157395788066537, 0.5571495386826579, 0.6743927665313457, 0.16410668812587284, 0.0037491813884818407</t>
         </is>
       </c>
+      <c r="K140" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6290,6 +6576,9 @@
           <t>6.490959208924591e-09, 0.9917571204132778, 6.504933844508882e-10, 0.999999958155319, 0.6495454672214841, 1.4995229911662398e-08, 0.1175488641089316, 3.570547490615642e-09, 0.9999999705726075, 0.6662050471591996, 1.0, 0.39247290381990246, 0.8264197212995509, 0.6917019230865734, 3.754031373231118e-09, 0.2504491765478784, 0.4292543543939272, 0.999999948141158, 1.4201999817333692e-08, 5.664630538584407e-07, 7.748851515819231e-09</t>
         </is>
       </c>
+      <c r="K141" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6338,6 +6627,9 @@
           <t>1.0000000000000002, 0.17318173374381246, 1.0000000000000002, 0.6689772578368177, 1.0000000000000002, 1.0, 0.9999975964979141, 1.0000000000000002, 0.9202465959586772, 0.0005769918041515103, 5.5839770110455365e-06, 0.9999999999999999, 1.0, 0.013161571005670454, 0.6425894417637498, 4.2059484788323875e-06, 1.0000000000000004, 1.0000000000000004, 1.0000000000000002, 0.9999999999999996, 0.9999999999999998, 1.0000000000000002, 0.9999999925191657, 0.8762555444219827, 1.0, 0.34324000027471474, 0.46716714227856965, 1.0000000000000002, 0.5437854860884678, 1.0, 0.9999999999999998, 1.0, 1.0, 0.7581728862263022, 0.18081631722792893, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.27684835996311336, 0.6015844153414492, 0.5911753780719425, 0.9998125990932909, 1.0, 0.9999999999999999, 0.38216019306525245, 1.0, 0.00038461093626793256</t>
         </is>
       </c>
+      <c r="K142" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6386,6 +6678,9 @@
           <t>0.021804377151506273, 0.04533716817567926, 3.1368710606427125e-06, 0.0011591959231426014, 0.7913167977398794, 0.0005744899036143268, 0.049396179552918466, 0.9999999999999998, 0.4161880058013391, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000002, 0.2410816651374245, 1.0000000000000002, 0.9999999999999998, 1.0, 0.34106846596736096, 0.9999999999999994, 1.0000000000000002, 1.0000000000000002, 0.4776359132835441, 1.0000000000000002, 0.6600434154133571, 0.6711906104791001, 0.0010748243069709524, 0.9999999999999997, 0.9999999999999998, 1.0, 1.0000000000000007, 0.9999642181542621, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9462434796601316, 0.007707370779678345, 3.381462484851832e-05</t>
         </is>
       </c>
+      <c r="K143" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6434,6 +6729,9 @@
           <t>1.0000000000000004, 1.0000000000000004, 0.2185004984813764, 1.0000000000000002, 8.534802913802974e-06, 0.04354504200507681, 0.9955199329913559, 0.7613343708492274, 0.9999999999999999, 0.9522488353942679, 1.0000000000000002, 1.0, 0.9999999999999993, 0.4968499017112363, 1.0, 0.10583947200050503, 0.9995627584911951, 4.70341049570054e-05, 0.28165937665500096, 0.1636697346944686, 1.0, 0.041506578122269364, 1.0, 0.9999999999999999, 0.0060990642646021045, 0.9980477515343028, 0.43842121857317784, 1.0000000000000002, 0.9961843790254723, 1.0, 1.0, 0.9898941421349303, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 3.3035120841058623e-07, 1.0, 1.0, 1.0, 1.1039401899330677e-06, 0.9999999999999993, 0.00036357032112439673, 0.8048912733192171, 0.998569789729394, 0.037393021966111106, 0.011498020828846633, 0.03379159706389615, 0.0047350256168986, 0.059873469353157203, 1.0, 0.9985217068438885, 1.0000000000000002, 1.0, 0.014444184530596154, 0.016741033705156005, 0.0017771666083191157, 0.016010703535790403, 0.03247808797787793, 0.0023119023980311014, 8.382042809060456e-05, 1.0000000000000002, 0.9922559579471063, 0.24262252439580256, 0.35994376668524203, 1.0000000000000002, 0.9999510246712443, 0.9142198859116154, 0.028517981510762496</t>
         </is>
       </c>
+      <c r="K144" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6482,6 +6780,9 @@
           <t>0.9999999999999997, 0.701631788023711, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.7814995015189599, 1.0, 1.0000000000000002, 0.008335446093726266, 0.000393650830463269, 0.004181183107233124, 0.42615123524795995, 0.6144932619185077, 0.6137625119282857, 0.9999999999999997, 0.9999999999999999, 1.0000000000000002, 1.0, 0.9999999999999998, 0.9999999999999999, 0.7632002468484013, 0.9999999999999996, 0.9999999999999997, 0.988217441211055, 0.9698018770571332, 1.0, 0.9999999999999999, 0.9998689815041348, 0.9934384201560925, 0.9951996423778081, 0.9999999999999998, 1.0000000000000002, 0.5615787814266863, 4.197824314929245e-05, 0.9999999999999998, 0.999999669648706, 1.0000000000000002, 1.0, 0.9999988960599187, 0.998473191276413, 0.9999999999999992, 0.9996364296787934, 0.18816252728907945, 0.9999843952062569, 1.0, 0.8799896338618547, 1.0, 0.7295385025952908, 0.0002919386781495005, 1.0, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 0.011616519408405501, 0.00011806925954489615, 2.052400283689024e-05, 0.7266551560159012, 0.2714424411853962, 0.08578011408828791, 0.9697748612730387, 0.40503692404686137</t>
         </is>
       </c>
+      <c r="K145" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6530,6 +6831,9 @@
           <t>0.5858422594878908, 1.0000000000000002, 0.9999999999999997, 1.0, 0.9999999999999996, 1.0, 1.0000000000000004, 0.9996944251838752, 0.07975340403668577, 0.2589910197026279, 0.5811797343611605, 0.05223794376932894, 0.02665424572341966, 1.0, 0.9999999999999999, 0.9999999999999994, 1.0000000000000002, 0.9999944160216907, 1.0, 0.9999999999999998, 1.0, 0.7836333586172787, 0.9999999999999998, 1.0000000000000013, 1.0000000000000002, 0.9996063491696792, 1.0, 1.0, 3.388876380526558e-05, 0.5738283358300835, 0.3855067380816829, 0.3862374880712726, 0.2367997531511441, 0.00577643881868611, 0.2104800924524192, 0.11839947103884538, 0.011782558788760769, 0.03019812294285719, 0.00013101849579565147, 0.006561579843700774, 0.004800357622202004, 1.1237968925223347e-08, 2.7424940765876164e-05, 0.2606798797728013, 0.0015268087235251007, 0.4549216595847919, 1.0000000000000004, 0.9999999999999999, 1.0, 0.999978541552439, 0.3574105582209113, 7.480836419507637e-09, 0.9983707146885346, 0.9999999999999996, 0.3967202753856192, 0.18273909532699392, 1.0000000000000002, 0.16540605707413827, 0.9999999999999998, 0.8007323122289025, 1.0000000000000002, 1.0, 0.9573183230495917, 0.002166735935371497, 0.033423646556411196, 0.20482796982347534, 0.9998203637957424, 1.0000000000000002, 0.9999999999999998, 0.9999999999999997, 0.00018740090175807032, 1.0000000000000002, 0.43762805657223075, 1.0, 0.2733448439842452, 0.728557558814728, 0.558566091548813, 0.8845626664785016, 0.5942571416033169</t>
         </is>
       </c>
+      <c r="K146" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6578,6 +6882,9 @@
           <t>0.9962369275548677, 0.9956418592934593, 1.0000000000000004, 0.9968230359616058, 0.9988971057266031, 0.0036966808594045527, 0.00450449746691014, 0.005071394565919545, 1.0, 1.0000000000000007, 0.1931231747196379, 0.999999991671197, 0.9999999999999999, 0.9999999999999998, 0.8721182288927849, 0.9999999999999998, 0.9999999999999999, 0.9380650311254896, 0.9999999999999999, 0.9564549579972649, 0.0044800670056475275, 0.2168612519967983, 0.0024139964274494928, 0.9987127258586173, 0.7179520722203013, 5.705729818532425e-05, 0.00025096747366559475, 0.00381562096962025, 0.9450497022311781, 0.0003972375042122788, 0.9997677215668209, 0.9999999999999993, 0.0010308065430830403, 0.6469729896277631, 0.14670808338174454, 0.997271635181136, 0.9999999999999999, 0.03294959371679009, 0.0019734481507783165, 0.9942305478387686, 0.9976880975982308, 0.9952131064445237, 0.9997434818159334, 3.9223443776411177e-07, 1.0, 2.48986495999308e-05, 0.9994912285075639, 0.6655593379185294, 4.274252337176806e-10, 1.0000000000000002, 2.7822165908034922e-05, 0.004420044274197535, 0.09464117049214345, 1.0000000000000002, 1.0000000000000002, 0.998305699012822</t>
         </is>
       </c>
+      <c r="K147" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6626,6 +6933,9 @@
           <t>0.41415774049685866, 0.00376307244498241, 0.19753782411259174, 0.29836821197699087, 0.004358140706599107, 0.910879928037428, 0.014389829951242291, 0.003176964037837001, 0.5127274639092604, 2.4035021905126528e-06, 0.001094359473862457, 0.00030557481456293145, 0.7216431588753806, 0.5941845185138254, 0.995495502533217, 0.741008980283116, 0.41882026563895663, 0.9999999999999999, 0.9949286054343015, 0.9477620562229575, 0.9727687624676232, 0.889945456128286, 2.042891655019646e-05, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 0.9999999999999997, 0.9999529658940772, 1.0000000000000002, 0.0012872741413716504, 0.00038855111508752886, 0.8362732079884654, 1.0, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.9999580105020025, 0.9999725750553682, 0.8292317655267779, 0.21810277099779452, 0.2964293307898175, 0.12001036613115436, 0.7523718196299004, 0.270461497400691, 2.1458442110825367e-05, 0.12374445557794662, 0.9992119058205495, 0.0016292852967320093, 0.002728364818844035, 0.008516061471802725, 0.9999999999999999, 0.001478293153888695, 2.7975115568966537e-06, 0.9985819956905575, 7.700564332681856e-05, 0.005769452161252892, 0.9665763534453174, 0.004703073127312507, 1.0000000000000002, 0.9999996077654987, 0.00017963619736253, 0.9999751013504049, 0.0005087714933732682, 0.9999721778335715, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9981966328502305, 0.11505272257718296, 0.9316125684453717</t>
         </is>
       </c>
+      <c r="K148" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6674,6 +6984,9 @@
           <t>1.5237999000181803e-05, 0.9999999999999998, 0.6685944071900098, 0.3473283567603216, 5.811827803114545e-05, 1.0000000000000002, 0.08912007196234069, 0.5934783709264865, 0.9856101700488337, 0.08678436251619555, 0.4021188006267834, 0.772213847116601, 8.32882999598429e-09, 0.005951106918329426, 0.520644735690835, 0.0004470256862351877, 0.926538452125604, 0.8311492866022707, 0.0007651738378702772, 8.779588239852187e-05, 0.02092975838433503, 0.08578494739256451, 0.38169174128304434, 4.286987828278118e-06, 2.4966376555745923e-05, 0.9999999999999998, 0.9999965160879245, 0.9862449327379647, 0.054950297769000046, 0.9996027624957741, 0.00023227843325022878, 0.9989691934568988, 0.3530270103726897, 0.8532919166183014, 0.6756496396335804, 0.47248185378985585, 0.9936282840444494, 0.44945386883972455, 4.096570144484995e-05, 2.5096036533213397e-05, 0.9999229943565785, 0.999233638705745, 0.604944384549433, 1.0, 0.0001624430793431994, 0.7143447999301753, 1.0000000000000002, 1.0000000000000002, 0.7286259892999143, 0.9980265518497362, 0.00025651818405337905, 0.4001013853448389, 0.9999999999999999, 0.3344406620814853, 0.9999999995722757, 0.9999900103134015, 1.0, 1.0, 0.9955799557258066, 0.9999999999999998, 0.9998386591960712, 0.9000322470900187, 0.0016943009866956305, 0.9986410474683358</t>
         </is>
       </c>
+      <c r="K149" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6722,6 +7035,9 @@
           <t>0.9999847620009371, 0.32789444266172707, 0.629280442143437, 0.9999418817218283, 4.706976936252489e-06, 0.3310227421628621, 0.406521629073476, 0.5724568359337328, 0.48727253609070226, 2.0165835895092763e-08, 0.27835684112463693, 0.9132156374837097, 0.5297352716327791, 0.9999999999999997, 1.0, 0.5660455611898941, 0.47935526430886816, 0.7480784219117005, 0.07691597049245896, 0.04988283869917266, 0.7302818107204421, 0.07346154787464318, 8.590278995154754e-06, 1.0000000000000002, 0.9999999999999993, 0.9142150526072009, 0.9999999999999999, 1.0000000000000002, 0.17076823447326345, 0.7818972290022594, 1.0, 1.0000000000000002, 0.7035706692101675, 0.24762818037014492, 1.0, 0.9143171729800047, 0.9999957940517393, 1.0, 0.6179743626639062, 0.9999999999999999, 0.999999043268542, 0.4477936833173291, 0.9999957130122735, 0.9999750336230905, 0.6034802474901918, 0.0007880941795516331, 0.9914839385277076, 0.9999999999999999, 0.532832857721387, 0.0015271095569999484, 0.0003360291975403288, 0.4010827974676061, 0.3243503603665537, 0.5275181462104195, 0.006371715955847186, 0.5505461311600799, 1.0, 1.0, 0.9999562367869113, 0.0013929082732397513, 0.9999997418455224, 0.9999863035719079, 1.0000000000000004, 4.956418407289419e-05, 0.0009426210948193095, 0.819183682772123, 1.288020109987943e-07, 1.819892683495802e-08, 0.03307847380085297, 0.0007663612944353906, 0.39505561545060963, 1.0, 0.3984155846586914, 0.5998986146554226, 0.4088246219279079, 0.9999999999999998, 9.989686481633098e-06, 0.00016134080410724216, 0.0018033671498345863, 0.07607495678860345, 0.06838743155455715</t>
         </is>
       </c>
+      <c r="K150" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6770,6 +7086,9 @@
           <t>1.0000000000000002, 0.17318173374381246, 1.0000000000000002, 0.6689772578368177, 1.0000000000000002, 1.0, 0.9999975964979141, 1.0000000000000002, 0.9202465959586772, 0.0005769918041515103, 5.5839770110455365e-06, 0.9999999999999999, 1.0, 0.013161571005670454, 0.6425894417637498, 4.2059484788323875e-06, 1.0000000000000004, 1.0000000000000004, 1.0000000000000002, 0.9999999999999996, 0.9999999999999998, 1.0000000000000002, 0.9999999925191657, 0.8762555444219827, 1.0, 0.34324000027471474, 0.46716714227856965, 1.0000000000000002, 0.5437854860884678, 1.0, 0.9999999999999998, 1.0, 1.0, 0.7581728862263022, 0.18081631722792893, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.27684835996311336, 0.6015844153414492, 0.5911753780719425, 0.9998125990932909, 1.0, 0.9999999999999999, 0.38216019306525245, 1.0, 0.00038461093626793256</t>
         </is>
       </c>
+      <c r="K151" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6818,6 +7137,9 @@
           <t>0.015889763691737894, 8.743475003961113e-07, 0.006548319086200734, 0.9996920147406592, 0.9999999999999997, 0.0874784754494058, 0.00035399604177986627, 0.0011675062996726285, 1.0000000000000002, 0.6997708714245521, 0.8562726169518868, 0.28160896206423186, 0.0002132894350038156, 2.3109510909054306e-05, 5.803628122986017e-06, 0.3281580435653112, 0.0005422926617584001, 0.47628498646412193, 0.9998092333094984, 0.9985933472088373, 0.49911557937646667, 0.19704242291504218, 0.9999999999999998, 1.0000000000000004, 0.9999573682282726, 0.9999989020954934, 0.5555516833137734, 0.9924393205133848, 0.9905431088514913, 0.0063320413366575205, 0.25375890574166077, 0.6061364890059462, 0.6483796296833892, 0.9999893609261038, 0.9999999999999998, 0.9999999999999999, 0.4216848472727413, 0.42586016907096075, 0.5962577556936354, 0.9999998366219359, 0.9999999999999999, 0.8730852016842359, 0.3075850809290416, 0.9999999999999998, 1.0000000000000002, 0.32361966360384525, 0.18107584955588213, 0.6876970080448856, 1.0, 1.0000000000000002, 0.5792246855615478, 0.6365712793387647, 1.0000000000000004, 0.7319923502162463, 0.4124305109083232, 0.4769413993638073, 0.7147438525371256, 0.9990206247792814, 0.9999999999999998, 1.0, 1.0000000000000004, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.440069406164874e-05, 1.0000000000000004, 1.0000000000000002, 0.6483316585303758, 0.9999999999999998</t>
         </is>
       </c>
+      <c r="K152" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6866,6 +7188,9 @@
           <t>3.210164179247777e-05, 3.638476447952601e-05, 0.6274892851733832, 1.0, 1.0, 0.12959269739067766, 1.0, 0.8170530317089808, 1.0000000000000002, 0.9999996885060407, 0.9999955261761727, 0.41597311040255075, 0.9999999999999996, 1.0000000000000002, 0.8636295456492057, 0.7657611720972451, 1.0000000000000002, 0.21377830088354213, 0.8244461131939613, 2.0105930086137253e-05, 5.579399063342336e-05, 0.04088004269919192, 0.2354546099745195, 0.0055180003481024986, 0.5890830432590611, 0.00021981899869173555, 0.999682428376189, 0.1365037932916343, 0.9999999999999999, 1.0, 0.9999999999999999, 0.5016661671374218, 0.16934957874193807, 0.00015673086740240947, 0.5815927360375813, 0.5668081147035752, 0.3270487772231577, 0.994007766205632, 0.5414907361996942, 0.10800335154731266, 0.19455057297772013, 0.5766125171905362, 0.4552334947989656, 0.37372963816544047, 0.8949744117438732, 1.0000000000000002, 0.9999999999999998, 2.2265931533724043e-05, 0.00021538172861544608, 0.000504093192236643, 0.3066160707980602, 0.9999999999999999, 1.000000000000001</t>
         </is>
       </c>
+      <c r="K153" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6914,6 +7239,9 @@
           <t>0.9999999999999996, 0.9841077669959807, 1.0000000000000002, 0.18599160119642902, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 0.02623476121991744, 1.0000000000000002, 7.345858499541965e-05, 1.0000000000000002, 0.02483984237016113, 1.0000000000000007, 1.0, 0.9999999999999996, 1.0000000000000004, 1.0, 1.0, 1.0000000000000002, 1.0, 0.999976890489106, 0.010487731792275143, 2.43444727897912e-09, 0.0014066527912370375, 0.5008844206234803, 0.9806871656523102, 1.0, 0.8029575770849604, 1.0000000000000007, 0.9999999999999997, 0.993667958663328, 0.7462410942583666, 0.004297003726166029, 0.004893066456685339, 0.9999999999999999, 0.0052952563661462755, 0.39386351099408806, 0.9999999999999998, 1.0000000000000002, 0.9999999999999992, 0.01023338338144499, 0.35162037031654597, 0.006502320706974914, 0.0011350065622242114, 1.0639073842829432e-05, 0.9999999999999998, 0.008653294981711456, 0.5783151527273883, 0.4037422443063959, 0.9999999999999998, 1.0000000000000002, 1.6337804107743526e-07, 1.0, 1.0, 0.0014359921133982568, 0.6924149190708949, 1.0, 0.676380336396178, 0.8189241504440011, 0.9999999999999998, 0.9999999999999998, 0.3123029919550746, 0.9999999999999998, 0.9999999999999999, 0.3516683414696357</t>
         </is>
       </c>
+      <c r="K154" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6962,6 +7290,9 @@
           <t>0.376849310875349, 1.0, 0.9999567589340019, 0.07318147701897666, 0.6564014134138106, 8.173459793463028e-05, 0.3164688296950745, 0.45929302236407976, 1.0, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 0.6446700226617569, 1.0000000000000002, 0.9999999999999997, 0.8168360205965143, 1.0000000000000002, 1.0, 1.0, 0.5815846680954276, 1.0, 1.0000000000000002, 0.9999999999999998, 1.3689189591770026e-08, 1.0, 1.0000000000000002, 0.030599251304290916, 1.0000000000000002, 0.9999744451502656, 0.9999999999999999, 1.0, 0.9999999999999998, 1.0, 1.0, 1.0000000000000004, 0.7150997286185719, 0.29343338980515415, 0.5135743001777017, 2.8553902858771797e-06, 0.022791931123210766, 0.9999999999999996, 1.0000000000000002, 0.21131714861296197, 2.9677860972276613e-06, 0.31578614285863016, 1.0000000000000002, 0.9999999999999996, 0.0144853384311103, 1.0461768840360728e-06, 0.5643984901421645, 0.9996877156180568, 0.9999999999999998, 0.9999999999999994, 0.9999300223814921, 0.013299614444205493, 0.9999629898872497, 0.24895431396658385, 0.0011316761958434795, 0.9999999999999998, 1.0, 0.3146205616917288, 0.2152034090715457</t>
         </is>
       </c>
+      <c r="K155" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7010,6 +7341,9 @@
           <t>1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 7.3583368033338565e-06, 1.0000000000000002, 0.35082274889105747, 1.0, 1.0, 0.00012888790139741995, 0.3506868118668602, 6.3657974942301445e-06, 1.787790703175352e-05, 1.9583219935518835e-05, 0.9999457131514679, 0.9907699442986079, 0.999942348980086, 0.37649832749855555, 1.0000000000000004, 0.9992690909383615, 1.0, 0.997310638939936, 0.3553299773166036, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 0.9999800795427576, 0.9999999999999999, 0.5374619270875355, 0.9999999999999998, 1.0000000000000002, 1.0000000000000004, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0, 0.8352866192364832, 7.739280611108994e-05, 0.9999999999999998, 0.9999910168310854, 0.2537660652177702, 0.3508846329530661, 1.950913704301784e-05, 0.6218489161583495, 4.5198573764795844e-05, 0.9998445804017791, 0.9999999999999998, 1.0, 1.5776876689043057e-05, 0.999927418669896, 0.9999773272571513, 1.0000000000000002, 0.9999999999999999, 1.0, 0.2150945859717006, 0.3255347474552705, 0.5997218643871771, 1.0000000000000002, 0.9840091640325643, 0.9999989538228825, 0.0005317100029697876, 0.35086890672442234, 0.6786412568603527, 0.0001841149189295962, 0.5123497957508341, 0.9999999999999997, 0.9988683238035366, 7.939377452284148e-07, 2.7196780506657317e-06</t>
         </is>
       </c>
+      <c r="K156" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7058,6 +7392,9 @@
           <t>0.19645217130705867, 1.599694129786727e-08, 0.03223221475215951, 0.0005474496409680051, 0.008719095052869708, 1.0000000000000002, 0.9999999999999998, 0.9999999999999997, 1.0000000000000004, 0.0012428134259481927, 0.999978751853906, 0.0011594947012844791, 1.630082084182537e-05, 0.9999999999999998, 0.9999999999999997, 0.9999999999999999, 0.9991725809341065, 0.9999999999999997, 0.9993703556521557, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.03316197729949295, 0.9999963758453876, 1.0000000000000002, 0.999830830000608, 0.9999941963719935, 0.6598052673943654, 0.9889699755460204, 0.5237150135358928, 0.00019076425596406625, 1.0000000000000002, 0.019312834347693056, 4.263177161220643e-05, 0.007560679486607802, 0.009414878951901776, 1.0000000000000004, 0.9998688129856486, 0.9999968177622249, 0.9999999999999997, 0.9999999999999992, 0.9999190397569682, 0.9999999999999997, 0.9999824241854335, 0.999720482689048, 0.9998642119207594, 0.9982272401822104, 0.9999903194893315, 0.9136811503206126, 0.9951069335433179, 0.9988607144405859, 1.0000000000000007, 0.9999737725644918, 0.6775384564756788, 0.024020055826518436, 0.9999999999999997, 0.9985640078866093, 0.3314407941893775, 3.4553858981571615e-05, 1.0, 1.0000000000000004, 0.998279753483684, 1.0000000000000002, 0.9999999999999997, 6.905853401796703e-06</t>
         </is>
       </c>
+      <c r="K157" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7106,6 +7443,9 @@
           <t>0.8035478286929427, 1.0, 1.0000000000000002, 0.3500808894001467, 0.6444059059656595, 1.4511549969535598e-05, 0.8560444900679303, 0.988550181207526, 0.9824092443872061, 1.0000000000000002, 0.9999999999999998, 0.9751601576298458, 1.0000000000000007, 0.0006296443478299338, 3.6241546004899633e-06, 0.0034592169542995077, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.0820218459533069, 0.9947047436338569, 1.0000000000000002, 0.989766616618557, 0.9934976792930146, 1.0, 0.9999999999999997, 1.0000000000000002, 0.9999999999999997, 4.278997188475957e-06, 0.32246154352432366, 0.9673266491916994, 0.0016504394742799479, 1.0000000000000002, 2.6784516359777533e-06, 0.9999999999999999, 3.842678638924696e-05, 0.9999999999999998, 1.0000000000000002, 0.9999999999999996, 1.0, 1.0000000000000002, 0.9999744719382642, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9998937837379108, 3.142847003206462e-05, 0.9999999999999999, 0.9999751725859333, 2.983565566001205e-05, 4.422980891721647e-06, 0.9999637795194126, 1.0, 0.8735690756917296, 1.0000000000000002</t>
         </is>
       </c>
+      <c r="K158" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7154,6 +7494,9 @@
           <t>0.6231506891140335, 4.32410606292555e-05, 0.04714331940902943, 1.0000000000000004, 0.9999182654027401, 0.6491772511087257, 0.6835311703061848, 0.6493131881337649, 0.9967951993930111, 0.1831639793964791, 1.0, 0.4184153319001896, 0.9897077985763911, 0.999999986310891, 0.649115367046698, 0.8227517550653555, 0.02363162013989146, 0.014888464561570914, 0.9438410681373427, 0.9218297525441064, 0.1318481138789187, 0.04739509584334604, 0.9996321326277348, 0.00015541959817981586, 1.0, 2.555484693330198e-05, 0.28490027136722573, 0.7065666101908662, 1.0000000000000002, 0.4864256998265384, 0.9999971446080889, 1.0000000000000002, 0.788682851381857, 0.9999970322121018, 1.0000000000000004, 0.46911927115314106, 0.9999999999999998, 0.9468952308912995, 0.015345915409586358, 1.0, 1.0000000000000004, 0.6491310932753211, 0.00031228437309713513, 6.997760818286775e-05, 0.9867003855517464, 3.701010651367323e-05, 0.7510456860245541, 0.999999999999999, 0.9999999999999997, 0.9999999999999997, 0.6853794383098237, 0.7847965909305723</t>
         </is>
       </c>
+      <c r="K159" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7202,6 +7545,9 @@
           <t>0.009530315400702854, 0.9999999999999999, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 0.9755285014014464, 0.9995510447800651, 0.9999999999999999, 0.9999926416635497, 0.9999999999999999, 0.9998711120988434, 0.0027242194315700297, 5.710827884317888e-08, 6.75119860508777e-06, 5.428684841995399e-05, 4.2903473999661585e-07, 5.765101984716575e-05, 0.6235016725020237, 0.003204800606985824, 0.8876443567949347, 0.1647133807634637, 0.9999226071932257, 8.983169308772047e-06, 1.0, 0.7462339347823587, 0.9999999999999994, 1.0, 0.9999999999999999, 0.9573288446613415, 1.0000000000000002, 0.010292201423648917, 0.9945476722421962, 0.9999999999999999, 0.00017013922634095667, 0.33329266388598655, 1.0, 1.0, 0.9999999999999997, 0.9999999999999999, 0.0781702474558572, 0.025798283693235134, 1.0000000000000002, 0.8895965593521679, 0.9999999999999996, 0.8769154243693266, 1.0000000000000007, 0.9999999999999994, 1.0, 0.9933938128240104, 0.0003226687987865836, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999999999999999, 0.8039646752516211, 0.9999999999999997, 0.9999999999999998, 1.0, 0.99998422312339, 7.258132959124056e-05, 1.0000000000000004, 0.9983561242258407, 0.9999999999999997, 2.267274301546845e-05, 1.0, 6.225670421379491e-06, 0.004627975819709479, 6.091539825072903e-06, 0.05310476910870749, 0.9999999999999996, 0.6744652525446153, 0.3849322202032253, 0.321358743139431, 0.9998158850812329, 0.4876502042487685, 1.0, 0.9627188746251273, 0.999997280322113, 0.0098896782919598, 0.9830883205061502, 0.9999999999999999, 0.9999999999999999, 1.0, 1.0, 1.0000000000000002</t>
         </is>
       </c>
+      <c r="K160" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7250,6 +7596,9 @@
           <t>0.9999999999999996, 0.9999124843212092, 4.467736828228008e-06, 9.749455279062823e-05, 1.137339440271803e-09, 1.516470210540841e-05, 2.4772716728867073e-06, 1.0000000000000002, 1.0000000000000004, 1.0, 0.7399512771949242, 0.9999999999999998, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999999999999998, 5.525550620913557e-05, 1.0, 0.9943407508924217, 0.997422704268133, 1.0000000000000004, 0.35559409403470715, 0.0008657044303627263, 4.632273607806856e-05, 4.762021362291542e-05, 0.6093744923268044, 0.12896797175588728, 0.9999908133782062, 2.1248146087040818e-05, 0.9998980133170419, 0.9999999999999999, 1.0, 1.0000000000000004, 1.0000000000000002, 1.0000000000000002, 0.9996831483925613, 1.2136155108389391e-05, 1.0000000000000002, 0.9988405052986016, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999999999994, 0.01267011075977865, 0.00023555150837181876, 0.9999999999999999, 1.0000000000000002, 0.9999836991791624, 0.0008274190659874377, 0.9667505697662562, 6.608376219485277e-06, 0.4759222218509191, 1.425224855370695e-05, 0.0017727598178527908, 9.68051071528812e-06, 2.6227435167268155e-05, 0.8120702420095645, 1.0, 0.9999999999999999, 0.6685565273589913, 0.9999654461410227, 1.0000000000000002, 1.0, 9.619615984260039e-07, 1.0000000000000004, 0.27873442285644384, 0.9999615732133467, 1.0, 1.0, 2.3286154142496957e-05, 0.9996373015251939, 0.999997493892692, 1.0000000000000002, 1.0000000000000002, 0.30152090834158096, 0.1247109364487058, 0.9999999999999994, 0.9999999999999999, 1.0, 1.0000000000000002, 1.0, 0.9999999999999996, 2.5528061667047398e-05, 0.00010621626207363992, 0.9999685715299165, 2.4827413991880803e-05, 0.9999701643443799, 0.9999955770191299, 2.9314627214605788e-05, 0.1264309243082329, 1.0000000000000002, 5.151271559189593e-05, 3.397374559484998e-05, 0.9999999999999997, 0.34283032615557485, 0.9999999999999994, 0.9999999999999998, 0.9984789934109977</t>
         </is>
       </c>
+      <c r="K161" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7298,6 +7647,9 @@
           <t>0.9999999999999996, 0.21742498907296792, 1.0, 0.8775291591141907, 1.0, 1.0, 0.009016152302752711, 0.2600487228051464, 1.0, 0.9999999999999993, 1.0000000000000002, 0.2696244497576152, 0.5577983372108087, 0.999985264608959, 0.9999739528126119, 0.9999999999999994, 1.0000000000000002, 0.4494277962513266, 0.9999813560088466, 1.0, 0.01130155714793503, 0.6470238243546997, 0.012115411980025468, 0.102101460482097, 0.9999999999999998, 1.0, 1.0, 0.9999999999999999, 1.0, 0.9999999999999997, 1.0000000000000007, 0.9999999999999997, 1.0000000000000002, 1.0, 1.0, 1.0, 1.0, 0.999134295569749, 0.9998980606398562, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999999999999997, 1.0000000000000004, 1.0000000000000002, 0.9999999999999998, 0.9999523797863313, 0.9999999999999998, 0.38968575355223567, 1.0, 1.0000000000000002, 0.26518394379301213, 0.5903434054582302, 0.12886084592675304, 0.7276441692131458, 3.6359642387376938e-06, 0.5459915259228467, 0.5240777781490715, 1.0000000000000004, 1.0000000000000002, 0.9999857477512281, 0.37944751596356147, 0.9999999999999999, 0.9999999999999997, 1.0, 0.9999999999999999, 1.0000000000000002, 0.18792975799041875, 0.9999999999999998, 0.6044770433668828, 0.010625896724116065, 2.7747607619241557e-05, 0.7212655771436723, 1.0000000000000002, 0.9999579088395363, 1.0000000000000004, 0.0003618867352823944, 0.0001422736948704514, 5.364983210993239e-06, 6.867593827896728e-08, 0.9999484872842559, 0.9999660262544209, 1.0000000000000004, 1.0000000000000007, 1.0, 0.657169673844481, 0.0015210065890798596</t>
         </is>
       </c>
+      <c r="K162" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7346,6 +7698,9 @@
           <t>1.0000000000000004, 1.0000000000000002, 1.1007074090858055e-05, 1.0000000000000004, 1.0000000000000004, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.8796752035706991, 1.0, 0.9999999999999999, 1.0, 0.9909838476972317, 0.519828458353766, 0.04794963514658219, 0.9886984428520933, 0.3529413245994696, 0.9429827908757439, 0.9997449047501321, 1.0, 1.0, 1.0000000000000002, 0.8978985395179264, 0.0009252425710125302, 0.014987538176180317, 0.011449818792426342, 0.01759075561279187, 1.0, 0.976341123779892, 0.00013910296562574955, 0.1411537404205197, 0.002383381750878763, 0.9107498244733556, 0.9526049041566578, 0.9965407830457964, 1.0000000000000002, 0.9994454815165281, 1.0000000000000004, 0.99998754777769, 0.9999999999999997, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 1.0000000000000004, 0.9694007486976206, 0.9999999999999996, 0.999918673110746, 1.0, 0.9969435206286063, 0.9999999999999999, 3.0506710323643697e-06, 1.0, 0.9983495605256478, 0.9772080688730556, 0.9999258578045372, 1.0000000000000002, 0.00013198609900362573, 0.9999999999999996, 1.0, 1.0, 0.05511668808676234</t>
         </is>
       </c>
+      <c r="K163" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7394,6 +7749,9 @@
           <t>9.514500524317342e-06, 0.47737524695452344, 0.8704073026093571, 1.0, 0.26533039949059717, 1.0, 1.0000000000000002, 0.9983892696289274, 0.18294696829128101, 4.473823815854684e-06, 0.9999999999999999, 1.0000000000000004, 3.095557276077218e-05, 0.9999592929439546, 0.7862216991162145, 0.14312018206574878, 0.001177086964882829, 0.9999932384774743, 3.283290055169233e-05, 0.9976517764198121, 1.0000000000000002, 5.417146873577047e-06, 0.2121167618148906, 1.953387420564042e-05, 0.9999358723481792, 0.9997801810013335, 0.00031757162383754293, 1.0000000000000002, 0.9999986910558978, 0.11251544945081256, 0.00011615875742651805, 0.501273124019665, 1.0000000000000002, 0.49833299877005366, 6.33240947762461e-05, 0.9992222228123491, 0.9998432691325049, 5.991543831693046e-05, 1.0000000000000002, 0.9999529668094663, 3.753769577684492e-08, 0.31021077328294283, 0.4591865290769968, 0.10502558825591465, 0.0035049775116139797, 1.0, 1.0000000000000004, 0.9993017532682125, 1.0</t>
         </is>
       </c>
+      <c r="K164" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7442,6 +7800,9 @@
           <t>0.9904696845992863, 0.9999999999999998, 0.9999999999999997, 0.0058609429926211, 0.0029349173124776497, 0.0001875057395479639, 0.00033488880457504226, 6.337193874923256e-08, 0.9999889929258942, 1.0000000000000002, 0.9999972130816573, 0.9188044825269978, 0.024471498598513688, 0.000448955219946283, 0.00084191952825093, 4.997475081763744e-05, 0.9999902072668787, 1.0, 0.4801715416460144, 0.00025509524973653375, 0.9996139053243815, 0.005452327757805147, 0.9223009258132407, 0.6667073361140134, 0.9999999999999998, 1.0000000000000002, 0.9997417766415406, 0.9999744936380234, 0.9999999999999998, 1.0000000000000002, 0.9999999999999999, 1.0, 0.1772482449346281, 0.9999999999999996, 0.627413820418682, 1.0000000000000002, 1.0, 0.9999999999999993, 5.86362423856947e-08, 1.0, 1.0, 0.9999999999999998, 2.7256080213505175e-05, 0.9849724324728327, 1.0, 1.0000000000000002, 0.9999999999999998, 1.0000000000000007, 1.0, 1.0000000000000002, 0.858846259579502, 1.0000000000000002, 0.9999961227239725, 0.9970289278801968, 1.0000000000000002, 1.0000000000000002, 1.0, 0.08925017552666342, 2.9021603530277433e-06, 1.0, 0.9999999999999999, 0.05615893186264205, 0.8423536024278686, 0.14342195719021517, 0.999453574062608, 1.0, 1.0000000000000004, 0.20074122780512685, 0.9999999999999994, 0.9999999999999997, 1.0000000000000002, 0.9573540432960834, 0.0066061871759821944, 0.0005545184835144887, 1.245222229317024e-05, 8.132688926851797e-05, 0.0030564793714245244, 0.9999969493291058, 1.0000000000000004, 1.0, 0.0005531165133184582, 0.9999999999999998, 7.484268930357253e-05, 1.0000000000000002, 0.9999999999999998, 7.414219542771505e-05, 0.9998680139010266, 0.9999661439328617, 0.9999130325409682, 1.2056956599536367e-05, 1.1344278250478936e-05, 0.3685202833685409, 2.682993476494e-05, 0.007855303505247841, 2.551937135423896e-05, 1.0, 2.892423572038265e-05, 0.0016438757741555597, 0.9999999999999997, 1.0, 1.1116058863555823e-07, 0.9864280856593725, 0.9982903702791396, 0.0004899715236137888, 0.009656458866667333, 0.00012654631576790307, 0.0006262276128624768, 0.00014308119183780867, 0.9901103217080719, 0.016911679493833345</t>
         </is>
       </c>
+      <c r="K165" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7490,6 +7851,9 @@
           <t>0.5643529372794931, 0.7825750109253107, 0.3865541196008206, 0.12247083974850972, 0.00014902766118465684, 0.0013673006946652792, 2.330228416329492e-06, 0.0006111831412816914, 2.434210370974543e-05, 0.003130490596735856, 0.0013421752565104044, 0.0004711162124127974, 1.0, 0.9950929843238523, 0.015131340972213575, 1.0000000000000002, 0.9999447444915571, 0.9999999999999999, 1.0000000000000002, 0.005659249103502258, 0.002577295729253635, 1.0, 0.9999491906403485, 1.0000000000000002, 5.5616625985969634e-05, 0.0002400495084716076, 0.999900524287486, 0.9999999999999999, 1.0000000000000002, 0.987329889249155, 0.9997644484890171, 0.45549029568734245, 0.9999104488753926, 0.9999999999999996, 0.9999999999999997, 2.1481684116318894e-06, 0.00226338744316719, 0.9933033312538868, 1.0, 1.0000000000000002, 0.9999999999999999, 1.0, 0.7361633863562936, 1.0, 0.9989015670424063, 1.0000000000000004, 0.8266298367339194, 0.9476145426242186, 0.4540018657044575, 1.0000000000000002, 0.5717300672012523, 0.826219276635162, 0.3817144384840957, 2.1345659050787094e-06, 0.9999999999999998, 0.33731729901840785, 0.9999767138467864, 8.117389223087436e-07, 2.5061077382224075e-06, 0.5824921738582397, 0.6417691143952103, 0.9998577263031615, 0.6984790916627613, 0.8752836985702644, 1.0, 0.6415730567397109, 0.18066574068169208, 0.934113801502959, 0.9894146765344065</t>
         </is>
       </c>
+      <c r="K166" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7538,6 +7902,9 @@
           <t>0.026405555089905303, 0.00034534500237783333, 6.832935196763032e-05, 0.0018638645653394489, 1.0000000000000002, 0.0014498729317112325, 0.49425743654578447, 0.46164129957329864, 0.9996541976049313, 1.0000000000000002, 0.9818469923644889, 0.9639092572017838, 1.0, 1.0000000000000004, 0.7303755502438302, 0.44220166280769346, 1.473539051998769e-05, 0.6816367275078073, 2.6047190317615423e-05, 0.550572203761707, 1.8643993307174693e-05, 3.4851047402374596e-05, 0.987884588019086, 0.0570172091454272, 0.45930921709406414, 0.5316115443133435, 0.3295574348242935, 0.47488455930796675, 0.3835832860651006, 0.00011368784425734127, 0.0024336258822704876, 0.0039019291709003487, 0.7348160562072266, 0.40965659454588826, 0.8711391540714893, 3.8772791386394265e-06, 0.00017591388652037386, 0.272353682618863, 0.9999963640358687, 0.7081912033268744, 0.0008647534115505716, 0.6344717773115964, 0.2270819146390072, 0.3267152699689869, 0.4028080762133773, 0.536049005382627, 1.0, 0.999925157313199, 0.3955229566202901, 1.0, 2.795738443477892e-05, 8.05055495956899e-05, 0.9999879430408226, 0.999988655718286, 0.6314797166256938, 0.9999999999999998, 0.999973170070965, 0.9921446964982291, 0.9999744806292201, 0.9893741032769637, 0.9999999999999999, 0.9999722523996246, 4.209117141292273e-05, 0.9999999999999998, 0.9999998888394431, 0.9998115875771773, 0.9443933403931044, 2.041101893236248e-05, 1.0, 1.0000000000000002, 0.9999999999999998, 0.999784085700074, 0.9999936460146669, 0.9999999313242182, 0.9999999999999998, 0.9999982132548968, 0.08884884947158714</t>
         </is>
       </c>
+      <c r="K167" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7586,6 +7953,9 @@
           <t>0.9974189898902509, 0.9999590390172188, 0.9999999999999998, 1.0000000000000004, 0.9297197663798786, 0.9987190223211877, 0.9953071235188801, 0.27483421595444824, 0.4409725763957909, 1.0, 0.0005861975511319287, 0.001636261210226204, 0.010964418246817131, 0.0003818214062999049, 0.00033344920105234896, 1.8607598429975814e-05, 0.006716179252936542, 1.5384250377444488e-07, 1.9911336879772386e-05, 0.9997820970359007, 0.34711504558858713, 0.9997399621486203, 3.3593386839315174e-05, 0.00015409226083800228, 0.9999822243499564, 0.99997794099533, 0.006322764303559536, 0.00044556360975946065, 1.9798622296102793e-10, 0.0008619913756028912, 0.0003375709194193633, 1.683299114615316e-07, 1.3696954682790725e-05, 0.0004884338433388901, 0.00026879864097550043, 0.006527989635728758, 0.9352871238131866, 0.9999999999999998, 0.05946001563826938, 0.37379612920353306, 0.030650338503225454, 0.736009391357623, 1.0000000000000004, 0.8561790191357771, 0.9998196765113276, 0.7838877947489991, 0.15202460903012346, 0.8994987900834915, 0.9710466358083054, 0.9999999999999999, 1.0000000000000004, 0.008544559370814307, 0.9999999999999999, 8.086305104825174e-05, 0.9999929699996708, 1.1528172510085163e-05, 1.2815462183549846e-05, 4.926660277740868e-05, 0.3999801168829236, 0.1169793685063635, 1.0, 0.3813721798077885, 0.05117163958432528, 0.7147081385341773, 0.9999765105824118, 0.05296480415880786, 2.7447169572281955e-06, 0.9999516098809536, 6.776603155948952e-07, 5.999077275343925e-05, 0.8997757657815088, 1.0000000000000002, 0.6581290443955926, 7.083015939583697e-05, 0.9999346630059581, 1.0, 1.0, 0.00011055371087879571, 0.06647603336021295, 0.9999726753754743, 0.9999999999999997, 1.0, 0.9998546552996547, 0.9999999999999999, 0.7041310792609454, 0.4435281560815355, 0.49907654544492164, 0.8209426347262253, 0.9936199771650217, 1.0, 0.999926557462609, 9.255646718203255e-05, 0.9971532217441039, 1.0000000000000002, 0.9999999999999999, 0.9999999999999994, 0.9999999999999997, 0.9965047622189651, 0.9990464552961182, 0.9999995946628775, 0.07958757735166787</t>
         </is>
       </c>
+      <c r="K168" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7634,6 +8004,9 @@
           <t>0.5590274236151404, 2.786918339199212e-06, 0.0811955174730697, 0.9991580804716151, 0.9999500252492409, 9.792733162950337e-06, 0.00038609467567430635, 0.00025822335817563317, 2.5506361955014968e-05, 0.3725861795814119, 0.8457448215857255, 0.9693496614977597, 0.9999999999999999, 1.0, 0.9999164996000838, 0.999985551477583, 0.8548848808903767, 0.9999210800208933, 0.9996927593451592, 0.7992587721949792, 0.0009567207796577475, 0.9994421615473008, 0.9999545109925867, 0.00170962972079736, 1.5789481119877913e-05, 0.00012817441846005523, 9.232149879267535e-06, 2.5643513599400685e-05, 0.9999796764045928, 0.9999999999999998, 0.9999910147203942, 0.9996082397227501, 0.7030975248932099, 0.678090973439144, 0.10293151746695473, 0.576509985323637, 0.577099509696065, 0.9114318535554269, 0.9999999999999998, 0.9999999999999998, 0.600114409036941, 0.5399563984732897, 0.0003766064056633155, 1.4012019294998378e-05, 2.187699291449801e-06, 0.5012861442137082, 1.0000000000000004, 2.5953527461831435e-05, 0.5943853036065423, 0.9488283604219566, 1.0000000000000004, 0.9999999999999998, 2.3489417581269146e-05, 0.9470351958446175, 0.9999972552828952, 1.0, 4.054482335071306e-06, 0.999999322340253, 1.0000000000000002, 0.10022423421879134, 0.34187095559826075, 1.0, 0.9999291698486638, 6.53370003749765e-05, 2.7324631827659146e-05, 1.0, 2.3657803303291505e-06, 0.5438583396400599, 0.500923454547625, 0.16962884376578619, 6.721657342771106e-05, 1.0, 0.999907439465971, 0.9999999999999999, 1.0000000000000007</t>
         </is>
       </c>
+      <c r="K169" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7682,6 +8055,9 @@
           <t>0.00011582313943040999, 1.0000000000000002, 0.0012809776877313686, 0.000307141948694543, 0.13264700714350897, 1.0, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.725165784036096, 1.0, 0.9999999999999998, 1.0, 0.998004766140668, 0.932516393290508, 0.9999727887835707, 0.0006549042358193177, 0.37947062716282937, 1.0, 1.0000000000000002, 0.9997384831093084, 1.0, 0.6262038708026608, 0.9997639710890021, 0.9999999999999997, 0.6666072559955317, 0.9999375717117277, 4.1114555822189963e-05, 8.254533232664093e-05, 0.9999999999999999, 0.21611220527196365, 0.2803854621653808, 1.0, 0.5809424312550228, 0.8604830123147883, 0.5029644096118211, 2.3129423697677226e-05, 1.228843653445028e-06, 0.9999847903827456, 0.9999799280531959, 0.13529750451675704, 0.6765233913516917, 0.9999999999999997, 0.9999388959948778, 3.182728699756217e-05, 3.585935817249168e-05, 6.210250166282269e-05, 1.0, 0.9999999999999999, 1.0, 0.883020631486804, 6.537814960693552e-05, 0.6186278201995343, 0.9999999999999999, 1.0000000000000002, 0.9999999142048391, 0.558131893689247, 0.9999999999999993, 0.9999999999999998, 0.9999400092304255, 0.9999999999999998, 0.9335239666426451, 0.0006453880097763946, 0.9999421725532014, 0.0008170677285730739, 0.6919764415371311, 0.9999081310987137, 0.920412422644483</t>
         </is>
       </c>
+      <c r="K170" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7730,6 +8106,9 @@
           <t>0.06748360670898114, 2.7211216502696167e-05, 1.0, 1.0, 0.9999237567264218, 0.9999999999999999, 0.0002615168906970457, 0.00023602891055024758, 0.33336506858121306, 0.33302034272113107, 0.00018032348527029275, 0.649012130857025, 0.7196145378345361, 0.4189767056930772, 7.030000473305566e-06, 0.1395169876856046, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.9999884718264378, 0.9999871845370774, 1.0, 1.2875848968217803e-05, 1.0, 0.9999999999999996, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 0.9999842105185182, 0.9998718255817707, 1.0, 1.0, 1.0, 0.6361606591980806, 0.5458089735915024, 2.032359530945892e-05, 8.448577881177035e-06, 0.500698161909095, 1.0, 0.9999768705762768, 0.9999987711564694, 6.11040053169165e-05, 0.9999681727126349, 0.9999641406416132, 0.9999378974982213, 0.9999247798651196, 1.0000000000000002, 0.2852918614693475, 1.0000000000000002, 1.0, 1.0000000000000002, 1.0, 0.44919894350096073, 1.0, 4.4335637777884014e-05, 0.4418681063106331, 1.0, 0.47152528907443864, 1.0, 0.9998894462942152, 1.0, 0.9999999999999999, 0.995251669136022, 5.782744703440183e-05, 0.47114551245241587, 4.081147967746376e-09, 4.053378681792397e-07</t>
         </is>
       </c>
+      <c r="K171" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7778,6 +8157,9 @@
           <t>0.9941390570073472, 0.9999999999999998, 0.9999747752330175, 7.185636262590676e-05, 5.40386232577033e-05, 1.0, 1.0, 1.0000000000000004, 1.0, 1.0, 0.9970650826875853, 0.9999999999999999, 0.9998124942605434, 0.999665111195585, 0.9996545916241725, 0.9999316706466971, 0.999981145696649, 0.24865894637714514, 0.40930005241854694, 0.005527083303148937, 0.9960679156746708, 1.3977799638478836e-06, 0.9999947952893312, 0.9999999999999998, 1.0000000000000002, 3.469013206790666e-07, 0.7337529174151574, 0.006049402437062661, 0.000411776482628376, 8.350040020749271e-05, 1.1546361476280013e-05, 0.0016931619194384079, 0.0005464259373325951, 7.891997836629838e-05, 0.00030724065538921617, 4.721939186906647e-06, 5.898678176267981e-06, 6.461897183780641e-06, 1.6564771637013068e-05, 0.013571914340528667, 0.00018841242148515849, 0.0003983179598316394, 2.392031896292478e-05, 1.013258457596007e-08, 0.33261272570820677, 0.6497607358892463, 0.9991767046977166, 0.9999999999999998, 0.9999997834300389, 0.9999999999999999, 1.0000000000000002, 1.0, 0.2968434405884513, 0.3219090265607355, 0.8970684825333237, 0.42349001467711006, 0.4229004903033423, 0.08856814644451992, 0.3998855909631519, 0.9999999999999997, 1.0000000000000002, 0.46004360152637563, 1.0, 0.9999999999999998, 0.999623393594796, 0.9999859879809784, 0.9999978123002689, 0.4987138557863446, 0.9903435411332888, 1.0, 0.9998734536844993, 0.9993737723873419, 1.0, 0.9999534892408689, 0.061284397240440984, 0.609835232246906, 0.9999476092180389, 4.86135245109475e-06, 0.9999999938538626, 7.28331059058715e-05, 6.353981441911072e-06, 1.7867444599608996e-06</t>
         </is>
       </c>
+      <c r="K172" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7826,6 +8208,9 @@
           <t>0.9999999999999996, 0.9279786352735936, 0.18242308019141246, 0.229538780905114, 3.6922852598630357e-06, 0.1256703862284581, 0.543142746609955, 1.687879345809914e-05, 0.35775880708383806, 0.06722220438347491, 0.8847355538380397, 0.00044455500649951356, 0.3064101234861643, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0, 1.0000000000000004, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.47622319939835484, 0.5501816153331514, 0.6742704966000602, 0.9997883982432877, 0.0043485279669929905, 0.9996848145809156, 4.724955424256513e-05, 0.3510022130052324, 0.20766144039002565, 0.19222034625224382, 1.0, 1.0, 1.0, 1.0, 5.367008459152754e-05, 0.5644265034949493, 0.6584673432555629, 0.19182397047272406, 0.9999999999999998, 1.0, 0.6939842862473137, 5.431925987572782e-05, 0.19696212713706077, 1.0, 0.9999999999999998, 1.0000000000000002, 1.0, 1.0, 1.0, 0.45947147052808557, 0.8009291147510562, 0.7848199512466413, 0.08497188843490462, 0.12901056445195258, 0.0005310731790699535, 0.001355431520114044, 0.9999659579798331, 0.9999202013357222, 0.9999999999999998, 0.9999999999999997, 9.959414688822712e-06, 1.0000000000000002, 1.0, 1.0000000000000002, 2.817370628110791e-07, 0.9961744666880773, 1.0, 0.9999999999999996, 0.11625556903958126, 1.0000000000000004, 0.9999999999999999, 0.9999999999999999, 0.9999999999999999, 0.3536115656752817, 2.4993736550873024e-06, 0.998530089417789</t>
         </is>
       </c>
+      <c r="K173" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7874,6 +8259,9 @@
           <t>0.002511146624937821, 4.096097822044376e-05, 0.004385734537983428, 0.7990500440771611, 0.001995233859193594, 0.2434464345185882, 1.0000000000000004, 0.0017965996351032448, 0.6422411929162917, 0.9999813923952376, 0.9872180017791388, 0.9999998461571554, 0.11526444616195883, 1.0000000000000002, 0.999555444993597, 0.9999800886528727, 0.00021790296390331097, 0.6528849543965826, 0.5237768006017919, 0.44980546881497124, 0.1934007318229876, 0.995651472032875, 1.0000000000000002, 0.0002600378490419432, 0.9993115023806184, 0.6205293728372192, 0.9998459077382104, 1.0000000000000004, 1.7775647629530335e-05, 2.2058998555044557e-05, 1.3824394742080494e-05, 1.0000000000000004, 1.0, 1.0, 0.648997786994611, 0.00018889548277382129, 0.9999463299154572, 8.505446275965984e-05, 0.9999621021586889, 0.12029735373020321, 0.9999456807402679, 0.8479753909618697, 0.999996853489726, 1.0, 1.030118467212516e-05, 1.0, 1.0, 1.0000000000000002, 0.8749977084317332, 0.9994689268208411, 0.0007928483593142745, 1.4079510606884167e-05, 1.0000000000000002, 0.41521420907308254, 0.6394780194405336, 1.0, 1.0, 0.7462991948847727, 0.9999999999999997, 0.7485572168131222, 6.620746057953057e-06, 1.0000000000000002, 0.9999997182631087, 0.003825533312031465, 0.9999999999999998, 1.0, 4.758491164196737e-05, 0.9999999999999998, 0.9999999999999998, 0.3334730768721966, 1.0, 7.344252811843843e-05, 0.9999999999999998, 0.9991829322714011, 0.3080235584628278, 9.186890146448082e-05, 1.0000000000000002, 1.0000000000000007, 0.6463884343247702, 0.9999975006262475, 0.0014699105821878611</t>
         </is>
       </c>
+      <c r="K174" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7922,6 +8310,9 @@
           <t>3.114939682307835e-07, 3.360015067521789e-05, 0.13637045435097056, 0.2342388279027406, 0.9999690444272227, 7.873947002929844e-06, 0.8568677518901724, 6.761522424086788e-06, 0.17555388680598283, 0.9999798940698263, 0.43472583367490947, 0.9999442060093741, 1.0, 0.3603885308461165, 0.22296808072452162, 0.33888558704879, 0.9999999999999998, 1.0000000000000002, 0.9999999999999997, 1.0000000000000004, 0.9999999999999997, 0.5276639358252219, 0.5321946481366265, 1.0, 0.9999999896370062, 0.19451095253396, 2.5027635048246312e-05, 0.9961632603230978, 0.04521615235945079, 0.8632430387154597, 0.49374387725613017, 6.4127652078593e-05, 0.9983892343434684, 7.497791000939494e-05, 1.0000000000000002, 0.9999713441482191, 1.0000000000000002, 0.39253242189992266, 0.9999999999999997, 1.0, 0.6783332227668212, 1.0000000000000002, 8.340927338577679e-07, 0.8305870971632712, 0.3455643763689307, 1.0, 1.0000000000000004, 1.0, 0.4910343852780038, 0.010630684924407755, 0.531772840863172, 2.4378762900996895e-05, 0.5032912414974087, 0.4041202017642644, 0.0921984510861868, 0.48027466264799845, 0.47095532383140953, 1.0000000000000002</t>
         </is>
       </c>
+      <c r="K175" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7970,6 +8361,9 @@
           <t>0.06830294877932203, 0.0005989148562548346, 0.9999736149464125, 0.9955273039842004, 1.0000000000000002, 0.9982034003654497, 0.9999999999999996, 0.4917851798632874, 1.0000000000000004, 1.0, 0.9999361199778447, 1.0, 0.9999999999999999, 0.9999326502797238, 3.9247715706951426e-05, 2.7919212502891525e-07, 0.9999331599714989, 3.789784133181288e-05, 3.146510388817176e-06, 0.9999999999999999, 1.0000000000000002, 1.0, 8.095985450904651e-06, 2.4110642370265143e-05, 1.5209617307665322e-05, 2.0071946709383252e-05, 0.8639096471235882, 9.572641560824866e-06, 0.6542907314303901, 0.9999999999999999, 0.9999999999999998, 0.644188084708259, 0.9688408284397356, 1.0, 0.9999244164984454, 0.0013771598773812553, 0.001832395797225513, 3.062029140601012e-05, 1.0, 1.0000000000000004, 0.24509979939795382, 9.900254665702424e-10, 0.11751740423144688, 0.8832941126667717, 0.25370080511522397, 0.25144278318695756, 0.9999933792539244, 3.5860143351037193e-06, 8.579515132201734e-08, 0.9999524150882187, 1.0000000000000002, 0.7366902890265037, 0.9999999999999998, 0.9999943316291388, 0.9999812121447337, 0.9999999999999997, 5.730617182429064e-05, 1.0, 2.9837895679669073e-06, 1.9629601587898384e-05, 0.569495985164496</t>
         </is>
       </c>
+      <c r="K176" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8018,6 +8412,9 @@
           <t>7.624327336253123e-05, 0.9999999999999997, 0.9999469829030188, 0.3302366408120099, 1.0000000000000002, 0.6281826207254082, 7.398615711542536e-09, 1.0000000000000002, 1.0000000000000002, 0.9999945498393549, 2.767542383349913e-05, 6.242828880726439e-05, 0.6669385427230521, 0.9999174546673554, 1.0000000000000002, 0.35098786914341495, 0.49703559038813117, 0.999987124151168, 0.363839340802046, 0.9996016820401581, 0.9999760796811082, 0.9999907577172501, 1.0, 0.9999999999999998, 0.6673872742917935, 0.35023926411072503, 0.0008232953021978105, 0.4541653828946834, 5.367018114234723e-07, 0.49930183809082207, 1.0000000000000002, 0.3234670360069603, 2.1657004812444362e-07, 0.00039176027722838055, 5.903451852858191e-05, 0.635700679584841, 0.34564014365692103, 0.35581191529173917, 0.9999930492099417, 1.0205351866359149e-05, 0.9999999999999997, 0.9999491274779484, 0.11670588733331085, 2.4952720995244357e-05, 0.5508010564988699, 0.47043384820476014, 0.9999999999999998, 0.12130310017461439, 4.65107591456186e-05, 0.5284747109257866, 3.224963913983732e-05, 0.004681114290433693, 0.38039841167143185, 1.0, 1.0000000000000002, 0.5288544875478617, 1.0, 1.0000000000000004, 0.9387156027594693, 0.23225526077044673, 0.588935208908374, 9.570220903819349e-05, 8.953472894267892e-06, 0.00014740386691275084, 0.9999748793153808, 0.9999811740486723, 2.4799493187094068e-08, 0.00010287254766830613, 0.9999299280583426, 1.0, 0.9999803703981396, 1.0000000000000004, 0.9999999999999998, 0.9999999999999992, 0.4305040148356751</t>
         </is>
       </c>
+      <c r="K177" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8066,6 +8463,9 @@
           <t>0.0074663674629511425, 0.9999999999999997, 1.0000000000000004, 1.0000000000000002, 0.9999999999999998, 1.0000000000000004, 1.0000000000000002, 0.9999999999999999, 0.9999999999999999, 2.5224767228353133e-05, 1.0, 0.9999281436374747, 0.9999459613767457, 1.885430326864047e-05, 0.7513410536227528, 0.5906999475815399, 0.9944729166966333, 0.0020682197394182237, 0.9999999999999998, 0.9784326031213352, 0.9999999999999998, 1.0, 0.9999986022199455, 5.204710814724855e-06, 0.9999999999999992, 0.8267223070751621, 5.301709712302451e-05, 0.6697633591878657, 0.37181737927424924, 0.9999999926015632, 0.00019073279776458797, 0.26624708258478663, 5.450160740358614e-06, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.828251549645525, 0.9998863121555909, 0.9915169716794447, 0.9999999999999999, 0.6752738447593798, 0.16609360336943918, 0.3281307241260342, 0.31960362651049695, 0.1289453246261951, 0.6278994491571949, 0.6989647667057356, 3.3618060677426546e-05, 0.00010286752950941196, 0.3642993204154685, 1.0000000000000002, 1.0000000000000002, 0.8786929173790631, 1.0000000000000002, 1.0000000000000004, 0.9999677503608215, 1.0000000000000002, 1.0, 0.1579095069826433, 0.4110647910916612, 0.9999042977909394, 1.0000000000000002, 0.7398272143320507, 0.00010110395167369543, 1.8825951347077305e-05, 0.9999992709178439, 5.2390781737344276e-05, 0.9999951386476484, 6.146176139627422e-09, 3.832184337109403e-06</t>
         </is>
       </c>
+      <c r="K178" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8114,6 +8514,9 @@
           <t>0.9993909605186163, 1.5839305715359432e-06, 0.5358664808859834, 1.0000000000000004, 2.6385053542490956e-05, 0.004472696015793373, 0.5081968548040667, 1.0000000000000004, 6.388002233138958e-05, 0.9999999999999997, 6.734972062031058e-05, 0.9999607522841161, 0.9999997208075194, 0.9999999999999994, 1.0000000000000007, 1.0, 1.0000000000000004, 6.68400283723011e-05, 2.7838739589259373e-05, 1.1988259693270829e-05, 0.3842389298349298, 0.3911479723676476, 0.16746627081822307, 0.3658790768999216, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.47186212146375794, 1.0, 1.0000000000000004, 1.0000000000000004, 0.9999999999999996, 0.9999972291638554, 0.5161336916317684, 0.7706858882360396, 1.0, 0.9999919040144183, 3.397751782894687e-05, 0.6716024004928339, 0.11479495058716123, 0.9999999999999997, 0.9999999999999996, 1.0, 1.0, 2.1200896489452023e-06, 0.4042273869198649, 6.9124912787555e-05, 0.49991705912314394, 1.0, 6.950790028294903e-06, 0.3113665293636647, 2.025223049110012e-05, 0.7549002006019367, 0.9999999990101772, 1.0, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.999975047279354, 0.9999964139858182, 0.529566151795637, 0.5031668368090262, 1.0, 3.982445922665258e-06, 0.24946587212274843, 0.3873663703270201, 0.2633097109734579, 0.9996784268959678, 5.668370715443923e-06, 1.8787855254821873e-05, 0.5000579243761545, 0.42553696583893885, 0.9999999999999999, 1.0, 0.6196015883283814, 1.0000000000000002, 1.0, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.2601727856676194, 0.9998899425759954, 0.9998525961329476, 0.8210674068281371, 1.0, 1.0, 1.0000000000000002, 2.5120684386836513e-05, 0.9999969914110174, 0.999897127452241, 7.00719418099701e-05, 0.46275986745293646, 0.7641010092116405, 0.7190326944739827, 0.010419096172352395, 1.475367441115536e-05</t>
         </is>
       </c>
+      <c r="K179" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8162,6 +8565,9 @@
           <t>0.8569061334847363, 1.0, 1.0000000000000004, 0.4641335191142283, 1.0000000000000002, 0.8329682512993132, 0.8512952495221748, 0.002134508662487046, 0.9065857577537845, 0.47369179126335376, 1.0000000000000002, 0.55821686577488, 1.0000000000000002, 0.6228288536000738, 0.0005604001942606469, 0.9999721612603599, 0.9999999999999998, 1.0, 0.8034186096019986, 1.0000000000000002, 1.0, 1.0, 0.406591693361752, 0.9999880117401948, 0.6157610701652101, 0.6088520276323437, 1.0000000000000002, 1.0, 1.0, 0.8195576880660392, 0.7363748545842034, 1.0000000000000002, 0.8325337291817062, 0.6341209230997736, 0.9999660224820777, 0.0002668753811438264, 0.5656014229021062, 1.0, 0.8710546753736689, 0.3721005508432463, 0.3010352332939419, 0.9999663819391724, 0.9998971324707396, 1.0000000000000004, 0.9999999999999998, 0.8803443009581731, 1.0000000000000004, 1.0000000000000002, 0.9999999999999997, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.5957726130801386, 0.9999999999999998, 1.3216114245775258e-05, 0.9999999999999996, 1.0, 0.9999999999999997, 1.0, 0.7331385399449268, 1.0000000000000002, 1.0000000000000002, 0.4968331631911723, 0.00012610328290062564, 0.9999634619770442, 2.8864895974347676e-05, 0.0003215731048193795, 1.0000000000000002, 0.06910940969884846, 1.0, 5.491022409295887e-06, 0.21001873793837578, 2.0347563042426393e-05, 0.9999181313609286, 1.0, 0.9999970903460764, 1.0, 1.0000000000000002, 1.0, 0.17893259317190374, 7.29082415570919e-07, 1.0000000000000002, 0.03004977017650409, 0.6180102366648196, 1.0000000000000002, 0.9999999999999999, 0.9999865315685998, 0.537224311305484, 0.23589899078835103, 0.28096730552602955, 0.9895809038276299, 0.9999852463255722, 1.0</t>
         </is>
       </c>
+      <c r="K180" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8210,6 +8616,9 @@
           <t>0.00014055966720655767, 2.5341935527303103e-05, 1.0000000000000002, 0.9998494672403558, 0.9363729044525139, 0.9941411899338912, 0.0017525322152928218, 0.2591079579061214, 0.0002723272298498652, 0.9997076217176895, 0.9999999999999998, 3.842958094926786e-05, 0.328365027549121, 0.31254581536046266, 0.21518004875342522, 0.9999929371414016, 0.5472740551412025, 0.3650043527623397, 0.3956186846237617, 0.536793516676889, 5.51789094749203e-05, 0.7700974418900701, 2.7124711789585124e-05, 0.8549957558001338, 0.9999865982570926, 0.22498238400237236, 0.9999629716678562, 0.9999441452179152, 0.26263806055208805, 0.9999999948803056, 0.9998849585779762, 0.32909432610058376, 0.8582237436927732, 1.0, 2.5550180647549238e-05, 0.005194910725337729, 6.829693022977697e-06, 1.0000000000000002, 1.0000000000000002, 1.0000000000000002, 0.8279881310414865, 1.2740447804662751e-05, 0.21242790416073867, 0.9999925521591022, 0.9999999999999994, 1.0000000000000002, 1.0, 0.7321014242990238, 0.38298998780852966, 1.0000000000000002, 0.08986427348560656, 1.0000000000000004, 1.0, 1.0000000000000004, 1.0000000000000002, 0.9999019417520861, 0.6593456662890195, 0.3315825430244219, 0.38924580517945917, 0.262693204911408, 2.9908107005104144e-05, 0.9984889939008657, 0.9418564034928907, 0.0018097886059032548, 0.00012560865829487448, 0.9999915439785192, 0.002380583967511476, 8.57855937206572e-06, 0.5654964345978211, 9.622634893813724e-06, 0.998758531340235, 1.0, 1.6392013681704595e-05, 0.8879423533499208, 0.18492618852225395, 1.0, 0.9999916810930577, 2.1593989978043686e-05, 0.6639086977913579, 1.0000000000000002, 0.12009380305818912, 0.0003129724308342449</t>
         </is>
       </c>
+      <c r="K181" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8258,6 +8667,9 @@
           <t>0.7343603635345971, 0.9999319324376931, 1.0, 1.0000000000000007, 7.366156372667088e-06, 0.35427877068162406, 0.005858810065569975, 0.9999999999999999, 0.9999999999999999, 0.9997276727701007, 0.00029237828227334287, 0.002128898241581846, 0.6349956472375352, 0.018719019053407882, 0.4632064833232503, 0.5281378785362136, 2.7708362835788935e-06, 0.9999999999999999, 0.3646639324307635, 0.9999744498193769, 0.9948050892745086, 1.0, 0.9999999999999998, 0.9999931703068202, 0.17201186895860912, 0.9999872595523916, 0.3406380085191457, 3.0218898188076094e-05, 0.001511006098906112, 0.9981902113936632, 0.9999867838856051, 0.999874391341642, 5.937187664026138e-05, 0.5000829408767943, 8.821534839752506e-06, 0.2668614600553703, 1.0000000000000004, 1.0000000000000004, 0.999873896717219, 3.6538022690561284e-05, 1.0, 0.6126047647771252, 0.9308905903014045, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 0.9999457483308598, 0.9999784059556056, 0.9999945089773993, 0.7899812620617594, 1.0, 0.9999796524371439, 8.186863883688822e-05, 2.9096538371238815e-06, 1.0000000000000004, 1.0, 0.9999999999999998, 1.0, 0.9999999999999999, 1.0000000000000002, 1.0000000000000002, 0.43160971714435264, 0.832261302674977, 0.9999999999999999, 0.7699618433058026, 0.4395666237509559, 0.6731849352096433, 0.12374017360197963, 1.3468431092739526e-05, 1.582124122215103e-05, 0.901628376885202</t>
         </is>
       </c>
+      <c r="K182" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8306,6 +8718,9 @@
           <t>1.0000000000000002, 1.0, 0.015266896758827132, 0.3206307800231025, 0.6622858892253066, 0.7943192811520162, 0.6330018908981272, 0.6088745679403154, 0.7520368698353703, 1.0000000000000002, 0.9592301985907127, 0.9999999999999999, 1.0, 0.3155852877157611, 0.967384341005563, 0.6561826956630012, 0.5741972332949119, 0.6560623624495066, 0.15510656480400278, 0.1989686080656253, 0.7989249673042169, 0.9999999999999996, 1.0000000000000002, 0.300042367883763, 1.0000000000000002, 1.0000000000000002, 0.19349543786481774, 1.0, 0.9891905147894544, 0.9999999999999996, 0.7607656787433775, 0.47062326727936993, 1.0, 0.9999959595063991, 0.9999999999999997, 1.0000000000000002, 0.9994010494473576, 0.00016383158715799713, 0.0033022171703082784, 0.7243536890751018, 1.0000000000000007, 0.8410400000749896, 0.00013357047262985104, 1.0, 0.9999999999999999, 1.0, 0.9904183394538894, 0.07856064079213486, 1.0, 1.0000000000000004, 0.9999971066484837, 1.0000000000000007, 4.783585583587516e-05, 0.008104736412106104, 0.26160696930929783, 1.0000000000000002, 1.0000000000000002, 0.4527130199497498, 0.8398640873596979, 1.0</t>
         </is>
       </c>
+      <c r="K183" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8354,6 +8769,9 @@
           <t>0.01992088553276321, 4.181729009509603e-07, 0.6957509206097853, 0.5138182689382378, 0.3530921540130903, 1.0, 0.9999999999999996, 0.4971999542701767, 0.49722109876974707, 0.4974544434278121, 5.172380472412678e-09, 0.0002701561919402914, 0.28449986835214464, 0.00105722404560637, 0.6293915701409863, 0.512401426331525, 0.2532562216869302, 9.216884038487565e-08, 0.599822907868787, 3.528066494249342e-05, 0.17526279168902054, 0.9999288950321592, 0.4007180230159452, 1.0000000000000002, 0.5139260291560289, 0.9998350517422591, 0.9937445356171799, 1.0000000000000002, 7.944898858223749e-05, 0.999973012453272, 1.0, 0.9999999999999999, 1.0, 1.0000000000000002, 0.9999999999999999, 0.030341885311156433, 0.42837924187371607, 0.00022560678715573095, 0.9999837823716623, 0.5146827877425065, 0.3672016553879265, 0.4915490254971329, 1.0, 1.0, 0.4621422311083023, 0.9805798114611775, 0.25142263837084666</t>
         </is>
       </c>
+      <c r="K184" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8402,6 +8820,9 @@
           <t>0.00013455009370506963, 5.253407539197387e-05, 1.036268168547853e-08, 0.0009114710048085183, 0.9997973798783867, 0.00314649007424024, 0.9547838476404924, 0.9999999999999998, 0.606100626594269, 0.0004254114919534044, 0.9999999999999998, 0.5801691870036848, 0.0002928561132623208, 0.5241850046226002, 1.0000000000000002, 0.5261908405130277, 1.0000000000000004, 0.6514665958075613, 0.48386188029073074, 0.00015009812457918105, 3.771404426516837e-05, 0.3187709263710631, 0.42794538376915175, 1.2349196665271844e-09, 0.9999250220905306, 0.0009140867827838506, 0.0001903003769199009, 0.42396881796949626, 1.0, 1.8661193776423618e-05, 2.8655852074961836e-05, 0.4270129628464162, 1.0, 2.611386957707937e-06, 5.386800465013802e-05, 0.0005087506788575733, 0.5245963510217819, 0.0002027251493827747, 3.3142611416127555e-05, 6.252249599309204e-05, 0.0005642825782570454, 1.0000000000000002, 0.4031465573570399, 0.3144981923369487, 2.7359346775126972e-05, 0.9999756212370626, 0.3641708192889517, 1.0, 1.0</t>
         </is>
       </c>
+      <c r="K185" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8450,6 +8871,9 @@
           <t>2.1482300114456726e-05, 0.34853340419263623, 0.055148754824400674, 0.9998499018752589, 0.9999999999999997, 0.24068582634576682, 0.9979878286625014, 0.0015127506310941927, 3.646049295929876e-05, 1.0, 0.6448295375789557, 0.7028827600251323, 0.5318817998699166, 7.769482856118401e-05, 0.5943479442936251, 6.006060770512595e-09, 0.3858696736593236, 0.6029877829045762, 0.39311172430583374, 0.48755911405658153, 0.9988408040764173, 0.20868320226046444, 0.9506038204470435, 0.0006201051043610256, 2.62883768746082e-05, 0.1280952131586845, 0.5955683521742755, 0.5264095076824319, 0.3794584904372542, 0.10825023967513088, 0.44160407633292376, 1.0, 0.6445296516309366, 0.4536894794398849, 3.578184558587495e-05, 0.41686785506673757, 0.9997972748506125, 1.0000000000000002, 4.288313847239218e-07, 2.8151508223355875e-05, 0.37919821082761185, 0.2940283377549412</t>
         </is>
       </c>
+      <c r="K186" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8498,6 +8922,9 @@
           <t>0.0035111501474924876, 0.6526716432392564, 0.9999952930232018, 0.4275431640658845, 0.9999999798339703, 1.5822729619693532e-05, 0.2535136714465013, 0.7155000777309922, 0.9996906945348901, 1.0, 0.5036688276937518, 0.5621219904258804, 0.9291522347891896, 0.35966415264734747, 0.9999999999999998, 0.5225750782947357, 1.0, 0.4982639949464139, 0.01033930498002769, 0.00026243517930612354, 0.43395443881009566, 0.2409755253430618, 0.9496132278145161, 0.16885071339795468, 0.9963297930338725, 0.005445937064628979, 0.726031461509524, 0.012376785174371336, 1.6825824844347937e-07, 1.0, 1.0000000000000004, 0.0001229378322861617, 0.49771449394504474, 0.8247372083109574, 1.0000000000000002, 1.0000000000000002, 0.08568282701998964, 0.0003338960531188377, 9.567314261572237e-07, 0.5522063166824256, 0.39651975250978644, 3.483912164334262e-06, 0.9984728904427299, 0.5989172025324243, 2.5815382753469567e-07, 1.3696428358761953e-05, 1.0, 1.0, 0.9990573789053795, 0.999999871197974, 0.9999999818012283, 1.0000000000000002, 0.9669215261991404, 0.999813673565722, 0.2856282047126126, 0.424888559491027, 0.271374010700513, 0.9236136052266306</t>
         </is>
       </c>
+      <c r="K187" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8546,6 +8973,9 @@
           <t>0.00010330551362247417, 1.569643083924562e-05, 0.49633117230567825, 0.07084776521073707, 0.6403358473526214, 0.9999622859556917, 0.501736005053576, 0.002012171337215923, 0.9984872493694248, 1.0, 0.9999635395074346, 0.3551704624207112, 1.0000000000000002, 0.29711723997514544, 0.6294264885985145, 1.0, 1.0, 0.9999223051714546, 0.9999999999999998, 1.8782863145845977e-05, 0.9999999939938954, 1.0, 0.9999999999999996, 1.0000000000000004, 1.0, 1.0000000000000002, 0.6068851388229964, 1.0000000000000002, 0.6714172532581084, 0.643988732950306, 0.02181042440260098, 1.0000000000000002, 1.0, 0.9999999999999997, 0.5017767553763208, 1.0000000000000002, 1.0764296882924478e-05, 1.0000000000000002, 1.0, 1.0, 0.9994352885903074, 1.0000000000000004, 0.9999718484917587, 0.30099081620958157, 0.6208017891724478, 0.7059716622453168</t>
         </is>
       </c>
+      <c r="K188" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8594,6 +9024,9 @@
           <t>0.41415774049685866, 0.00376307244498241, 0.19753782411259174, 0.29836821197699087, 0.004358140706599107, 0.910879928037428, 0.014389829951242291, 0.003176964037837001, 0.5127274639092604, 2.4035021905126528e-06, 0.001094359473862457, 0.00030557481456293145, 0.7216431588753806, 0.5941845185138254, 0.995495502533217, 0.741008980283116, 0.41882026563895663, 0.9999999999999999, 0.9949286054343015, 0.9477620562229575, 0.9727687624676232, 0.889945456128286, 2.042891655019646e-05, 1.0, 0.9999999999999998, 1.0000000000000004, 1.0, 1.0000000000000002, 1.0, 0.9999999999999997, 0.9999529658940772, 1.0000000000000002, 0.0012872741413716504, 0.00038855111508752886, 0.8362732079884654, 1.0, 1.0000000000000002, 0.9999999999999997, 0.9999999999999999, 0.9999580105020025, 0.9999725750553682, 0.8292317655267779, 0.21810277099779452, 0.2964293307898175, 0.12001036613115436, 0.7523718196299004, 0.270461497400691, 2.1458442110825367e-05, 0.12374445557794662, 0.9992119058205495, 0.0016292852967320093, 0.002728364818844035, 0.008516061471802725, 0.9999999999999999, 0.001478293153888695, 2.7975115568966537e-06, 0.9985819956905575, 7.700564332681856e-05, 0.005769452161252892, 0.9665763534453174, 0.004703073127312507, 1.0000000000000002, 0.9999996077654987, 0.00017963619736253, 0.9999751013504049, 0.0005087714933732682, 0.9999721778335715, 1.0000000000000002, 1.0, 0.9999999999999999, 0.9981966328502305, 0.11505272257718296, 0.9316125684453717</t>
         </is>
       </c>
+      <c r="K189" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8642,6 +9075,9 @@
           <t>0.015889763691737894, 8.743475003961113e-07, 0.006548319086200734, 0.9996920147406592, 0.9999999999999997, 0.0874784754494058, 0.00035399604177986627, 0.0011675062996726285, 1.0000000000000002, 0.6997708714245521, 0.8562726169518868, 0.28160896206423186, 0.0002132894350038156, 2.3109510909054306e-05, 5.803628122986017e-06, 0.3281580435653112, 0.0005422926617584001, 0.47628498646412193, 0.9998092333094984, 0.9985933472088373, 0.49911557937646667, 0.19704242291504218, 0.9999999999999998, 1.0000000000000004, 0.9999573682282726, 0.9999989020954934, 0.5555516833137734, 0.9924393205133848, 0.9905431088514913, 0.0063320413366575205, 0.25375890574166077, 0.6061364890059462, 0.6483796296833892, 0.9999893609261038, 0.9999999999999998, 0.9999999999999999, 0.4216848472727413, 0.42586016907096075, 0.5962577556936354, 0.9999998366219359, 0.9999999999999999, 0.8730852016842359, 0.3075850809290416, 0.9999999999999998, 1.0000000000000002, 0.32361966360384525, 0.18107584955588213, 0.6876970080448856, 1.0, 1.0000000000000002, 0.5792246855615478, 0.6365712793387647, 1.0000000000000004, 0.7319923502162463, 0.4124305109083232, 0.4769413993638073, 0.7147438525371256, 0.9990206247792814, 0.9999999999999998, 1.0, 1.0000000000000004, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.440069406164874e-05, 1.0000000000000004, 1.0000000000000002, 0.6483316585303758, 0.9999999999999998</t>
         </is>
       </c>
+      <c r="K190" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8690,6 +9126,9 @@
           <t>0.19645217130705867, 1.599694129786727e-08, 0.03223221475215951, 0.0005474496409680051, 0.008719095052869708, 1.0000000000000002, 0.9999999999999998, 0.9999999999999997, 1.0000000000000004, 0.0012428134259481927, 0.999978751853906, 0.0011594947012844791, 1.630082084182537e-05, 0.9999999999999998, 0.9999999999999997, 0.9999999999999999, 0.9991725809341065, 0.9999999999999997, 0.9993703556521557, 1.0000000000000002, 0.9999999999999999, 1.0000000000000002, 0.03316197729949295, 0.9999963758453876, 1.0000000000000002, 0.999830830000608, 0.9999941963719935, 0.6598052673943654, 0.9889699755460204, 0.5237150135358928, 0.00019076425596406625, 1.0000000000000002, 0.019312834347693056, 4.263177161220643e-05, 0.007560679486607802, 0.009414878951901776, 1.0000000000000004, 0.9998688129856486, 0.9999968177622249, 0.9999999999999997, 0.9999999999999992, 0.9999190397569682, 0.9999999999999997, 0.9999824241854335, 0.999720482689048, 0.9998642119207594, 0.9982272401822104, 0.9999903194893315, 0.9136811503206126, 0.9951069335433179, 0.9988607144405859, 1.0000000000000007, 0.9999737725644918, 0.6775384564756788, 0.024020055826518436, 0.9999999999999997, 0.9985640078866093, 0.3314407941893775, 3.4553858981571615e-05, 1.0, 1.0000000000000004, 0.998279753483684, 1.0000000000000002, 0.9999999999999997, 6.905853401796703e-06</t>
         </is>
       </c>
+      <c r="K191" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8738,6 +9177,9 @@
           <t>0.8035478286929427, 1.0, 1.0000000000000002, 0.3500808894001467, 0.6444059059656595, 1.4511549969535598e-05, 0.8560444900679303, 0.988550181207526, 0.9824092443872061, 1.0000000000000002, 0.9999999999999998, 0.9751601576298458, 1.0000000000000007, 0.0006296443478299338, 3.6241546004899633e-06, 0.0034592169542995077, 1.0, 0.9999999999999998, 1.0, 1.0000000000000002, 0.0820218459533069, 0.9947047436338569, 1.0000000000000002, 0.989766616618557, 0.9934976792930146, 1.0, 0.9999999999999997, 1.0000000000000002, 0.9999999999999997, 4.278997188475957e-06, 0.32246154352432366, 0.9673266491916994, 0.0016504394742799479, 1.0000000000000002, 2.6784516359777533e-06, 0.9999999999999999, 3.842678638924696e-05, 0.9999999999999998, 1.0000000000000002, 0.9999999999999996, 1.0, 1.0000000000000002, 0.9999744719382642, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9998937837379108, 3.142847003206462e-05, 0.9999999999999999, 0.9999751725859333, 2.983565566001205e-05, 4.422980891721647e-06, 0.9999637795194126, 1.0, 0.8735690756917296, 1.0000000000000002</t>
         </is>
       </c>
+      <c r="K192" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8786,6 +9228,9 @@
           <t>0.026405555089905303, 0.00034534500237783333, 6.832935196763032e-05, 0.0018638645653394489, 1.0000000000000002, 0.0014498729317112325, 0.49425743654578447, 0.46164129957329864, 0.9996541976049313, 1.0000000000000002, 0.9818469923644889, 0.9639092572017838, 1.0, 1.0000000000000004, 0.7303755502438302, 0.44220166280769346, 1.473539051998769e-05, 0.6816367275078073, 2.6047190317615423e-05, 0.550572203761707, 1.8643993307174693e-05, 3.4851047402374596e-05, 0.987884588019086, 0.0570172091454272, 0.45930921709406414, 0.5316115443133435, 0.3295574348242935, 0.47488455930796675, 0.3835832860651006, 0.00011368784425734127, 0.0024336258822704876, 0.0039019291709003487, 0.7348160562072266, 0.40965659454588826, 0.8711391540714893, 3.8772791386394265e-06, 0.00017591388652037386, 0.272353682618863, 0.9999963640358687, 0.7081912033268744, 0.0008647534115505716, 0.6344717773115964, 0.2270819146390072, 0.3267152699689869, 0.4028080762133773, 0.536049005382627, 1.0, 0.999925157313199, 0.3955229566202901, 1.0, 2.795738443477892e-05, 8.05055495956899e-05, 0.9999879430408226, 0.999988655718286, 0.6314797166256938, 0.9999999999999998, 0.999973170070965, 0.9921446964982291, 0.9999744806292201, 0.9893741032769637, 0.9999999999999999, 0.9999722523996246, 4.209117141292273e-05, 0.9999999999999998, 0.9999998888394431, 0.9998115875771773, 0.9443933403931044, 2.041101893236248e-05, 1.0, 1.0000000000000002, 0.9999999999999998, 0.999784085700074, 0.9999936460146669, 0.9999999313242182, 0.9999999999999998, 0.9999982132548968, 0.08884884947158714</t>
         </is>
       </c>
+      <c r="K193" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8834,6 +9279,9 @@
           <t>0.9633884489433248, 0.9999999999999998, 0.21971650901002976, 0.6777884212764279, 0.9999999999999998, 0.9847331032413909, 0.6793692199743211, 0.7240644123981511, 0.3377141107762011, 1.0, 0.040769801399252084, 0.00017399434342242978, 0.6844147122824054, 0.032615658990045496, 0.34381730433548785, 0.4258027698469692, 0.047614241014203994, 0.20107503269533095, 0.999999999999999, 0.8065045621360271, 0.010809485207427914, 0.9999999999999999, 1.0000000000000002, 0.5497549768831097, 1.0000000000000004, 1.0, 0.9999999999999996, 0.9999999999999993, 4.040493400730192e-06, 1.0000000000000004, 1.0000000000000004, 0.7077834226128922, 0.395998196261311, 0.9999999999999996, 0.999941198416899, 0.9999999999999997, 0.523115393562054, 0.00020666834621326855, 0.5910209609119789, 0.9998361684118982, 0.9998911120130458, 1.057295715408488e-05, 0.5144324821812915, 0.8857024222322238, 0.27564631092515157, 0.03163822439509751, 0.38547770326692254, 0.009581660545647588, 0.9214393592105032, 0.002333783800794704, 0.9999999999999991, 0.7449226508074732, 2.8933514519019565e-06, 1.0000000000000009, 0.9999811485227427, 0.9999521641435786, 0.9918952635861523, 0.7383930306888298, 0.1601359126372557, 0.72321102012014, 0.0007227728156615642, 8.396922045951957e-05, 0.9999999999999996</t>
         </is>
       </c>
+      <c r="K194" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8882,6 +9330,9 @@
           <t>0.9952880623076337, 0.4378001181667679, 0.7847996203331418, 0.04542214846687625, 1.0000000000000002, 0.1320573417385416, 0.9850241105829701, 0.06462175558780911, 0.49077297438426537, 0.10091813795598943, 0.9999999999999999, 2.6105571985622473e-05, 0.4292787837107661, 0.9873103067811967, 0.00022522891163629573, 0.9529190044600623, 0.9674748391119764, 0.0020295329905437543, 0.06806484793622208, 3.7036027812494794e-09, 0.9952446864687264, 1.0000000000000002, 0.984850702384667, 0.9999999999999991, 0.7295141656242969, 0.348053315026737, 4.552120587293933e-07, 0.7335640624663884</t>
         </is>
       </c>
+      <c r="K195" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8930,6 +9381,9 @@
           <t>0.0010627951810134944, 0.0032080397254399384, 0.993112484386575, 0.0007475180264288983, 0.9768473329237397, 0.0046865704888829724, 0.21643572257431073, 0.15797562042945423, 0.15387895627562354, 1.0000000000000002, 0.8567996227969332, 1.0000000000000016, 0.7949353764356766, 0.999856825323569, 0.9971579848201868, 0.01429700673269928, 0.03994289435815528, 0.9947709841951301, 0.10117740112736485, 7.940893419061824e-06, 0.004739592986611635, 0.3728272133471886, 0.10994418133286858, 0.6065121781936023, 0.7686769910093971, 0.9925747496879975, 0.9528231915931671, 0.2234250900543962, 1.0, 0.1252607257949974</t>
         </is>
       </c>
+      <c r="K196" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8978,6 +9432,9 @@
           <t>0.48476821111441337, 0.004975039697081066, 0.003367581038624064, 0.9999999999999998, 0.9999999999999996, 0.20360320312677593, 0.9774894338168824, 1.0000000000000007, 1.0, 0.7835642774256821, 0.4401746928546635, 0.8461210437243714, 0.14320037720307371, 0.016976825902408243, 0.00014317467643169216, 0.9600571056418401, 0.0037130378989467033, 0.0066021870784924355, 0.36782909526796337, 0.016090165369109077, 0.003407639375664441, 0.6301285236889191, 0.9995195311643544, 0.9999999999999999</t>
         </is>
       </c>
+      <c r="K197" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9026,6 +9483,9 @@
           <t>0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06</t>
         </is>
       </c>
+      <c r="K198" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9074,6 +9534,9 @@
           <t>0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759</t>
         </is>
       </c>
+      <c r="K199" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9122,6 +9585,9 @@
           <t>0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101</t>
         </is>
       </c>
+      <c r="K200" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9170,6 +9636,9 @@
           <t>0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261</t>
         </is>
       </c>
+      <c r="K201" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9218,6 +9687,9 @@
           <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
+      <c r="K202" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9266,6 +9738,9 @@
           <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
+      <c r="K203" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9314,6 +9789,9 @@
           <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
+      <c r="K204" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9362,6 +9840,9 @@
           <t>0.014696611122848353, 0.005030362273846488, 0.0028318223805199327, 0.002684398779517433, 0.994760884632867, 0.007026289953628835, 0.9999999947898024, 0.004493804394021167, 0.017620070334289684, 0.006738376431197547, 0.00018522633118634943, 0.9971116248390315, 0.01618011059289278, 0.022306701564252084, 9.439148932459096e-05, 0.9874644890510079, 0.0064239404802395985, 1.0000000000000007, 0.0024603391880098323, 0.9852659489062447, 0.9434900352039545, 0.9877417101648296, 0.9861028142876566, 0.9999999999999997, 0.9948239859199954, 0.8380022117928736, 0.004561300071685791, 0.045786739079560816, 0.002504211647361193, 0.9993926450405061, 0.9735873844760757, 0.9850083083226198, 0.7701520394635946, 0.9980947826892871, 0.9086246526957307, 0.024036287718993743, 0.010577661024551032, 0.03258096695276012, 0.00017404507978708433, 0.007128817371318812</t>
         </is>
       </c>
+      <c r="K205" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9410,6 +9891,9 @@
           <t>0.9999999999999998, 1.0000000000000007, 0.2152003796668561, 0.9545778515330581, 1.0, 0.9999999999999998, 0.9932616235687987, 0.03777243320466729, 1.0000000000000009, 0.8677574319302781, 0.033560411657890386, 1.0000000000000004, 0.5092270256157329, 0.0042002882635206115, 1.0000000000000002, 0.9999738944280142, 1.0, 1.0000000000000004, 0.9999056085106456, 1.0000000000000002, 0.03252516088801953, 0.9319351520637771, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.006806481329788015, 0.9997867169868059, 0.2704858343756534, 0.6519466849733234, 0.03539559412975538, 0.16199778820715693, 0.9954386999283149, 0.003924654573319967, 0.0004052623256769898, 0.09137534730426908, 0.9677157491620743, 0.04267586814465963</t>
         </is>
       </c>
+      <c r="K206" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9458,6 +9942,9 @@
           <t>0.004711937692338354, 0.4887322319766512, 0.5535479150538906, 0.001588352692283609, 0.4018496867158882, 0.009068279544011527, 0.18808779766192243, 1.0000000000000009, 0.04187921326680131, 0.9999999999999997, 0.002842015179801912, 0.9857029932673116, 0.5707212162892621, 0.01268969321880255, 1.2395538817160178e-05, 0.8981779823454001, 1.0000000000000002, 0.9939000792143817, 1.150443299756236e-07, 0.6271727866528022, 0.8900558186671315, 0.3934878218063907, 0.23132300899060138, 0.00475531353127123, 1.0000000000000002, 0.2625112829603036, 0.8747392742050064</t>
         </is>
       </c>
+      <c r="K207" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9506,6 +9993,9 @@
           <t>1.3665280109173466e-05, 0.0008407266239658177, 0.02459553982269143, 6.15095392641679e-05, 1.0000000000000004, 1.0000000000000004, 0.9683791755711295, 0.7963967968732273, 6.477941319269415e-06, 0.053393686509186945, 1.0000000000000004, 0.8952271556865586, 0.9999772994042383, 0.979183543644267, 0.9998240965522985, 0.003380754294167634, 0.9933978129215112, 0.9997593509575978, 3.3962346957954694e-05, 0.6321709047320416, 0.9839098346308706, 0.9965923606243321, 0.2684011219594302, 0.3698714763110789, 0.9757785131907507, 0.004487644352867498, 0.9972969991686669, 0.0004804688356651006, 0.018349581497950226, 0.023104188687024983</t>
         </is>
       </c>
+      <c r="K208" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9554,6 +10044,9 @@
           <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
+      <c r="K209" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9602,6 +10095,9 @@
           <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
+      <c r="K210" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9650,6 +10146,9 @@
           <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
+      <c r="K211" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9698,6 +10197,9 @@
           <t>0.0067887205079617055, 0.0015391255728193192, 0.0020552173694893166, 0.002680472593695675, 0.9947700098967562, 0.0013036741774581574, 1.0000000000000002, 0.0005993884095856405, 0.01931626062404116, 2.6182091213769463e-06, 0.9960514126878179, 0.02531315565161337, 0.005634643724556976, 6.991874059631552e-06, 0.9936781052052928, 0.0011873331042474493, 1.0000000000000007, 0.0044628337844955885, 0.981938027986616, 0.9762498585231889, 0.9879093703428604, 2.0664788211457506e-05, 0.9858031592111738, 0.9999999999999997, 0.9976728213953011, 0.8314362094571293, 0.00024251822271030292, 0.004397440709882871, 0.991497511432827, 0.9812135951851498, 0.9918698878032208, 0.5467439193823153, 0.9985930776454361, 0.9064150840599814, 0.036445388889006856, 0.011963736718719427, 0.03215493905107363, 0.004475913618253192, 0.006397957003133912</t>
         </is>
       </c>
+      <c r="K212" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9746,6 +10248,9 @@
           <t>0.9999775267963873, 1.0000000000000007, 9.55664440407178e-07, 0.8045967547440328, 1.0, 0.9999999999999998, 0.9999973817908929, 0.019749243196765794, 0.9891519237905889, 0.8859566876617134, 0.003082019355126612, 1.0000000000000004, 0.5105950861278049, 0.004161178477387086, 1.0000000000000002, 0.9782634868157625, 0.9995919690720226, 1.0000000000000004, 0.9999930081259307, 1.0000000000000002, 7.44717627738628e-05, 0.025879207965284697, 0.8403073967360203, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.01827835898736466, 0.999206580894849, 0.03380514233231011, 0.1685637905428793, 0.999757481777288, 0.0011246725436768823, 3.167127921880509e-05, 0.09358491594001864, 0.9631774290340557, 2.221911384119028e-05</t>
         </is>
       </c>
+      <c r="K213" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9794,6 +10299,9 @@
           <t>8.131151498200891e-05, 0.681097803525554, 0.5013290407176527, 0.00014880324660171364, 1.262814850403896e-07, 0.39993838067849724, 2.1792518141814564e-06, 0.18761087952481248, 0.9984885515205657, 0.010751439978086067, 0.9999999999999997, 0.0026978699299492906, 0.9999972886713988, 0.57694024336863, 0.014046258597891277, 0.00010561105151224253, 5.134783543136277e-06, 0.9719253971701786, 0.9975019472717495, 0.9814152136362709, 6.759349948789213e-08, 0.6257852059000748, 0.8885609747819786, 0.5117493707375023, 0.22812829855554553, 1.0000000000000002, 0.0007063584443686103, 0.26352978056923343, 0.847381754678294</t>
         </is>
       </c>
+      <c r="K214" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9842,6 +10350,9 @@
           <t>8.423374311592529e-05, 0.00165875609493979, 0.024194917817344657, 0.0004223440120539605, 1.0000000000000004, 1.0000000000000004, 0.9891925664292057, 0.00011690761259118062, 0.794712721211581, 4.999566107763076e-05, 0.06729587734991234, 1.0000000000000004, 0.9580983620613143, 0.9999999999999998, 0.9620559925452943, 0.9999999999999992, 0.0038010496594105122, 0.0034430248701252768, 1.0000000000000002, 0.9998976502178915, 0.0005822471271876824, 0.6318002946917548, 0.9841869995496813, 0.9998747506510213, 0.2755325802534351, 0.3727769004151381, 0.9777668368562132, 7.64377439686442e-06, 0.005047772746822691, 0.997585548744643, 8.559335906251925e-05, 0.005436440140424442, 0.022254206261718857, 3.6348652515142584e-05</t>
         </is>
       </c>
+      <c r="K215" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9890,6 +10401,9 @@
           <t>0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443</t>
         </is>
       </c>
+      <c r="K216" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9938,6 +10452,9 @@
           <t>0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05</t>
         </is>
       </c>
+      <c r="K217" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9986,6 +10503,9 @@
           <t>0.9999999442528883, 0.9999999927053078, 0.3692399307331839, 0.05274866631508789, 0.38979016136921685, 0.10476621348265346, 0.04217690321425691, 3.079395909939545e-09, 2.3094663320158384e-08, 0.025604998450001103, 4.689493804718978e-10, 0.22781070652827204, 0.12098433403733597, 0.09836804764151758, 0.07156972729952414, 0.9999999940858396, 0.9999999827998205, 1.0000000000000007, 0.9821714184844458, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999889698798, 2.9424547925814018e-08, 1.738590239859295e-08, 0.9999999644538484, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.9754794582051448, 2.1743388005457102e-08, 1.0000000000000002, 1.0000000000000004, 0.5384893405878782, 3.398841643592467e-09</t>
         </is>
       </c>
+      <c r="K218" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10034,6 +10554,9 @@
           <t>0.0005602061175329288, 3.8444063437472435e-07, 0.0005586086056338702, 0.7842263095208227, 0.004022931670598173, 0.0023485870422829407, 1.562701010514177e-07, 0.9999999999999998, 0.7820194961950478, 0.9941797363290262, 0.017220601657677814, 0.000317398755831252, 1.1799689587402985e-05, 0.9860917642195737, 0.9982929502053794, 0.9998639559120752, 0.9999779635110253, 1.0000000000000002, 1.0000000000000004, 1.0, 7.826328143038642e-08, 0.4477733210016135, 0.8006185696434037, 0.998118870472423, 0.011804791402687215</t>
         </is>
       </c>
+      <c r="K219" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10082,6 +10605,9 @@
           <t>1.0000000000000002, 0.6867040819702476, 0.5895727322533277, 0.002922180399366483, 0.013524923666608393, 0.01378269598886616, 0.013669417879382402, 0.1985152695173839, 2.548763778191257e-05, 0.5837973125437702, 0.0022705329942490893, 0.22421655807031263, 0.621595238865661, 0.09584046991557975, 3.302127563200247e-05, 0.3594472607344193, 0.47582031966612637, 0.04795291927723393, 9.820116855877749e-08, 0.0535476764072527, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999985855508108, 0.9999999704312119, 1.0</t>
         </is>
       </c>
+      <c r="K220" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -10130,6 +10656,9 @@
           <t>0.08355767118207177, 5.2826552385443266e-05, 0.9999820832863671, 0.9864732080552313, 1.0, 0.9999999999999996, 0.8608793360406464, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863305821208065, 0.8014847304825179, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.007476291705122512, 9.666433859826426e-09, 2.6660324483794444e-08, 2.9568769163473905e-08</t>
         </is>
       </c>
+      <c r="K221" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -10178,6 +10707,9 @@
           <t>0.018702469473304527, 0.45006430073764064, 0.0023304507041978805, 1.2553460605282223e-06, 2.514664070173659e-06, 0.7735093668677678, 0.15025012894624332, 0.9574990617506335, 0.6657529107595235, 4.4210189342696106e-06, 0.0011016441477576734, 0.0008848163156563995, 0.8097292189801456, 0.5046965486929511, 0.46154576309990397, 0.9999727890897248, 0.8747037267243013, 1.0000000000000002, 0.9999999999999999, 0.7496957822723437, 0.6772490944111489, 0.9464523235927322, 0.168145053194678, 0.9502125976412075, 0.021405124783285337, 0.9325223050505831, 0.9999343448530771, 5.349063532834948e-05, 2.4861156312483876e-05, 2.9994121425208322e-05, 1.3877889293075367e-06</t>
         </is>
       </c>
+      <c r="K222" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -10226,6 +10758,9 @@
           <t>0.003678513223257328, 0.020815619205977375, 6.244765122744792e-05, 0.00014861927837297128, 1.073994613515223e-05, 0.999999843729889, 0.9853576828881371, 1.8454555898348927e-06, 1.36909290265415e-08, 0.0014572093437458405, 0.21798048163494232, 0.005820263670967138, 0.7990180898125481, 0.9996826012441752, 0.9999882001013296, 0.9955154919632166, 0.946328515526617, 0.999997837320424, 0.9999675091014878, 0.9968384273367843, 0.9928130222574598, 1.0000000000000002, 0.9966726583545342, 0.2204044555299451, 0.8241495906958175, 0.03990147474782368, 0.32748162015985327, 0.00010887338374777711, 0.0001360440879429569, 0.06800251115377277, 0.001041804000941857, 5.814808714126219e-05, 1.193459805538256e-05</t>
         </is>
       </c>
+      <c r="K223" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10274,6 +10809,9 @@
           <t>0.001783850156906822, 0.002643023130547252, 0.28854135581563006, 0.7553313559977397, 0.5522265585579604, 0.1271546136721747, 0.9776456772271344, 3.3720807063464685e-05, 0.9796588550147642, 0.9856558837844838, 0.9999999999999996, 0.8105765700498042, 1.0000000000000002, 0.5496634730287496, 1.0000000000000002, 0.001226511936716951, 0.1563138256962083, 0.9999999999999999, 0.9999999999999999, 0.36295625213942495, 0.002007124740964328, 0.031476993989880686, 0.3436607974404455, 1.0000000000000004, 0.8192279812381297, 4.431504297410721e-05</t>
         </is>
       </c>
+      <c r="K224" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -10322,6 +10860,9 @@
           <t>0.0009473703160673454, 5.0843150249553224e-05, 0.5162919599382572, 0.9958421268834251, 0.9152485981682388, 1.000000000000001, 0.9999999999999997, 0.5310943136871525, 4.28378153967726e-06, 0.9999999999999996, 0.9997821500072693, 0.9999999999999996, 0.7243893683303861, 0.15549114875740488, 0.985806147470016, 0.9814132073917041, 0.9891182293311891, 1.0000000000000002, 0.2082235256651318, 1.0000000000000002, 2.203648895755565e-05, 0.7114586441843345, 0.9999999999999993, 1.204405741768022e-07, 0.0018474087202782123, 0.19020520525548792, 0.9999999985128273, 1.0, 0.999998179570648, 1.0, 0.45035676637988803, 0.9987734880631961, 0.6707140488070455, 1.0, 0.7040073441290113, 1.1804898920888583e-06, 1.3996638192843645e-06, 0.1457330174530293</t>
         </is>
       </c>
+      <c r="K225" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -10370,6 +10911,9 @@
           <t>0.04795291927723393, 9.820116855877749e-08, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999999704312119, 1.0, 0.6868642235394803, 0.013524923666608393, 0.01378269598886616, 0.01364256373757466, 0.1988899002584167, 0.0022705329942490893, 2.548763778191257e-05, 0.5837973125437702, 1.322334025784424e-05, 5.5434532209227696e-05, 1.036043019815659e-05, 0.08014930114739369, 0.9999976025083366, 0.9999999380273352, 1.0000000000000004, 1.0000000000000002, 0.5298747876147453, 0.9999999999999998, 0.0058212306754607335, 0.23233594936138177, 0.621595238865661, 0.09584046991557975, 0.3594472607344193, 0.47582031966612637</t>
         </is>
       </c>
+      <c r="K226" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -10418,6 +10962,9 @@
           <t>2.7272035703410395e-06, 4.69133582885777e-06, 0.25030421772761796, 0.9520470807225342, 0.3227508073877951, 0.0049589398181131075, 1.791671365328498e-05, 1.8682785283884724e-06, 0.13899679911096022, 0.9999999999999999, 0.8333428750281314, 0.9999941014629681, 0.0011707142259919545, 0.788212197155555, 1.0000000000000002, 1.0, 0.17702003327762347, 1.0000000000000002, 0.9999999999999998, 0.9999999999999998, 0.9941070506754337, 0.9999662162746694, 0.5457828750825512, 0.5499356992624037, 0.17297212549667756, 0.637043747860637, 0.001421298114768862, 0.18072694064746342, 5.577998845456339e-06, 0.5452401559827512, 0.999998819510081, 0.02019985256500383, 0.854266982546996, 0.9991151836843436, 0.9999999999999998</t>
         </is>
       </c>
+      <c r="K227" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10466,6 +11013,9 @@
           <t>0.9999120887316741, 0.9999832483873673, 0.3692923122045043, 0.1442490540790922, 0.6607035791313025, 0.18112057262784806, 0.0536714844733811, 2.1626795759445063e-06, 3.123555236327859e-05, 0.02560028035799882, 0.004224252134100763, 0.02235432277285865, 0.007855843463863536, 0.01434411621552429, 0.9979928752590292, 0.9989581959990711, 1.0000000000000007, 0.9685230060101149, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.6563392025595292, 4.507811446792069e-05, 0.9999501069580897, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.45365819986958006, 1.0000000000000002, 1.0000000000000004, 0.5384542369000975, 4.286303031858021e-06</t>
         </is>
       </c>
+      <c r="K228" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10514,6 +11064,9 @@
           <t>1.39384295802706e-09, 1.1823193442196314e-15, 0.9999999999999999, 0.972207407787741, 0.9999999999999996, 0.9999999698220089, 1.0000000000000002, 0.9999999999999998, 0.9859783305284809, 0.9999999843968951, 0.7289175586644654, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.6649915637320186, 0.4264521644748218, 0.5813202305512056, 0.9999999999999994, 0.6877021601394369, 6.688963103740043e-09, 0.5451383485364958, 0.0007419192886877325, 0.9999999999999998, 1.132282085195434e-09, 1.9639044161724208e-08, 0.13639051636410718, 0.07838925617155307, 6.012959914298065e-08, 1.0, 1.0, 7.192665466775722e-09</t>
         </is>
       </c>
+      <c r="K229" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10562,6 +11115,9 @@
           <t>0.00019606476091163242, 0.9999999922935916, 0.9999998303662034, 0.9999999999999999, 0.7514594292600965, 0.5665588993306157, 0.9999999999999998, 0.0008111706281571227, 0.12527478208633902, 1.0, 0.9984416093598913, 0.0008299118777242553, 1.0, 1.0, 0.000440450178096436, 0.0005525362134017973, 0.5236534811408179, 0.8200989918979252, 0.9525677696476097, 9.239920317298804e-05, 1.0000000000000004, 1.0, 1.0000000000000002, 0.9994189671588307, 1.1093189443350076e-08, 0.010594443071258453, 0.15433763527285146, 1.0, 0.000734214679100972, 1.0000000000000002, 0.0009458615383339103</t>
         </is>
       </c>
+      <c r="K230" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10610,6 +11166,9 @@
           <t>0.0468831683624687, 5.856712034652565e-06, 0.5488997782404826, 0.9251329600297425, 3.727503339114578e-09, 0.4491124224701535, 0.9138553351607864, 1.0, 1.0000000000000002, 0.9987482731348012, 0.006564594054421796, 0.9806861021014225, 0.6376664069531052, 3.369098170447348e-08, 1.1526108749960796e-08, 5.579580140962745e-06, 9.853849569835398e-09, 1.3067590561369628e-07, 0.9999999969590873, 0.9999999999999997, 0.9411309839127501, 0.9999000450661315, 0.9999653187805547, 1.0000000000000004, 1.0, 0.9894338582663031, 0.5113847365656466, 1.0000000000000002</t>
         </is>
       </c>
+      <c r="K231" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10658,6 +11217,9 @@
           <t>0.6649553250525312, 1.0, 0.07673669654047693, 0.0029823381520410514, 0.6877263738830216, 0.5812790493395131, 0.9999999999999997, 1.0, 1.0, 0.9999999999999999, 0.9999999845370723, 1.0, 1.0000000000000002, 1.0, 0.426472956543704, 0.1671435012977322, 0.0051162284949151145, 0.9697633542865904, 0.518211654594882, 0.9999999999999998, 7.966005717556141e-09, 0.0003223230603252624, 0.9999999999999998, 0.9999999999999998, 1.0, 0.01115427901509165, 0.7486295309419768, 2.4101957255307212e-05, 0.7090556675380066, 0.9983980512453096, 0.9704549786222264, 0.9708066985768877, 1.0, 1.0000000000000004, 1.0, 0.9991990450396493, 1.6852956621537207e-09, 2.272453827653987e-09, 0.9984135267531726</t>
         </is>
       </c>
+      <c r="K232" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10706,6 +11268,9 @@
           <t>0.9999999999999999, 0.6110547993985652, 0.045600034260255794, 0.9197076940493801, 0.9469467893361851, 0.6307897446345837, 0.18799713347162383, 0.7849368541257905, 0.8747252179137829, 0.13147070594173743, 2.060593090130075e-09, 0.21751483401356558, 0.9999999999999996, 0.9996522702658136, 0.9976154356130925, 0.9999999999999999, 1.0, 0.950655495550452, 0.4615130525448093, 0.9999999938259896, 2.547864988161464e-05, 2.8760987514004142e-05, 5.519397589203856e-10, 0.9605746503847863, 0.31907139579070937, 0.45737217252766166, 2.1938961541869e-09, 4.13920518212435e-09, 0.0025863665705420573, 0.0007852731852930123, 5.472500917490268e-06, 0.39348987982562866, 1.0000000000000002, 0.9999999942877545, 0.9999999999999999, 1.0000000000000004, 0.00309596917204823, 0.0726943741991946, 0.7458021157054827, 0.8308013643084596, 7.39936818234793e-06, 0.0005569587021135835</t>
         </is>
       </c>
+      <c r="K233" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10754,6 +11319,9 @@
           <t>3.853084924803317e-08, 0.45110022175953535, 0.07486703997036837, 0.002851486057129346, 6.249969176587883e-05, 0.9999999999999996, 1.0000000000000002, 0.21506314587425146, 5.364562674172068e-08, 0.01931389789856373, 0.3621675120532764, 6.732448645964522e-05, 0.9999722893809505, 0.8998326755823369, 1.0, 0.997632005834956, 1.0000000000000002, 3.191824268866986e-09, 9.47461703964722e-06, 0.0026207888175786976, 2.9621258527246663e-09, 3.0408657277025467e-09, 0.8310232542246073, 6.731478009755762e-09, 0.03942534961516738, 0.6553075449194238, 0.3198522891902081, 0.9999546449753585, 0.9979567049673386, 0.9957575658583232, 0.9999828346127062, 0.9990685113138076, 0.9586424973438393, 0.9965820761761954, 1.1146315696691826e-08, 3.1553924936454346e-05, 2.9591130971242883e-05, 0.010566141733724081, 0.03471282218211583</t>
         </is>
       </c>
+      <c r="K234" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10802,6 +11370,9 @@
           <t>0.4150921558583796, 0.8383276594316736, 0.999957235579097, 4.524892978368659e-10, 1.0, 1.0, 0.9008829528348343, 0.9999999999999998, 0.9036340961452826, 1.0000000000000002, 0.5508875770726624, 0.5392275365814369, 0.8790015811290667, 0.0861446648391349, 0.0002500574154398565, 0.8789069553587342, 0.8315747352693293, 0.004912667137202665, 0.9927467821032201, 0.4288447187831393, 0.9999999742846046, 0.0003686400838029496, 0.00015585274086618803, 5.7465157284266015e-09, 0.16731850411902469, 1.0000000000000002, 0.536866927712505, 0.0028644574610266977, 0.4897753013577819, 0.9999999998427965, 0.9999999664135797, 0.9999999934077876, 9.062264052088303e-09, 1.5510832393625675e-06, 5.335793718326368e-08, 5.112423292082677e-06, 2.723629326209748e-06</t>
         </is>
       </c>
+      <c r="K235" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10850,6 +11421,9 @@
           <t>0.46183249925665054, 0.5652964101704423, 0.03337201134930216, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 0.02385337613755366, 0.9041595300844872, 0.9999669787244155, 0.6405527392654806, 0.5241796803340776, 4.740962335156381e-05, 1.0000000000000004, 0.0029846319625312307, 0.007223585739261771, 0.004059901095816842, 0.003897939391780687, 0.00608617760206481, 0.0025994635015389373, 0.00676545002829536, 2.8877222585445968e-08, 2.292460714537566e-05, 0.12529627327572837, 0.5677539621508799, 0.9898848095795153, 2.078809553941499e-05</t>
         </is>
       </c>
+      <c r="K236" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10898,6 +11472,9 @@
           <t>0.0005602061175329288, 3.8444063437472435e-07, 0.0005586086056338702, 0.7842263095208227, 0.004022931670598173, 0.0023485870422829407, 1.562701010514177e-07, 0.9999999999999998, 0.7820194961950478, 0.9941797363290262, 0.017220601657677814, 0.000317398755831252, 1.1799689587402985e-05, 0.9860917642195737, 0.9982929502053794, 0.9998639559120752, 0.9999779635110253, 1.0000000000000002, 1.0000000000000004, 1.0, 7.826328143038642e-08, 0.4477733210016135, 0.8006185696434037, 0.998118870472423, 0.011804791402687215</t>
         </is>
       </c>
+      <c r="K237" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10946,6 +11523,9 @@
           <t>0.08355767118207177, 5.2826552385443266e-05, 0.9999820832863671, 0.9864732080552313, 1.0, 0.9999999999999996, 0.8608793360406464, 1.0000000000000002, 0.9999999999999998, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863305821208065, 0.8014847304825179, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.007476291705122512, 9.666433859826426e-09, 2.6660324483794444e-08, 2.9568769163473905e-08</t>
         </is>
       </c>
+      <c r="K238" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10994,6 +11574,9 @@
           <t>3.492938156577059e-05, 0.0003440494961896735, 0.0990319169837985, 0.999989260053867, 0.08125616401140826, 0.9970153680374659, 0.9927764142607594, 0.014642317111853398, 0.9999981545444211, 1.0, 0.9999999863090635, 0.9959400989041888, 0.9923144005602594, 2.090775948011001e-10, 0.004484508036782533, 0.003161572663221444, 0.007186977742549558, 0.00332482698137748, 1.905251887626598e-08</t>
         </is>
       </c>
+      <c r="K239" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -11042,6 +11625,9 @@
           <t>0.018702469473304527, 0.45006430073764064, 0.0023304507041978805, 1.2553460605282223e-06, 2.514664070173659e-06, 0.7735093668677678, 0.15025012894624332, 0.9574990617506335, 0.6657529107595235, 4.4210189342696106e-06, 0.0011016441477576734, 0.0008848163156563995, 0.8097292189801456, 0.5046965486929511, 0.46154576309990397, 0.9999727890897248, 0.8747037267243013, 1.0000000000000002, 0.9999999999999999, 0.7496957822723437, 0.6772490944111489, 0.9464523235927322, 0.168145053194678, 0.9502125976412075, 0.021405124783285337, 0.9325223050505831, 0.9999343448530771, 5.349063532834948e-05, 2.4861156312483876e-05, 2.9994121425208322e-05, 1.3877889293075367e-06</t>
         </is>
       </c>
+      <c r="K240" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -11090,6 +11676,9 @@
           <t>0.003678513223257328, 0.020815619205977375, 6.244765122744792e-05, 0.00014861927837297128, 1.073994613515223e-05, 0.999999843729889, 0.9853576828881371, 1.8454555898348927e-06, 1.36909290265415e-08, 0.0014572093437458405, 0.21798048163494232, 0.005820263670967138, 0.7990180898125481, 0.9996826012441752, 0.9999882001013296, 0.9955154919632166, 0.946328515526617, 0.999997837320424, 0.9999675091014878, 0.9968384273367843, 0.9928130222574598, 1.0000000000000002, 0.9966726583545342, 0.2204044555299451, 0.8241495906958175, 0.03990147474782368, 0.32748162015985327, 0.00010887338374777711, 0.0001360440879429569, 0.06800251115377277, 0.001041804000941857, 5.814808714126219e-05, 1.193459805538256e-05</t>
         </is>
       </c>
+      <c r="K241" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -11138,6 +11727,9 @@
           <t>0.001783850156906822, 0.002643023130547252, 0.28854135581563006, 0.7553313559977397, 0.5522265585579604, 0.1271546136721747, 0.9776456772271344, 3.3720807063464685e-05, 0.9796588550147642, 0.9856558837844838, 0.9999999999999996, 0.8105765700498042, 1.0000000000000002, 0.5496634730287496, 1.0000000000000002, 0.001226511936716951, 0.1563138256962083, 0.9999999999999999, 0.9999999999999999, 0.36295625213942495, 0.002007124740964328, 0.031476993989880686, 0.3436607974404455, 1.0000000000000004, 0.8192279812381297, 4.431504297410721e-05</t>
         </is>
       </c>
+      <c r="K242" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -11186,6 +11778,9 @@
           <t>7.82608375236971e-10, 5.150266095558116e-10, 1.5839352327020704e-19, 1.8072136925279527e-08, 5.464441751786319e-10, 0.8301472587517849, 0.5682577760838867, 0.9352586148479021, 1.000000000000001, 0.9999999999999997, 0.161672612619973, 4.592013543867641e-09, 0.9999999999999996, 0.9999999812651014, 0.9999999999999996, 0.714900583997029, 0.15700829807939118, 0.9999999829592576, 0.9999999727476271, 0.9999999894956436, 1.0000000000000002, 0.06080487915946273, 1.0000000000000002, 6.897293387591404e-09, 0.08187895311895288, 0.44018483376348794, 0.010596904623180282, 1.0000000000000004, 0.9999999995498952, 0.9999999999999993, 1.0, 0.45959495820175067, 0.9973890942506592, 0.8337640588829556, 0.16835207564557408, 0.9999999999237039, 0.652307490015752, 1.6900784319730027e-08, 0.002322938598844952, 0.3115380846452916</t>
         </is>
       </c>
+      <c r="K243" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -11234,6 +11829,9 @@
           <t>0.46183249925665054, 0.5652964101704423, 0.03337201134930216, 0.9999999999999997, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 0.02385337613755366, 0.9041595300844872, 0.9999669787244155, 0.6405527392654806, 0.5241796803340776, 4.740962335156381e-05, 1.0000000000000004, 0.0029846319625312307, 0.007223585739261771, 0.004059901095816842, 0.003897939391780687, 0.00608617760206481, 0.0025994635015389373, 0.00676545002829536, 2.8877222585445968e-08, 2.292460714537566e-05, 0.12529627327572837, 0.5677539621508799, 0.9898848095795153, 2.078809553941499e-05</t>
         </is>
       </c>
+      <c r="K244" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -11282,6 +11880,9 @@
           <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
+      <c r="K245" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -11330,6 +11931,9 @@
           <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
+      <c r="K246" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -11378,6 +11982,9 @@
           <t>1.23080216240313e-08, 6.174778222291653e-11, 1.0, 0.9999999999999795, 1.6440364284765158e-09, 8.519572020152519e-09, 1.2454262395433648e-09, 1.1856539078974096e-09, 0.361932849771584, 0.018779744304839623, 0.0745922813692526, 0.4502216002556249, 5.574707535133124e-08, 6.74190795843121e-09, 0.8341991836556645, 0.0015002848337283578, 4.593250961738084e-09, 0.9999999719710455, 1.5997966526947506e-08, 1.0008836792875836e-15, 0.8952337767162254, 1.0000000000000009, 0.9999999920384115, 0.9980439959457964, 0.9578230967857638, 0.9999999969206312, 0.9999999727714125, 0.9977687986812899, 0.9999999812134479, 1.0000000000000002, 0.9999999888615884, 0.2158684833804301, 0.6555233770743977, 0.03986175558868292, 0.3207171205216631, 6.291338887688731e-09, 3.0412681569947005e-09, 0.02225933382048277, 1.720017219139685e-08</t>
         </is>
       </c>
+      <c r="K247" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -11426,6 +12033,9 @@
           <t>7.82608375236971e-10, 5.150266095558116e-10, 1.5839352327020704e-19, 1.8072136925279527e-08, 5.464441751786319e-10, 0.8301472587517849, 0.5682577760838867, 0.9352586148479021, 1.000000000000001, 0.9999999999999997, 0.161672612619973, 4.592013543867641e-09, 0.9999999999999996, 0.9999999812651014, 0.9999999999999996, 0.714900583997029, 0.15700829807939118, 0.9999999829592576, 0.9999999727476271, 0.9999999894956436, 1.0000000000000002, 0.06080487915946273, 1.0000000000000002, 6.897293387591404e-09, 0.08187895311895288, 0.44018483376348794, 0.010596904623180282, 1.0000000000000004, 0.9999999995498952, 0.9999999999999993, 1.0, 0.45959495820175067, 0.9973890942506592, 0.8337640588829556, 0.16835207564557408, 0.9999999999237039, 0.652307490015752, 1.6900784319730027e-08, 0.002322938598844952, 0.3115380846452916</t>
         </is>
       </c>
+      <c r="K248" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -11474,6 +12084,9 @@
           <t>0.25463819044508834, 1.6825920088282957e-08, 0.049709177179209425, 0.960380482016589, 0.8685395011131354, 0.22587348616935124, 0.77499231001648, 0.9999999979392749, 1.0000000000000007, 1.0000000000000004, 0.9999999999999996, 1.0000000000000375, 1.0, 0.7002163487990717, 0.02779258399037725, 0.014021669471574495, 1.5603182654003104e-08, 0.2710824413355344, 0.004760348155603582, 0.31229783986054277, 0.6419060435390419, 0.00036741684942847777, 1.853810266465584e-08, 7.690631572211525e-09, 6.1737614984724005e-09, 0.07995787940013144, 0.9999999988676777, 0.9999999803607477, 1.0000000000000004, 1.0000000000000002, 0.5368176901769761, 0.9999999999999998, 2.029612933700371e-14, 0.23171113021253092, 0.6455526989136756, 0.0475868390296002, 0.17958033219172934, 0.4757870037113913</t>
         </is>
       </c>
+      <c r="K249" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -11522,6 +12135,9 @@
           <t>6.0720712007671886e-09, 0.9999999999999999, 1.0000000000000004, 0.9999999983559021, 0.9999999914804492, 0.9999999920875406, 0.9999999743385498, 2.2371248923666546e-09, 0.6482262993187362, 0.9999999954067027, 0.5984183522877564, 0.9999999957252708, 0.9999999867098602, 2.8028960620429124e-08, 0.999999984002066, 0.9999999883699774, 0.0019560040541877067, 0.0022312013187347694, 1.878656647410079e-08, 8.944576897171723e-09, 0.22147526302559659</t>
         </is>
       </c>
+      <c r="K250" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -11570,6 +12186,9 @@
           <t>3.540543567446052e-08, 8.222037307764334e-09, 3.0177966012030266e-08, 0.9999999999999999, 0.3350084362682432, 0.5735478355248408, 2.0259044240701145e-09, 0.7900946108628609, 1.0000000000000002, 1.0, 1.0513288790601469e-08, 0.8636094836359111, 0.999999971813381, 0.9999999999999998, 0.8956295218890403, 0.9999999398705108, 0.5893110375948764, 1.6533421624521877e-08, 7.629249144794464e-11, 0.07561533573391449, 0.024520499003874457, 0.9999999830991595, 0.021166430333464895, 0.259277318780501, 0.34997702612594966, 0.9999999928073215</t>
         </is>
       </c>
+      <c r="K251" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11618,6 +12237,9 @@
           <t>0.9999999442528883, 0.9999999927053078, 0.3692399307331839, 0.05274866631508789, 0.38979016136921685, 0.10476621348265346, 0.04217690321425691, 3.079395909939545e-09, 2.3094663320158384e-08, 0.025604998450001103, 4.689493804718978e-10, 0.22781070652827204, 0.12098433403733597, 0.09836804764151758, 0.07156972729952414, 0.9999999940858396, 0.9999999827998205, 1.0000000000000007, 0.9821714184844458, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.9999999889698798, 2.9424547925814018e-08, 1.738590239859295e-08, 0.9999999644538484, 0.9999999999999994, 1.0000000000000002, 1.0000000000000004, 0.9754794582051448, 2.1743388005457102e-08, 1.0000000000000002, 1.0000000000000004, 0.5384893405878782, 3.398841643592467e-09</t>
         </is>
       </c>
+      <c r="K252" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11666,6 +12288,9 @@
           <t>5.073828226923904e-05, 0.0009464932948255446, 0.20821757575967023, 0.9997821500072693, 0.9999999999999996, 1.0, 0.7242088808271367, 0.9152606736695402, 0.1553693738903094, 0.9958675628008427, 0.5162919599382572, 0.985806147470016, 0.9820223049511797, 0.9888147679737231, 1.0, 1.0000000000000002, 2.203648895755565e-05, 0.7114586441843345, 0.9999999999999996, 0.24466856574390236, 1.204405741768022e-07, 0.0018474087202782123, 0.1894234352658154, 0.9999999985128273, 1.0000000000000002, 0.999998179570648, 1.0, 1.0, 0.9999999999999999, 0.45033652697126264, 0.9987734880631961, 0.6707140488070455, 1.000000000000001, 1.0, 0.7040073441290113, 1.1804898920888583e-06, 1.3996638192843645e-06, 0.1457330174530293</t>
         </is>
       </c>
+      <c r="K253" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11714,6 +12339,9 @@
           <t>1.0000000000000002, 0.6867040819702476, 0.5895727322533277, 0.002922180399366483, 0.013524923666608393, 0.01378269598886616, 0.013669417879382402, 0.1985152695173839, 2.548763778191257e-05, 0.5837973125437702, 0.0022705329942490893, 0.22421655807031263, 0.621595238865661, 0.09584046991557975, 3.302127563200247e-05, 0.3594472607344193, 0.47582031966612637, 0.04795291927723393, 9.820116855877749e-08, 0.0535476764072527, 0.26410098465439974, 0.01011519042049631, 0.049787402358933516, 0.9785740871211361, 0.06747769494939089, 6.565514678395163e-05, 0.9949875598803426, 0.9999751388436703, 0.9999700058785449, 1.0000000000000004, 0.9999999999999996, 0.9999985855508108, 0.9999999704312119, 1.0</t>
         </is>
       </c>
+      <c r="K254" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11762,6 +12390,9 @@
           <t>3.492938156577059e-05, 0.0003440494961896735, 0.0990319169837985, 0.999989260053867, 0.08125616401140826, 0.9970153680374659, 0.9927764142607594, 0.014642317111853398, 0.9999981545444211, 1.0, 0.9999999863090635, 0.9959400989041888, 0.9923144005602594, 2.090775948011001e-10, 0.004484508036782533, 0.003161572663221444, 0.007186977742549558, 0.00332482698137748, 1.905251887626598e-08</t>
         </is>
       </c>
+      <c r="K255" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11810,6 +12441,9 @@
           <t>1.9624489541486458e-06, 3.722047252574471e-06, 1.0000000000000002, 1.0000000000000002, 0.9164423288180478, 0.9970249930479257, 1.791671365328498e-05, 1.8682785283884724e-06, 0.1391206639593229, 0.0011707142259919545, 0.5461386009901761, 0.5499356992624037, 0.17297212549667756, 0.637043747860637, 0.001421298114768862, 0.18072694064746342, 5.577998845456339e-06, 0.5452401559827512, 0.999998819510081, 0.02019985256500383, 0.744092939647741, 1.0, 0.854266982546996, 0.9991151836843436, 0.9999999999999998, 0.8917967138141932, 0.08625857666528208, 0.25030421772761796, 0.9520470807225342, 0.3227508073877951, 0.0049589398181131075</t>
         </is>
       </c>
+      <c r="K256" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11858,6 +12492,9 @@
           <t>0.18111828539920496, 0.0536714844733811, 2.1626795759445063e-06, 3.123555236327859e-05, 0.02560028035799882, 0.004224305530641646, 0.02235432277285865, 0.008536353582491654, 0.01434411621552429, 0.9979928752590292, 0.9989581959990711, 1.0000000000000007, 0.9685230060101149, 0.9999999999999992, 1.0, 1.0000000000000002, 1.0000000000000002, 0.6563392025595292, 4.507811446792069e-05, 0.9999501069580897, 0.9999999999999994, 1.0000000000000002, 0.9999374308939697, 1.0000000000000004, 0.45365819986958006, 0.1902588175446095, 1.0000000000000002, 1.0000000000000004, 0.4090448746417062, 0.5384542369000975, 4.286303031858021e-06</t>
         </is>
       </c>
+      <c r="K257" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11906,6 +12543,9 @@
           <t>0.12530141940039907, 0.5772190736098574, 0.9999999831741031, 2.197721220934028e-08, 0.5628130343595993, 0.7507276274931243, 0.9999999999999996, 1.0000000000000004, 0.999999981461788, 0.9999999923094957, 6.6671570907729515e-09, 2.447594417307049e-08, 0.2173338633692003, 1.0, 0.9999999999999997, 1.0, 0.9999999999999998, 0.9999999999999994, 1.3516351858918917e-08, 0.952413160970442, 0.8204196678081741, 0.5242129962888987, 2.394184788349008e-10, 1.0000000000000004, 4.2747242855328626e-09, 1.329019860952305e-08, 1.1630024341210757e-08</t>
         </is>
       </c>
+      <c r="K258" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11954,6 +12594,9 @@
           <t>6.4445784386910725e-09, 2.756346831251103e-08, 1.14538521603769e-09, 1.7518723733033037e-08, 0.04546421850383271, 3.821357670568186e-15, 0.638067148809159, 0.9812202556951443, 0.9254077186309255, 0.5497783997443514, 1.356702760105693e-09, 5.3607371513563965e-09, 1.0000000000000082, 9.80106985358536e-09, 4.2807910088825806e-17, 7.961589292139455e-09, 0.9999996075926446, 0.9391951051567823, 0.9999999753148883, 0.9999999969586851, 0.9999999931026581, 1.0000000000000002, 1.0000000000000004, 1.0, 0.46099744267420534, 0.7499299587951711, 0.9138920294210329, 3.7021102283031094e-09</t>
         </is>
       </c>
+      <c r="K259" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -12002,6 +12645,9 @@
           <t>1.39384295802706e-09, 1.1823193442196314e-15, 0.9999999999999999, 0.972207407787741, 0.9999999999999996, 0.9999999698220089, 1.0000000000000002, 0.9999999999999998, 0.9859783305284809, 0.9999999843968951, 0.7289175586644654, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.6649915637320186, 0.4264521644748218, 0.5813202305512056, 0.9999999999999994, 0.6877021601394369, 6.688963103740043e-09, 0.5451383485364958, 0.0007419192886877325, 0.9999999999999998, 1.132282085195434e-09, 1.9639044161724208e-08, 0.13639051636410718, 0.07838925617155307, 6.012959914298065e-08, 1.0, 1.0, 7.192665466775722e-09</t>
         </is>
       </c>
+      <c r="K260" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -12050,6 +12696,9 @@
           <t>0.8746985805996921, 1.0000000000000002, 0.9999999999999999, 1.0000000000000004, 0.9999999645945533, 1.0000000000000002, 0.16814273594503334, 0.9502908228207346, 0.039619496006051996, 0.13146049888703035, 0.7741265138307681, 0.2250076885896781, 2.0605930901300747e-09, 0.18883089570644793, 5.527949505067112e-10, 0.9999999999999994, 0.6307600692670232, 0.9472513231716243, 0.6102098386308419, 0.9999999938262725, 0.9200421205998894, 2.8186770735875774e-08, 0.025981221939213765, 0.9999999834663962, 4.133944229832323e-09, 2.1937876157707706e-09, 0.784131516619669, 0.3188716244755844, 0.9601382444112722, 0.45780761645263457, 5.2833574655299105e-09, 1.2647039854868038e-08, 0.46151065941196523, 0.9999999966011719</t>
         </is>
       </c>
+      <c r="K261" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -12098,6 +12747,9 @@
           <t>1.23080216240313e-08, 6.174778222291653e-11, 1.0, 0.9999999999999795, 1.6440364284765158e-09, 8.519572020152519e-09, 1.2454262395433648e-09, 1.1856539078974096e-09, 0.361932849771584, 0.018779744304839623, 0.0745922813692526, 0.4502216002556249, 5.574707535133124e-08, 6.74190795843121e-09, 0.8341991836556645, 0.0015002848337283578, 4.593250961738084e-09, 0.9999999719710455, 1.5997966526947506e-08, 1.0008836792875836e-15, 0.8952337767162254, 1.0000000000000009, 0.9999999920384115, 0.9980439959457964, 0.9578230967857638, 0.9999999969206312, 0.9999999727714125, 0.9977687986812899, 0.9999999812134479, 1.0000000000000002, 0.9999999888615884, 0.2158684833804301, 0.6555233770743977, 0.03986175558868292, 0.3207171205216631, 6.291338887688731e-09, 3.0412681569947005e-09, 0.02225933382048277, 1.720017219139685e-08</t>
         </is>
       </c>
+      <c r="K262" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -12146,6 +12798,9 @@
           <t>0.3862780054123279, 0.004241637181312673, 0.8383273873800532, 0.9999999940512277, 1.2492223901074526e-14, 0.9181210468810728, 0.5598151662365514, 0.5390025568568767, 8.561284399205526e-10, 0.8790156659627197, 0.0861079705788287, 0.9016319486562788, 0.9284302727006385, 0.9999999999999996, 0.9894030953767958, 4.5007352160841604e-10, 1.0000000000000002, 0.5404050417982472, 1.0000000000000002, 0.0026109057493458993, 0.16623594111703902, 0.9999999999999999, 0.9999999999999999, 0.8316479243544003, 5.914104869222674e-09, 0.017828581515534913, 1.1030122238193852e-08, 0.9999999705753733, 0.999999982613939, 3.554634914373174e-08, 3.750780995772918e-08, 0.4291845965741962, 0.6500229394834417</t>
         </is>
       </c>
+      <c r="K263" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -12194,6 +12849,9 @@
           <t>0.5296448579769638, 2.6254678775358282e-08, 0.9999999999999998, 7.913630067302182e-09, 0.9999999999999996, 1.0000000000000002, 0.9999999999999796, 0.9999999958983022, 0.9999999936056178, 0.5219253190666397, 0.7128243619215897, 0.1057581644981432, 8.824992074380399e-09, 0.9817294814246201, 0.9419600582524225, 0.7508544777993902, 0.9344974748040127, 0.9999999972573774, 2.3571682368261797e-08, 0.0013335149636708975, 0.04106796678417421, 0.6140668038060749, 0.6702792209681512, 0.3187006347322847, 0.9999999892885812, 0.9999999999999997, 2.3603360237095785e-09, 1.0000000000000007, 1.0, 0.9865808333767808, 0.9999999999999998, 0.5266613971747909, 1.6160232970360707e-06, 0.9999999989810482, 0.24794401142292236, 3.434927456165515e-10, 4.2299987544390704e-13</t>
         </is>
       </c>
+      <c r="K264" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -12242,6 +12900,9 @@
           <t>0.9999999726008113, 0.9999999938584451, 0.9999999931291227, 1.0000000000000009, 0.3508607661935142, 0.9999999974528473, 1.0, 0.999999997281031, 0.9999999999999996, 2.7771417711087996e-09, 1.0000000000000002, 0.9999999792655473, 0.2462524501157991, 0.5986396509934434, 0.9999999978293214, 0.6489383309658737, 4.736818244610906e-09, 3.645694550768815e-08, 2.4863117353818128e-09, 1.4978817059680594e-08, 2.0230349031240954e-09, 6.383727484500913e-10, 1.0000000000000002, 0.9999999999999999, 0.9999999873838338, 7.771780016896535e-12, 0.9999999999999998</t>
         </is>
       </c>
+      <c r="K265" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -12290,6 +12951,9 @@
           <t>5.60910274738587e-17, 0.2977410856796341, 1.0000000000000004, 6.3944231940780735e-09, 0.9999999999999939, 3.974648813753721e-09, 3.557940621663704e-08, 0.05521542735327969, 2.3656784119826415e-08, 0.4012396850647763, 0.07440925631117028, 0.24281836650066727, 0.5204123652536196, 1.0, 1.0, 4.801621135677578e-09, 0.9999999999999993, 0.9999999807042187, 1.0, 0.9999999998445662, 0.9999999999999997, 0.4928998246629916, 1.443150602786804e-07, 0.7520559885770395, 0.5920508875334332, 0.9999999999999997, 0.5318038051292531, 4.310311585689337e-08, 0.9999999951576432, 0.9999999999999997, 1.0000000000000002, 0.9999999627599756, 0.03572367067244831, 0.5658483420411731</t>
         </is>
       </c>
+      <c r="K266" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -12338,6 +13002,9 @@
           <t>0.9999999613220366, 0.3889451651638642, 0.1296132314514425, 0.8049242454121596, 1.085601249672399e-09, 0.10127338279258809, 0.021393873557800692, 0.9999999999999999, 0.12109304446521692, 0.5384942482028349, 0.9999999592515753, 0.10016730295468634, 0.9999999999999997, 4.9071712670249856e-09, 0.7810812428260682, 0.9999999999999999, 1.0000000000000002, 1.0000000000000004, 0.9999999999999997, 0.9999999951231366, 1.0000000000000007, 0.9999999883488114, 1.0000000000000002, 0.9999999999999996, 1.0000000000000002, 1.0, 0.9999999948248055, 0.24400698359191395, 0.21540107655718863, 1.7576058496630114e-08, 2.8536784597285286e-09, 0.04133637042024327, 1.45273700005132e-09, 1.179832281854025e-08, 3.9148231743580696e-08, 0.48557675444651166, 0.23890140929613637, 0.49644760605083255, 0.605124859547154, 1.0000000000000007, 0.5075834828373995</t>
         </is>
       </c>
+      <c r="K267" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -12386,6 +13053,9 @@
           <t>6.159201370597147e-05, 0.0035482507016996586, 0.16750813740997203, 0.9755085499063275, 0.9841408420141058, 4.134602672609955e-05, 0.11472506429058199, 0.005307951930600092, 0.1038241727792592, 0.006111591857263106, 0.9867076599378362</t>
         </is>
       </c>
+      <c r="K268" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -12433,6 +13103,9 @@
         <is>
           <t>2.0293740325646934e-05, 0.0017291521440315322, 0.10133786990793338, 0.390755362959512, 0.9983138784060183, 0.005595431490497871, 0.0011247217041280234, 0.9946359789295568</t>
         </is>
+      </c>
+      <c r="K269" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="270">
@@ -12470,6 +13143,7 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -12506,6 +13180,7 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -12542,6 +13217,7 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12564,10 +13240,8 @@
           <t>city council</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Ward2</t>
-        </is>
+      <c r="E273" t="n">
+        <v>2</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -12577,9 +13251,24 @@
       <c r="G273" t="n">
         <v>2021</v>
       </c>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>st_louis_park_wards_2021.csv</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>27_053_122500, 27_053_122600, 27_053_022902, 27_053_023402, 27_053_022700, 27_053_022802, 27_053_022901, 27_053_023000, 27_053_023501, 27_053_022302, 27_053_023202</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>0.40059038786863704, 0.0007600243256576956, 0.9983471784426011, 0.0004944010923818471, 0.0005157633210799678, 0.004424612756123378, 0.9992605676959909, 0.9993746704373139, 1.8554015524412863e-05, 0.024265249841149174, 0.000297179196084193</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -12602,10 +13291,8 @@
           <t>city council</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Ward3</t>
-        </is>
+      <c r="E274" t="n">
+        <v>3</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -12615,9 +13302,24 @@
       <c r="G274" t="n">
         <v>2021</v>
       </c>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>st_louis_park_wards_2021.csv</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>27_053_122500, 27_053_122600, 27_053_026406, 27_053_023201, 27_053_022102, 27_053_022200, 27_053_022301, 27_053_022302, 27_053_023202, 27_053_022400</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>0.5993423535027861, 0.835180393467304, 0.0004902579616203067, 9.966708864775829e-05, 0.0007523413416416054, 0.0003669753629722936, 0.9996919950251582, 0.9749913353141434, 3.384698055748229e-05, 0.3783859751929033</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -12666,6 +13368,9 @@
           <t>0.0027607616563864183, 0.24684614090854723, 0.6111817730834788, 0.003034791290928368, 0.003078954913789225</t>
         </is>
       </c>
+      <c r="K275" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12714,6 +13419,9 @@
           <t>0.6197600353224687, 0.30685464619733427, 0.07543364577579936</t>
         </is>
       </c>
+      <c r="K276" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12762,6 +13470,9 @@
           <t>0.04784435095200574, 0.00024121337469898044, 0.9911673610109963, 0.0008782582060139926, 0.03324248238636139, 0.0031416087017005026</t>
         </is>
       </c>
+      <c r="K277" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12810,6 +13521,9 @@
           <t>0.003653228336844532, 0.00022224274853577665, 0.6789062986137434, 0.09081031036699869, 0.05631299377869613</t>
         </is>
       </c>
+      <c r="K278" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12854,6 +13568,9 @@
           <t>0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334</t>
         </is>
       </c>
+      <c r="K279" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12898,6 +13615,9 @@
           <t>0.9663043363306808, 0.7505667873082772, 0.9713212000512369, 0.9742808081011962, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.8966338060296479, 1.0000000000000002, 0.999999999999999, 0.9997928462628966, 1.0, 0.9814662501737864, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999863514315134, 0.9999473617774237, 0.9999999999999998, 0.9998674278533124, 0.9999551397770621, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999698062837823, 1.0000000000000049, 1.0, 0.9999999999999998, 0.9999933789351425, 0.9999015192595667, 0.9999999999999999, 7.793106370309182e-06, 0.9999874507966937, 0.9580126270432264, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 0.9999494775436094, 0.9998776979433256, 0.9537854673767906, 0.9999982455153932, 0.5466976552833144, 0.748651282128489, 0.7369470014825773, 0.24339072976529533, 0.8193807408788655, 0.933571216986734, 0.25436743245608184, 0.6874527023686692, 1.0000000000000004, 0.9999999999999984, 0.4403379262053426, 0.9998462973420816, 0.9999999999999998, 0.9999844466768819, 0.0003536797635059751, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 1.8239883676988308e-06, 1.6030596955131596e-06, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9998916885317355, 1.0000000000000018, 0.9999999999999977, 0.9997837462718513, 0.9999252432249954, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999422232978118, 0.9999999999999989, 1.0000000000000027, 1.0000000000000007, 1.0000000000000013, 3.197435675244247e-05, 1.4078938663692692e-06, 3.554523700937084e-06, 0.9999702038389309, 1.936421954469073e-06, 0.9999999999999978, 1.0000000000000013, 0.9362797956720695, 0.9862897210637414, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 0.9867195826263704, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.940391273598292, 0.9998860167270581, 0.9517669875262196, 0.7190546782663371, 0.7118296092781069, 0.6315290956512366, 0.9832293067374841, 0.6775838956437111, 0.9999902371417246, 0.9788752497224295, 0.9999595823388986, 0.9595587896946338, 0.7781288816718219, 0.527709586844627, 1.0, 0.9999999999999978, 0.999897367332977, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999999, 0.999976395973493, 0.9999046272921395, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.9856235302128006e-05, 1.0000000000000002, 1.0000000000000004, 0.9999792007719922, 0.99998595592735, 0.9999929032211285, 1.0, 0.9999842042505085, 0.9996092531062535, 0.9999582326413597, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 1.0000000000000004, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999998, 1.0000000000000007, 0.9999072073638232, 0.9995403495636942, 0.9999976012707188, 0.9999999999999986, 0.9999720663580904, 0.9998818278881358, 0.9998772783086501, 5.108519163014025e-05, 3.550275317742141e-05, 0.9999605103140785, 0.9996334613211372, 1.0, 0.9999990057691701, 1.000000000000001, 0.9999903972711457, 0.00010289574513866717, 1.1319258523951266e-05, 2.1497909970001796e-06, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999945128918512, 0.9112695117019104, 0.6458237214734136, 0.6697330400382036, 0.7707977349942895, 0.29523149278700483, 0.8036013508437112, 0.6141182314145707, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 1.7729043780334337e-05, 0.00015042456329505187, 7.238443916308097e-05, 0.058863853428445856, 0.9999927961619122, 0.9929985459246862, 0.9999046345578845, 0.00030500504881935807, 0.0001792602069238537, 6.626736435495618e-05, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999986, 0.9999442078354388, 0.9999999999999981, 1.0000000000000067, 2.028212656568091e-06, 5.51583658899966e-05, 2.6188035576468984e-05, 0.9999546091306126, 1.0000000000000004, 3.682874222910186e-05</t>
         </is>
       </c>
+      <c r="K280" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12942,6 +13662,9 @@
           <t>0.9999929027974038, 1.0000000000000016, 0.9999999369854381, 0.9999996290366472, 1.0000000000000002, 0.9999999999999994, 1.0000000000000002, 0.9999999999999991, 0.9999999246575618, 1.0000000000000002, 0.999999025013149, 0.9999995012027817, 0.9999972726138601, 0.999992903218144, 0.9999990048753321, 0.9999999999999999, 0.9999975675509492, 0.9999999999999991, 0.9999999270499158, 1.0000000000000004, 0.9999999999999999, 1.0000000000000004, 1.0, 0.9999999999999999, 0.6141181980966935, 0.6775831701477574, 1.000000000000001, 0.9999904267439058, 0.9788813122592308, 0.9112695245768874, 0.7707980013856349, 0.9999944888762813, 0.6461930370048123, 0.66973301894851, 0.2935635231711835, 0.9832294416820566, 0.8036011965895903, 0.0003536714883019608, 0.9999982476262256, 0.7027796932626422, 0.7486512943601017, 0.6315290830111685, 0.9537854675061882, 0.7343053839324155, 0.4493033779931235, 1.0000000000000007, 0.24339072757966243, 0.9999999999999994, 0.9403307273912873, 0.9362272717769707, 1.0000000000000007, 0.9999999999999987, 0.9999999999999996, 0.9864783191564571, 0.9999999999999988, 1.0000000000000007, 0.999999999999999, 0.7505604650082619, 0.9999999999999984, 0.9713204720587192, 1.0000000000000002, 0.9999999999999997, 0.9999999999999989, 1.0000000000000004, 0.9997928462619717, 1.0000000000000004, 0.9999999999999996, 0.9999999999999993, 0.9999999999999991, 1.0, 1.0000000000000002, 0.9999999999999993, 0.9999999999999993, 0.9814662372562363, 1.0000000000000004, 1.0000000000000002, 0.9999999999999988, 0.9999999999999992, 1.0000000000000002, 1.0000000000000007, 0.9999999999999983, 0.9999999999999982, 0.9999999999999993, 0.9999999999999984, 0.9999999999999979, 1.0000000000000004, 1.0000000000000002, 0.9663043362091431, 0.9743000210670822, 0.9999999999999872, 0.9999999999999993, 1.000000000000001, 0.9999999999999999, 0.8193807504840495, 0.9373045623316008, 0.25436743245608184, 0.5466976980156008, 0.7109833929442807, 0.9998845445029951, 0.9517669843133355, 3.638205325811251e-05, 0.719050227910246, 0.9999442078368618, 1.000000000000001, 0.9595522325638464, 0.5277095868446269, 1.0000000000000004, 0.9999595755645496, 0.8966338060296494, 0.7781289058225356, 3.207964631956392e-06, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.9999900131995806, 1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.999999999999999, 1.0000000000000002, 1.0000000000000002, 0.9999955100878131, 0.9999999999999989, 0.9999999999999994, 1.000000000000002, 0.9999999999999991, 1.0000000000000033, 0.9999999999999984, 1.0000000000000022, 0.9999665433613273, 1.0000000000000022, 0.9999999999999997, 0.9999999999999991, 0.9999999999999994, 0.9999999999999981, 0.9999999999999987, 0.9999999999999999, 1.0000000000000004, 0.999867893447402, 1.0000000000000004, 0.9999999999999994, 0.9999874507987467, 0.9999999999999991, 0.999929961765319, 1.000000000000001, 1.000000000000001, 0.9999473617774233, 1.0000000000000004, 0.9999863536915731, 0.9999942591410411, 0.9999999999999996, 0.99999491322619, 0.9999685874488586, 1.0000000000000027, 1.9364015398682553e-06, 0.9998772894539514, 0.9999245513178554, 0.9999605102475959, 0.9999976012703087, 0.00011346844541929935, 0.999881814213115, 0.9579142324414319, 1.9856234849283732e-05, 0.9999702074887513, 0.9871856960745203, 0.9999999999999992, 3.550140715780622e-05, 0.03773528613474275, 0.9998776979472808, 0.9999720664340922, 1.7729329494434117e-05, 5.109078618394772e-05, 0.9999495137324632, 3.202927016851184e-05, 1.4078941613643364e-06, 7.793106265782215e-06, 1.0000000000000018, 0.9999999999999994, 1.0000000000000002, 0.999999999999999, 1.0000000000000013, 0.999999999999997, 1.0000000000000004, 0.9999999999999996, 1.7273028252129603e-06, 0.9999999999999994, 1.0000000000000007, 1.0000000000000009, 0.9998462973420816, 1.0000000000000007, 1.0, 1.0000000000000013, 0.9999999999999991, 0.999891688524687, 1.0000000000000018, 1.0, 1.000000000000001, 0.9999999999999994, 1.000000000000001, 1.0000000000000007, 0.9999999999999992, 1.0000000000000002, 1.0000000000000004, 1.0000000000000002, 1.000000000000001, 0.9999999999999998, 0.9999422293747039, 0.9999999999999999, 0.9997837464039221, 0.999925165840891, 1.0000000000000002, 0.9999843141878008, 1.0000000000000002, 2.0282126193570554e-06, 5.783494985843971e-06, 1.0616303013093725e-06, 2.711400849032954e-05, 7.794451858226987e-05, 5.9658765419242315e-05, 0.7010445607799639, 0.00018744986401754334</t>
         </is>
       </c>
+      <c r="K281" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12985,6 +13708,9 @@
         <is>
           <t>0.0, 0.9999999999999979, 1.0, 0.9999999999999998, 0.9999999999999999, 1.0, 1.0000000000000007, 0.9999999999999999, 0.9999999999999998, 0.9999999999999997, 1.0000000000000002, 0.999999999999999, 1.0000000000000016, 1.0, 0.9999999999999996, 0.9999999999999998, 1.0000000000000018, 0.9999999999999976, 0.9999999999999978, 0.9999999999999986, 1.0000000000000009, 0.9999999999999989, 1.0000000000000016, 0.9999999999999999, 0.9999999999999994, 0.9999999999999859, 0.9999999999999805, 0.9999999999999998, 0.9999999999999385, 0.9999999999999982, 0.9999999999999991, 0.9999999999999999, 0.9999999999999996, 1.0000000000000002, 0.9999999999999862, 1.0000000000000049, 1.0, 0.9999999999999998, 1.0000000000000002, 0.9999999999999698, 0.9999999999999999, 6.986550796260793e-08, 0.9999999999999989, 0.9999999999999057, 0.0, 2.3682750738558972e-14, 6.5149369379307136e-15, 0.9999999999999992, 0.9999999999999993, 0.9999999999999991, 0.9999999999999998, 1.0000000000000002, 3.5032408379114745e-15, 4.708837146703246e-14, 6.476372311317856e-16, 0.9999999999999991, 1.000000000000003, 1.0, 1.0000000000000004, 1.000000000000001, 0.9999999999999848, 1.0000000000000016, 1.000000000000001, 0.9999999999999997, 0.9999999999999994, 1.0000000000000004, 0.9999999999999984, 0.9999999999999999, 0.9999999999999352, 0.9999999999999998, 0.9999999999999677, 0.9999999999999456, 1.0000000000000002, 1.0000000000000002, 0.9999999999999998, 4.733890918853177e-15, 1.2833968757635731e-14, 0.9999999999999999, 0.9999999999999989, 0.9999999999999992, 0.9999999999999998, 0.9999999999999993, 0.9999999999999999, 1.0000000000000024, 0.9999999999999707, 1.0000000000000018, 0.9999999999999977, 0.9999999999998529, 0.999999999999992, 0.9999999999999998, 0.9999999999999998, 1.0000000000000013, 0.9999999999999898, 0.9999999999999989, 1.0000000000000027, 7.718452531328538e-15, 1.0000000000000007, 1.0000000000000013, 7.813816734827614e-15, 3.841802682698125e-15, 3.559230499005212e-15, 0.0, 1.0000000000000016, 1.2543960329895892e-14, 0.9999999999999978, 1.0000000000000013, 1.0000000000000009, 0.999999999999953, 1.0000000000000002, 0.9999999999999992, 0.9999999999999989, 1.0, 1.0000000000000013, 0.9999999999999992, 1.0000000000000007, 1.0000000000000007, 0.9999999999999998, 1.0000000000000036, 1.0000000000000004, 1.0000000000000007, 0.9999999999999983, 1.0000000000000004, 1.000000000000004, 0.9999999999999986, 0.9999999999999988, 1.0000000000000004, 1.000000000000001, 0.9999999999999987, 1.9918692883156888e-16, 0.9999999999999993, 0.9999999999999982, 1.0000000000000018, 0.9999999999999999, 0.9999999999999669, 1.0000000000000027, 0.9999999999999883, 0.9999999999999999, 1.0000000000000004, 0.9999999999999929, 1.0, 0.9999999999999836, 0.9999999999999973, 0.9999999999999986, 1.0000000000000013, 0.9999999999999998, 0.9999999999999983, 0.9999999999999915, 0.9999999999999869, 0.9999999999998983, 0.9999999999999993, 1.0000000000000007, 1.0000000000000009, 1.0, 1.0000000000000002, 0.9999999999999997, 1.000000000000001, 1.0000000000000002, 1.0000000000000007, 0.9999999999999997, 1.0000000000000002, 1.0000000000000002, 1.0000000000000004, 0.9999999999999919, 0.999999999999997, 0.9999999999999958, 1.0, 0.9999999999999957, 0.999999999999999, 1.000000000000001, 1.0000000000000004, 0.9999999999999999, 1.0000000000000002, 0.9999999999999989, 0.9999999999999952, 1.0000000000000018, 1.0000000000000009, 0.9999999999999996, 1.0, 1.0000000000000033, 1.0, 1.0000000000000013, 0.9999999999999959, 1.0000000000000007, 0.9999999999999885, 0.9999999999999751, 1.0000000000000004, 0.9999999999999638, 3.067981643821837e-14, 1.0000000000000016, 0.9999999999999993, 4.496744806460998e-15, 0.9999999999999811, 0.9999999999999575, 0.999999999999993, 0.9999999999999746, 2.8405876691725625e-14, 0.9999999999999978, 1.0000000000000002, 0.999999999999968, 1.0, 0.9999999999999819, 1.000000000000001, 0.9999999999999809, 4.209596544835508e-16, 2.2234568146072795e-14, 5.346000322144643e-15, 2.3394757908147327e-14, 1.358241184757557e-14, 1.0000000000000007, 1.0000000000000004, 1.000000000000004, 0.9999999999999996, 0.9999999999999928, 0.9999999999999843, 0.999999999999998, 1.0000000000000013, 0.9999999999999989, 0.9999999999998983, 0.9999999999999648, 1.0000000000000029, 1.0000000000000004, 0.9999999999999991, 0.9999999999999717, 1.0000000000000007, 0.9999999999999974, 0.9999999999999994, 1.0000000000000002, 0.0, 0.9999999999999957, 1.0000000000000018, 0.0626129824716832, 0.9999999999999971, 0.9999999999997929, 4.603027704102831e-14, 0.9999999999998938, 3.4705500367340843e-14, 0.9999999999999774, 1.0000000000000029, 0.9999999999999989, 1.0000000000000009, 0.9999999999999998, 0.9999999999999915, 0.9999999999999852, 0.9999999999999981, 1.0000000000000067, 2.3118531826965038e-15, 1.556899117489692e-14, 5.1266680654109904e-14, 6.7609728920660174e-15, 0.9999999999999998, 1.0000000000000022, 1.0000000000000004, 7.522545041801663e-16, 0.9999999999999546</t>
         </is>
+      </c>
+      <c r="K282" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="283">
@@ -13020,6 +13746,7 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -13054,6 +13781,7 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -13088,6 +13816,7 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -13136,6 +13865,9 @@
           <t>0.03672268844317777, 0.974035442646867, 0.9946750334190383, 0.1862294055803582, 0.7727717537428678, 0.0004187382675238781, 2.7008749346032287e-06, 0.9547885255100521, 0.9995638650940796, 0.0006237808522937127, 0.12761305527463165, 0.01390684121950257, 0.06177503604619645, 0.9996357786122813, 0.00018194889145504596, 0.2480190979819735, 0.3742597565267855, 0.9787932393147792, 1.0000000000000004, 0.08066219332705798, 0.000979000273249876, 0.991400845621735, 0.00010383384365603718, 0.987769936854772, 0.9999999999999999, 0.662110369981092, 0.3391325519625189, 0.011741907395383822, 0.9831059796099044, 0.9999988533832137, 0.30579671749323734, 0.9998890178440728, 0.9999999999999999, 0.9594543765901302, 0.999998627549617, 0.998645468137208, 0.7126814290028303</t>
         </is>
       </c>
+      <c r="K286" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -13184,6 +13916,9 @@
           <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
+      <c r="K287" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -13232,6 +13967,9 @@
           <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
+      <c r="K288" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -13280,6 +14018,9 @@
           <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
+      <c r="K289" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -13328,6 +14069,9 @@
           <t>0.10904871380141931, 0.8241916863443685, 0.015511211814849404, 0.011580707686451992, 0.0029253464453381155, 0.6348227812712134, 0.8980882159143337, 0.01306144917213371, 0.005530939353932098, 0.10797729699763957</t>
         </is>
       </c>
+      <c r="K290" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -13376,6 +14120,9 @@
           <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
+      <c r="K291" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -13424,6 +14171,9 @@
           <t>0.10418773207773581, 0.16713590061875666, 0.00420936050936455, 0.11472506429058199, 6.52186811334703e-05, 0.9866671973437536, 0.9756273536634036, 0.006111804431154338, 0.9831541207108767</t>
         </is>
       </c>
+      <c r="K292" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -13472,6 +14222,9 @@
           <t>0.9982930687730528, 0.0017496448715522382, 0.4668515499120042, 0.007733394077361819, 0.00017202025946795794, 0.0031520715190233137, 0.10191178408566515, 0.9887174329920856</t>
         </is>
       </c>
+      <c r="K293" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -13520,6 +14273,9 @@
           <t>0.19753415510080718, 0.0027385031079892887, 0.9814315759237271, 0.3597614793264385, 0.014204771302103309, 0.7808972989047726</t>
         </is>
       </c>
+      <c r="K294" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -13568,6 +14324,9 @@
           <t>0.000662315473001776, 0.8697637238945869, 0.0013243275122125852, 0.4575513767953343, 0.0017520949698166248, 0.0054157394023728565, 0.017511927909202776, 0.98800583489135, 0.7884982356472572, 0.0022974352431301905</t>
         </is>
       </c>
+      <c r="K295" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -13616,6 +14375,9 @@
           <t>0.10904871380141931, 0.8241916863443685, 0.015511211814849404, 0.011580707686451992, 0.0029253464453381155, 0.6348227812712134, 0.8980882159143337, 0.01306144917213371, 0.005530939353932098, 0.10797729699763957</t>
         </is>
       </c>
+      <c r="K296" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -13664,6 +14426,9 @@
           <t>0.9991770991732188, 0.007268093471835199, 2.2731809089661442e-05, 3.4820906381512225e-05, 0.00029507185220102394, 0.015197143740200269, 0.009401231440926206, 0.0058798135329612665, 0.2059708249988054, 0.9957947407389249, 0.0028386432972721688, 0.9757890923947777</t>
         </is>
       </c>
+      <c r="K297" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -13712,6 +14477,9 @@
           <t>0.10418773207773581, 0.16713590061875666, 0.00420936050936455, 0.11472506429058199, 6.52186811334703e-05, 0.9866671973437536, 0.9756273536634036, 0.006111804431154338, 0.9831541207108767</t>
         </is>
       </c>
+      <c r="K298" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13756,6 +14524,9 @@
           <t>0.9999999999999997, 0.9999999931285483, 1.0000000000000044, 0.9999992921568132, 3.696719279810121e-10, 1.0000000000000007, 1.0000000000000007, 0.9999967358406063, 1.0000000000000002, 0.0166736680005695</t>
         </is>
       </c>
+      <c r="K299" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13800,6 +14571,9 @@
           <t>0.0, 0.9999999999999347, 6.779763853104436e-14, 2.510483247297599e-15, 6.839156761223688e-16, 1.5631695767342513e-15, 0.9999999999999908, 0.8433822514183643, 9.817946380059217e-14, 0.0, 1.1158724429087465e-16, 5.944535742869982e-14, 0.004114356548918011, 0.00022555208877358227, 4.828793468082754e-14</t>
         </is>
       </c>
+      <c r="K300" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13844,6 +14618,9 @@
           <t>0.9999999999999672, 0.12056466553206284, 5.4667213161670604e-14, 0.8253793411867443, 0.0, 2.128375784237673e-13, 2.847901418021467e-15, 3.356888626843005e-14, 0.0, 2.094934713247383e-14, 0.0011605695976699489</t>
         </is>
       </c>
+      <c r="K301" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13888,6 +14665,9 @@
           <t>1.0000000000000013, 8.096701601358873e-15, 6.402565370822275e-16, 3.271444141972544e-13, 0.1746206588131474, 0.9999999999997876, 0.9999999999999086, 2.9122844725185043e-16, 0.003330274979037435, 0.9841698079539918, 1.0533907163482417e-13, 2.562430747400834e-13, 8.946330526330108e-14</t>
         </is>
       </c>
+      <c r="K302" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13932,6 +14712,9 @@
           <t>7.563915917903973e-18, 0.0, 0.9085851627015096, 1.351297300479528e-13, 2.040296974351561e-13, 0.9999999999999404, 3.2397849824902e-14, 0.25254309502119526, 0.011715835497069676, 2.363474153672371e-13, 7.984878640546991e-14, 0.9997744479112183, 0.999999999999792</t>
         </is>
       </c>
+      <c r="K303" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13976,6 +14759,9 @@
           <t>2.6160809096794118e-14, 0.11847262473047523, 0.0, 0.5649866791767769, 9.646730048865098e-13, 1.5585452073794385e-15, 2.8180061645569387e-14, 0.0, 1.7530550457121424e-16, 0.7474569049788103, 6.582128184947375e-15, 1.0, 0.9126455348526529, 0.6749766546931687, 0.99999999999974, 0.11823708366426153, 3.724621214111093e-17, 1.462413060639627e-16</t>
         </is>
       </c>
+      <c r="K304" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -14020,6 +14806,9 @@
           <t>1.5801406647388543e-14, 0.9999999999999114, 0.01811690891338983, 3.170987323835905e-14, 0.0, 0.0914148372983976, 0.9999999999998611, 2.6713853255212207e-17, 1.349241399352795e-13</t>
         </is>
       </c>
+      <c r="K305" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -14064,6 +14853,9 @@
           <t>7.768016064013373e-15, 0.8813093784067558, 0.0, 0.3320120758756879, 0.0, 0.981883091086593, 0.0, 0.0, 1.8696777122168437e-16, 2.5191366197104766e-15, 0.9999999999996627, 0.08735446514734686, 0.325023345306591, 1.000000000000001, 0.8817629163357388, 6.606520751809835e-15, 6.5286366408926e-14</t>
         </is>
       </c>
+      <c r="K306" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -14108,6 +14900,9 @@
           <t>0.11869062159321583, 0.8815273752695287, 0.5448664101885903, 0.6679879241242521, 0.9587800235930151, 0.6046333390626247, 0.43501332082322236, 0.9999999999991511, 1.0819523219574484e-16, 0.0, 0.0, 4.128969865585293e-16, 0.0</t>
         </is>
       </c>
+      <c r="K307" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -14152,6 +14947,9 @@
           <t>9.3316756226602e-15, 1.2565046064506582e-15, 0.6384164150297452, 0.019394972920743415, 0.0720430951530303, 0.07491360210541509, 0.03318075538927135, 0.0021128584923866744, 5.864164453589073e-14, 0.041219976406984965, 0.3953666609373748, 0.9999999999999877, 0.7023647448968876, 4.7931532267390197e-14, 0.11314854148146254, 0.9999999999999356</t>
         </is>
       </c>
+      <c r="K308" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -14196,6 +14994,9 @@
           <t>0.4698744454970508, 0.1990536600722746, 0.0, 0.38021998770599463, 8.624950679645991e-15, 0.29763525510311256, 0.9999999999999469, 0.9527798201591077, 1.9081958944266102e-15, 6.496397213079174e-14</t>
         </is>
       </c>
+      <c r="K309" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -14240,6 +15041,9 @@
           <t>5.170071621586615e-16, 1.0677518253802163e-15, 1.142698169075141e-16, 1.7517255523101062e-15, 9.873399096108837e-16, 0.9999869254798902, 0.7919502091670534, 0.9999862103625182, 0.0, 3.3397261339608898e-15, 3.659969371930428e-15, 1.0000000000000002, 0.9999999999999949, 0.9833263319994279, 1.0000000000000029</t>
         </is>
       </c>
+      <c r="K310" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -14284,6 +15088,9 @@
           <t>6.422330949344263e-17, 7.9443902821104e-14, 0.8009463399277259, 0.0, 3.618598704441686e-17, 0.04722017984086448, 0.9966697250209166, 0.0, 0.9999999999998841, 0.4997589173860252, 0.2549643259460965, 7.950781729490365e-14, 1.1815111447666696e-13</t>
         </is>
       </c>
+      <c r="K311" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -14328,6 +15135,9 @@
           <t>0.029385931395816908, 0.0, 0.0, 0.9999999999996183, 1.8501318518346816e-13, 1.2159501947720193e-13, 2.0226559269517739e-16, 5.928580674736622e-18, 0.5002410826137191, 0.745035674053916, 0.9999999999997957</t>
         </is>
       </c>
+      <c r="K312" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -14372,6 +15182,9 @@
           <t>0.33219765357433095, 0.5107305815821267, 0.0, 0.9279569048467848, 0.9668192446105905, 0.0, 7.952841797024768e-18, 2.4405194747119865e-19, 9.273818046500048e-17</t>
         </is>
       </c>
+      <c r="K313" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -14416,6 +15229,9 @@
           <t>2.0536043560632786e-14, 9.316307870735097e-14, 4.6488023831501805e-14, 3.475371956341428e-14, 0.31231526277688576, 0.9467317357002065, 0.0, 1.0765671932596768e-15, 0.11694983897645601, 0.9999999999999999, 2.2973738555650582e-14, 0.5473291333166664, 0.41213091695899245, 0.16862755284967687, 2.0327341450454188e-13</t>
         </is>
       </c>
+      <c r="K314" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -14460,6 +15276,9 @@
           <t>2.7890912269404463e-15, 2.2008921559810908e-14, 6.598907606417912e-17, 0.9999999999999684, 0.6876847372231152, 1.1569075445207169e-14, 0.9082137497658274, 0.0, 5.45771329907272e-15, 0.45267086668333656, 0.47472054155953, 0.8313724471503244, 3.77648784380618e-17, 2.7054197051178567e-14</t>
         </is>
       </c>
+      <c r="K315" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -14504,6 +15323,9 @@
           <t>0.9935401014233817, 1.6824100510478304e-15, 6.946434748000058e-16, 0.7872802728814088, 0.09570240809888833, 0.00015756558770533205, 0.9999999999999559, 0.027320380237243078</t>
         </is>
       </c>
+      <c r="K316" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -14548,6 +15370,9 @@
           <t>4.314408299348218e-14, 0.19944842127175852, 0.02749590130700152, 5.588628330772135e-15, 4.917986425980879e-15, 0.00645989857662021, 0.9994077621746533, 0.0, 0.0, 0.0, 0.061547124451694496, 0.21271972711859063, 0.5766760420568411, 0.612467658383614, 6.487026647259754e-16, 1.5551938368206332e-13</t>
         </is>
       </c>
+      <c r="K317" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -14592,6 +15417,9 @@
           <t>0.022125636160567626, 0.8005515787282085, 0.0, 0.05961735232825232, 0.999999999999979, 1.1460194768339564e-15, 7.080517753438292e-15, 0.024098708760131673, 0.000592237825316174, 5.895014095717637e-16, 1.2200236379774772e-14, 0.11445524751106048, 0.9998361878552425, 0.9999999999998264</t>
         </is>
       </c>
+      <c r="K318" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -14636,6 +15464,9 @@
           <t>0.9778743638393887, 0.9403826476717478, 1.2204882720220887e-14, 9.287171805527289e-14, 0.12908398834675308, 0.0, 0.9999999999999887, 0.13388202215699926, 0.0001638121447570509, 1.621765485704958e-14</t>
         </is>
       </c>
+      <c r="K319" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -14680,6 +15511,9 @@
           <t>0.0, 0.8055873674466489, 7.231585513522465e-17, 0.2780218223472537, 5.131271390108449e-15, 0.999999999999907, 0.15698856948878992, 0.3574494008095216, 0.12607036948554465, 0.0010317358308498967, 8.299183208895974e-16, 6.269800448302538e-15, 4.520462338239662e-16, 4.83699926263995e-16, 1.0022495340064277e-15, 0.15794791136049885, 0.9998424344122918, 1.5473765052647264e-14, 0.9726796197627554</t>
         </is>
       </c>
+      <c r="K320" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -14724,6 +15558,9 @@
           <t>2.954262257985173e-14, 0.19441263255335656, 0.9725040986929793, 0.7219781776527462, 5.566084397943012e-15, 0.9999999999999937, 0.9999999999999891, 0.6898287334043239, 7.375457410951723e-15, 0.0, 0.0, 0.0, 0.0, 0.9384528755483036, 0.3088687104320975, 5.2701182292987535e-17, 1.0258262431437238e-16, 0.0, 7.126536690564203e-15, 0.9999999999999968, 1.2662116468459005e-19, 7.076021537407795e-16, 6.568495257431327e-16, 0.9999999999999979, 1.9697128452062837e-15, 0.0</t>
         </is>
       </c>
+      <c r="K321" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -14768,6 +15605,9 @@
           <t>0.9248944034447876, 0.985905235474897, 0.0, 0.4654207127061782, 0.03182422356279333, 0.999999999999936, 0.7547075335601432, 1.4509424582911622e-15, 1.0000000000000004, 0.0823742691327421, 2.852685829369444e-14, 5.078184995264309e-17</t>
         </is>
       </c>
+      <c r="K322" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -14812,6 +15652,9 @@
           <t>0.07510559655521225, 0.014094764525103156, 1.0000000000000004, 7.193548252196579e-15, 6.451709787124933e-14, 0.08202398379989954, 0.006860614110264715, 0.013905187083993652, 0.01768779157075195, 0.5392860138139894, 0.3264440896093007</t>
         </is>
       </c>
+      <c r="K323" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14856,6 +15699,9 @@
           <t>7.151572689721793e-17, 0.24780657736209957, 0.9372476197958335, 0.00043329269307350164, 2.4456032724011763e-16, 0.939866763511668, 0.012668213834240378, 0.14775604923976357, 0.9985815486102065, 0.6735559103906986</t>
         </is>
       </c>
+      <c r="K324" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14900,6 +15746,9 @@
           <t>2.5744766740353944e-17, 0.9756867856972798, 0.7038669675108458, 0.00759734795445441, 0.6701694388379994, 0.05589176609387797, 0.0004086251892132868, 2.1181549183761468e-10, 0.999999999999998, 0.060133236488331986, 0.689771291877632, 0.0014184513897948202, 0.00037275708282897283, 3.9680776060526126e-16</t>
         </is>
       </c>
+      <c r="K325" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14944,6 +15793,9 @@
           <t>0.5345792872938175, 0.02431321430270823, 0.25303165268718136, 0.23769511848540026, 0.0, 1.7977278932323967e-14, 1.0000000000000013, 0.9037205437832657, 0.9999999999999696, 0.9814702905469461, 0.0, 8.818336395819544e-16, 0.3129579369462503, 0.2800190897580212, 8.005612271793934e-17, 2.991583098847355e-17</t>
         </is>
       </c>
+      <c r="K326" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14988,6 +15840,9 @@
           <t>0.9999999999999938, 0.999999999999985, 3.781249836453254e-17, 0.7903181132887229, 2.5927144865927083e-17, 6.512655212815716e-17, 7.250165898100104e-16</t>
         </is>
       </c>
+      <c r="K327" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -15032,6 +15887,9 @@
           <t>0.0, 9.65329594315776e-08, 0.4493851360517609, 0.9999999999999916, 1.0000000000000004, 7.34121626137386e-15, 0.12424966250439166, 0.9564783531153013</t>
         </is>
       </c>
+      <c r="K328" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -15076,6 +15934,9 @@
           <t>0.639994859535037, 6.582288126471695e-16, 0.9989682641691428, 0.0, 0.00427042805477334, 0.0033754726794943124, 0.12075223349587223, 0.8935162134048636, 0.0, 0.7336729895774584, 1.0000000000000009, 1.0000000000000036, 0.9999999999999977, 0.9999999999999998</t>
         </is>
       </c>
+      <c r="K329" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -15120,6 +15981,9 @@
           <t>0.9497673495591619, 1.447298443550941e-14, 0.9999999999999997, 0.9999999999999954, 5.800744114643637e-16, 1.0000000000000002, 0.9999999999999992, 0.3451238858362741, 0.45221585151822274, 0.0013146659444383498</t>
         </is>
       </c>
+      <c r="K330" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -15164,6 +16028,9 @@
           <t>0.02287844987680599, 0.9999999999999861, 2.4368859797933716e-16, 0.00023181907915338718, 0.437974234154288, 0.9999999999999926, 2.6122090014420603e-15</t>
         </is>
       </c>
+      <c r="K331" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -15208,6 +16075,9 @@
           <t>0.87943533446792, 0.002555739655435708, 0.0511554058073953, 1.0593459887523495e-13, 0.9999999999999742, 0.09178625023417086, 0.9999999999999952, 0.8830501610235308, 3.625090202615931e-14, 0.15661774858160885, 1.2016870867756113e-14, 1.7018210918910297e-15, 0.9988394304022818</t>
         </is>
       </c>
+      <c r="K332" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -15252,6 +16122,9 @@
           <t>0.27577810952031934, 0.32989948680283926, 0.03182809412306635, 0.857162643230102, 0.00047850737204681304, 0.038772276006230615, 0.0007486142895082741, 2.1670476728596087e-05</t>
         </is>
       </c>
+      <c r="K333" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -15296,6 +16169,9 @@
           <t>0.4779810741199127, 0.0005080965628275908, 0.0001452448456830048, 0.0003605573293583259, 0.10613928536909559, 0.052430844535102626, 5.114907880151442e-07, 0.9976249546225959</t>
         </is>
       </c>
+      <c r="K334" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -15340,6 +16216,9 @@
           <t>0.9785786838680158, 1.4358859957191859e-05, 5.114633085935321e-05, 0.0012294235484422605, 0.00042636719248090354, 0.0005179001083850956, 0.2273542190955924, 0.999419642335076, 0.3773543502297297, 0.3583101597347688</t>
         </is>
       </c>
+      <c r="K335" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -15383,6 +16262,9 @@
         <is>
           <t>1.3778628640627613e-06, 2.4812534710964504e-05, 8.212648519663212e-05, 0.6235016933267187, 0.726637392170725, 0.1936803898574135, 0.43598503567325386, 0.00020727496894278313, 7.140939220465347e-05</t>
         </is>
+      </c>
+      <c r="K336" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="337">
@@ -15418,6 +16300,7 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -15452,6 +16335,7 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -15500,6 +16384,9 @@
           <t>0.9982481030063567, 0.9951700547116759, 0.010281820151036597, 0.9996682012518076, 1.0, 1.0, 0.029562729322304915, 0.9999999999999997, 0.0011519307165381014, 0.9994898122572131, 0.0019251170878146896, 0.0034071578772500903, 1.1058816612093335e-08, 0.02210739459258278, 0.7268446501603387, 0.000399502185856697, 0.9456383278767782, 0.9999999999999994, 0.002357748831342455, 5.5303360436222144e-05, 0.0002827101078312975, 0.023858358491146113, 0.9995371748950137, 0.9997727538089579, 0.998080123940423, 0.9999732948992645, 0.04291060377524058, 0.9999999999999994, 0.9999356185616981, 1.0000000000000007, 0.0020349423885960643, 0.00027283766668386323, 0.999750830262786, 0.9996244297142101, 0.9999999999999998, 1.0, 0.9897991420450375, 0.9999999999999996</t>
         </is>
       </c>
+      <c r="K339" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -15548,6 +16435,9 @@
           <t>0.9999999999999998, 0.011098601577416396, 0.9999999999999999, 0.9999999999999997, 0.9946573979452099, 0.6464216004847708, 0.9984428254738227, 0.9488910958691437, 0.626203360896261, 0.004771782379514252, 0.23162536959957952, 0.9716906896567444, 0.004958765212850773, 0.9820633032182927, 1.0, 0.9937842356558299, 5.417022468253268e-07, 0.2506602884669939, 0.9923066202864992, 0.49861931885339666, 0.07429230499494639, 0.9577704643526901, 0.5842885219890517, 1.0, 0.9999999999999999, 0.14288679931054013, 0.07110986415622672, 0.9999696565400574, 0.030942982427424378, 0.9977953840959565, 1.0, 0.005747852198558399</t>
         </is>
       </c>
+      <c r="K340" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -15596,6 +16486,9 @@
           <t>0.0022512399364513465, 0.00149767432886582, 0.000509948494966396, 0.9980748829121833, 0.9959228656744383, 1.0000000000000002, 0.9999999889411871, 1.0, 0.9990565035665544, 1.0, 1.0, 0.988901398422583, 1.0, 0.25275418215808126, 0.9997441888795922, 0.00022220996281054777, 0.27174324216806234, 0.9939775082696795, 0.996000395982208, 0.028309307870335226, 0.054361672123223674, 0.010357981475498974, 0.006215765483175669, 0.0015542274745049774, 1.0000000000000002, 1.0000000000000004, 0.004582499570792072, 0.0010256060151946408, 1.0, 0.0004969658034825497, 0.9257076950050827, 0.04222953808858539, 1.0000000000000002, 0.9995145901387104, 8.850815592589524e-07, 0.012886774863688279, 3.151870708023896e-05, 7.57076966503959e-05, 0.9689670591177714, 0.0022046159040325607</t>
         </is>
       </c>
+      <c r="K341" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -15644,6 +16537,9 @@
           <t>1.0, 0.011141654248379517, 1.0000000000000002, 0.9999999999999996, 0.3535783995152384, 0.0015571745262064373, 0.0511089041308368, 0.37379663910370003, 0.005052876719257355, 0.7683746304004218, 0.0021208135882381978, 1.0, 0.9999999999999998, 0.001119107902998889, 1.7349230529937048e-05, 0.9999999999999998, 0.9186688380800778, 0.01208008935077127, 4.741285918853921e-09, 1.0000000000000004, 0.7493397115330063, 0.5013806811465967, 0.8571132006894507, 1.0000000000000007, 0.9999999999999999, 0.9904618371215662, 0.9999999999999993, 0.9999372550765275, 0.5293073056387276, 0.9771546355492352, 0.0003920968460308253, 0.0001552964962021653, 0.00333244062496061, 3.0343459942094326e-05, 0.979356836192699, 0.00232555120367538</t>
         </is>
       </c>
+      <c r="K342" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -15692,6 +16588,9 @@
           <t>0.9999465127602967, 1.0000000000000002, 1.0, 0.9888583457516199, 0.0008860003134144646, 0.7456197591289736, 0.00025581112053448825, 0.9901753419252209, 0.9999754554174303, 0.9976569764489472, 0.00028250035269884185, 0.00016230928262433246, 0.9879199106492299, 0.00017831283212929288, 0.00021430674138981143, 0.00016680139703033147, 0.9999999999999999, 0.0004854098613221639, 0.9999991149184411, 0.4157114834736007, 1.0000000000000002, 0.9883241195807507, 0.4297075310425286, 0.9999684812928472, 0.9999242923032629, 8.990331233675121e-05</t>
         </is>
       </c>
+      <c r="K343" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -15740,6 +16639,9 @@
           <t>0.00028511040060460384, 0.00027274597544526055, 0.004583263136255395, 0.004384533006924393, 0.00010126675740828328, 1.0000000000000002, 0.8722658233967117, 0.00032888806736475017, 0.9793714758905525, 0.029720199087820347, 0.00049317991204228, 1.0, 0.023044195417989004, 0.9994789676861442, 0.9997557197866054, 0.006393126376164513, 1.0000000000000004, 0.996663854595592, 0.0004146654423991251, 0.0005087140796060915, 1.0, 0.0034161971975837945, 0.0005811180743640842, 0.9971164849456304, 0.9980807185451459, 0.010266877875446187, 0.9951688363298353, 0.9995151482167222, 0.9999732948992648, 0.9996682055526187, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9899807040574278, 1.0000000000000002, 0.04362059581808235, 0.9999999999999999, 0.9999999999999999, 1.0, 0.022187270459306983</t>
         </is>
       </c>
+      <c r="K344" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -15788,6 +16690,9 @@
           <t>0.9952701397801798, 1.0482286456587687e-08, 0.00029377477538370116, 0.00020123469753512263, 0.00016507071560716116, 0.00017990717754271497, 0.00021633949689239964, 0.0014231397704283395, 0.9999754554296039, 0.0017462719713887, 1.3088948606503872e-05, 0.0002555341469788457, 0.0004854098613221636, 9.272062561463192e-05, 0.9999684812928478, 0.9999991149184413, 0.41571455174479355, 0.746326266104021, 0.9999242923032633, 0.9998012439028628, 0.9992494405268432, 0.9999939538835695, 1.0, 1.0, 0.9999465126888449, 1.0000000000000002, 1.0, 0.9992246121220432, 0.43061742087628335</t>
         </is>
       </c>
+      <c r="K345" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -15836,6 +16741,9 @@
           <t>6.122015348838029e-05, 9.318986421852002e-05, 2.9444121378448005e-09, 0.0003992115918846292, 0.00033297624405430716, 0.0008379903095429786, 6.595873839871222e-09, 0.02590144381180888, 0.0003577592087302555, 0.009936316434863304, 1.0000000000000002, 0.011783912860711053, 0.9702798009121562, 1.0, 0.9972254497498934, 1.0000000000000002, 0.9995272372733414, 0.9769558045819947, 0.9984691978922721, 0.0012587320035397003, 0.010220947910334758, 0.8782487952117743, 0.9965098837652541, 0.9906885856208714, 7.56308614684908e-05, 0.00547449071191579, 0.0017719310162696488, 0.9896690975570868, 0.004831163670181858, 0.9995577975888162, 0.0014120829928330396, 0.9998838563087283, 0.9999999969012289, 1.0, 1.0000000000000002, 0.9563794041819204, 0.9976996950964393, 0.9999999999999996, 0.00033179444740422055, 0.0006192399448464538, 4.497120593330655e-05, 0.0003852371566437008, 0.0008873418397345988</t>
         </is>
       </c>
+      <c r="K346" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -15884,6 +16792,9 @@
           <t>0.0004326076107197927, 0.0005040934200677516, 0.004432689439045221, 0.00012608741483295178, 0.9790362692632112, 0.029720199087820347, 0.00049317991204228, 1.0, 0.9355475790614767, 0.023044195417989004, 0.8909147192183619, 0.9997557197866054, 0.00041465295887795246, 0.0026690637308166925, 0.0012469431206945853, 0.000600763765054984, 1.0000000000000004, 0.9973210931982144, 1.0, 0.010270087495417558, 0.0023435806982799808, 0.000720265264206334, 0.9971177016304898, 0.9980997399988448, 0.010266877875446187, 0.9951688363298353, 0.9995151482167222, 0.9999732948992648, 0.7268253949388376, 1.0000000000000002, 0.9999999999999999, 0.9999999999999998, 1.0, 0.9899808724359548, 1.0000000000000002, 0.04362059581808235, 0.9999999999999997, 0.9999999999999999, 1.0, 0.9996682055526187, 0.9999999999999998, 0.022321782855060115</t>
         </is>
       </c>
+      <c r="K347" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15932,6 +16843,9 @@
           <t>0.0932602834315431, 5.355359321660631e-07, 0.9674631087797957, 0.9992268535520865, 7.381293566037014e-06, 0.9882160871391952, 2.2277677648036497e-05, 0.00014111533250493516, 0.12175120478822082, 0.0034715031065969955, 0.9999999999999994, 0.9997223147591756, 0.6457144327706827, 0.06214162729607201, 0.9991847500654338, 1.0000000000000002, 1.0, 0.9999243691385783, 0.9941897736256954, 0.9999696565400584, 0.0003547252567943621, 1.0000000000000002, 0.9998951368172868, 0.5842854537179073, 0.9999999999999998, 1.0, 0.948891095869143, 0.6239581365756397, 9.561260823714409e-05, 0.9984454837880888, 0.23162536959957958, 0.49838804507708295, 0.2506604976950623, 0.1428867078597694, 1.0000000000000002, 1.0000000000000002</t>
         </is>
       </c>
+      <c r="K348" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15980,6 +16894,9 @@
           <t>0.0012262709350410587, 0.0028590944683410118, 0.0005971407995530284, 3.986754260904255e-05, 0.9999999999999994, 0.9999999999999998, 0.9214074518943447, 6.0461164294640764e-06, 1.0, 0.9999999999999997, 0.0007753878779578401, 0.9999999999999993, 0.7403293824382925, 0.9999999999999996, 0.9998877864725706, 0.5415813475444601, 0.45401991592347724, 0.7088503031124161, 9.067451828416749e-10, 6.053217341706087e-05, 0.3542855672293263, 0.9985768602295794, 0.9982537280286031, 3.0343459942094347e-05, 0.051108904130836796, 0.3760418634243211, 0.00010314452283160588, 0.0015545162119405497, 0.7683746304004218, 1.0, 0.5016119549229479, 0.7493395023049383, 0.8571132921402216, 1.0000000000000007, 3.511171874199002e-05</t>
         </is>
       </c>
+      <c r="K349" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -16028,6 +16945,9 @@
           <t>0.9992494405268432, 0.9999939538835695, 1.0, 1.0, 0.9999465126888449, 1.0000000000000002, 1.0, 0.9992246121220432, 0.43061742087628335, 0.9952701397801798, 0.00029377477538370116, 0.00020123469753512263, 0.00016653725267923005, 0.00017964458182777575, 0.00021633949689239964, 0.0014231397704283395, 0.9999754554296039, 0.0017462719713887, 0.018453960920893166, 0.0002555341469788457, 0.0004854098613221636, 9.272062561463192e-05, 1.8668081196040745e-08, 0.9999684812928478, 0.9999991149184413, 0.41571455174479355, 0.7417176291281017, 0.9999242923032633, 0.9998012439028628</t>
         </is>
       </c>
+      <c r="K350" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -16076,6 +16996,9 @@
           <t>2.9444121378448005e-09, 0.0003989417149501799, 0.00034217746310469634, 0.0004334890097510022, 6.122015348838029e-05, 9.318986421852002e-05, 0.006620260875450258, 0.0003577592087302555, 0.010254586523254245, 0.9942744853076604, 0.0004888814964649699, 0.005314583644804063, 1.0000000000000002, 0.007829374153108179, 0.9702798009121562, 1.0, 0.9972254497498934, 1.0000000000000002, 0.9995069695938503, 0.9769558045819947, 0.9984691978922721, 0.895993866072587, 0.9906885856208714, 0.00547449071191579, 0.0017896679068865025, 0.9896690975570868, 0.004831163670181858, 0.00033179444740422055, 0.9995577975888162, 0.9998838563087283, 0.9999999969012289, 1.0, 1.0000000000000002, 0.9563794041819204, 0.9977632855345843, 0.9999999999999996, 0.0006192399448464538, 4.497120593330655e-05, 0.0003852371566437008, 0.0008819946648476417</t>
         </is>
       </c>
+      <c r="K351" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -16124,6 +17047,9 @@
           <t>0.00028511040060460384, 0.00027274597544526055, 0.004583263136255395, 0.004384533006924393, 0.00010126675740828328, 1.0000000000000002, 0.8722658233967117, 0.00032888806736475017, 0.9793714758905525, 0.029720199087820347, 0.00049317991204228, 1.0, 0.023044195417989004, 0.9994789676861442, 0.9997557197866054, 0.006393126376164513, 1.0000000000000004, 0.996663854595592, 0.0004146654423991251, 0.0005087140796060915, 1.0, 0.0034161971975837945, 0.0005811180743640842, 0.9971164849456304, 0.9980807185451459, 0.010266877875446187, 0.9951688363298353, 0.9995151482167222, 0.9999732948992648, 0.9996682055526187, 0.9999999999999998, 1.0000000000000002, 1.0000000000000002, 0.9899807040574278, 1.0000000000000002, 0.04362059581808235, 0.9999999999999999, 0.9999999999999999, 1.0, 0.022187270459306983</t>
         </is>
       </c>
+      <c r="K352" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -16172,6 +17098,9 @@
           <t>0.048243168749630985, 0.9992268535520865, 0.9869557318821054, 0.9999999999999999, 0.9998193558155125, 1.0000000000000002, 0.005710319122853371, 6.38617568355794e-05, 7.381293566037014e-06, 0.992170625846769, 2.2277677648036497e-05, 0.10400613392740862, 0.9999999999999997, 0.6457144327706827, 0.06214162729607201, 0.9993226124854434, 1.0000000000000002, 0.9941897736256954, 0.9999696565400584, 0.0003547252567943621, 0.5842854537179073, 0.9999999999999998, 1.0, 0.948891095869143, 0.6239581365756397, 9.561260823714409e-05, 0.9984454837880888, 0.23162536959957958, 0.49838804507708295, 0.2506604976950623, 0.1428867078597694, 1.0000000000000002, 5.355359321660631e-07</t>
         </is>
       </c>
+      <c r="K353" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -16220,6 +17149,9 @@
           <t>0.0007731489784912269, 0.006424006759570228, 0.9999999999999996, 0.9954167368637125, 0.0018325978913445522, 0.00018063480743483735, 0.12724529510684615, 0.9942926665309816, 0.006351544835263904, 3.781464026743544e-06, 0.9999926187063511, 0.9999999999999999, 0.9999777223777817, 0.0022813703380369986, 0.000520786667359113, 0.0015308021077556858, 0.9936068736238323, 0.0015173785607433235, 0.995508457227995, 0.009311414379136665, 0.9999999999999999, 1.0, 0.9994188819256248, 0.9378583727039431, 0.000677387514559263, 1.0000000000000009, 0.9999721903569643, 0.9999999999999999, 0.9997444658531486, 0.9995145901387102, 0.9995524972170974, 3.151870708023897e-05, 8.850815592589527e-07, 0.2520876158611824, 7.570769665039594e-05, 1.0, 0.0007106919305482663</t>
         </is>
       </c>
+      <c r="K354" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -16268,6 +17200,9 @@
           <t>0.0012262709350410587, 0.0016886428570755702, 0.45401991592347724, 0.7088503031124161, 9.067451828416749e-10, 0.00010002775670583838, 0.3542855672293263, 0.9985768602295794, 0.9982537280286031, 3.0343459942094347e-05, 0.051108904130836796, 0.3760418634243211, 0.00010314452283160588, 0.0015545162119405497, 0.7683746304004218, 0.5016119549229479, 0.7493395023049383, 0.8571132921402216, 1.0000000000000007, 3.4024065239540466e-05, 1.0, 3.986754260904255e-05, 0.9999999999999994, 0.9999999999999998, 0.9214074518943447, 6.0461164294640764e-06, 1.0, 0.9999999999999997, 0.0007753878779578401, 0.9999999999999993, 0.7338528009263187, 0.9999999999999996, 0.9998877864725706, 0.5415813475444601</t>
         </is>
       </c>
+      <c r="K355" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -16315,6 +17250,9 @@
         <is>
           <t>0.9952701397801798, 1.0482286456587687e-08, 0.00029377477538370116, 0.00020123469753512263, 0.00016507071560716116, 0.00017990717754271497, 0.00021633949689239964, 0.0014231397704283395, 0.9999754554296039, 0.0017462719713887, 1.3088948606503872e-05, 0.0002555341469788457, 0.0004854098613221636, 9.272062561463192e-05, 0.9999684812928478, 0.9999991149184413, 0.41571455174479355, 0.746326266104021, 0.9999242923032633, 0.9998012439028628, 0.9992494405268432, 0.9999939538835695, 1.0, 1.0, 0.9999465126888449, 1.0000000000000002, 1.0, 0.9992246121220432, 0.43061742087628335</t>
         </is>
+      </c>
+      <c r="K356" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="357">
@@ -16350,6 +17288,7 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -16384,6 +17323,7 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -16432,6 +17372,9 @@
           <t>0.0010627951810134944, 0.0032080397254399384, 0.993112484386575, 0.0007475180264288983, 0.9768473329237397, 0.0046865704888829724, 0.21643572257431073, 0.15797562042945423, 0.15387895627562354, 1.0000000000000002, 0.8567996227969332, 1.0000000000000016, 0.7949353764356766, 0.999856825323569, 0.9971579848201868, 0.01429700673269928, 0.03994289435815528, 0.9947709841951301, 0.10117740112736485, 7.940893419061824e-06, 0.004739592986611635, 0.3728272133471886, 0.10994418133286858, 0.6065121781936023, 0.7686769910093971, 0.9925747496879975, 0.9528231915931671, 0.2234250900543962, 1.0, 0.1252607257949974</t>
         </is>
       </c>
+      <c r="K359" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -16480,6 +17423,9 @@
           <t>0.0011771751840847665, 0.004686547354885432, 0.9982241729306485, 0.0009590397620893274, 0.00119443249509149, 0.9901525608567878, 1.0000000000000004, 0.998832494400626, 0.00043144218001075064, 8.698377481125542e-08, 0.9973296608287742, 0.9992984565849354, 0.9942189734595447, 0.9984485055661837, 0.9999999999999994, 0.00032867132911469345, 0.9998344063951028, 3.9532238512128246e-07, 0.9988940908858, 0.9970506771570619, 0.5461767571918522, 0.9079977245400557, 9.838633822603556e-06, 0.8316643419261659, 0.00010078462152126626, 0.0009121433038296329, 0.00030267485460878723, 0.001238370889598801, 0.0004664939518291763, 0.001387665156103776, 0.004084504401307557, 0.0037262173088742838, 0.9999999999999987, 9.43703651288513e-05, 0.9999471965820395, 0.9997683611473265, 2.605768253456346e-06</t>
         </is>
       </c>
+      <c r="K360" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -16528,6 +17474,9 @@
           <t>0.9953134526451358, 0.9996528469796367, 1.0, 0.9999999999999998, 0.9999999999999994, 0.9999999999999997, 0.9999999999999998, 0.9999999999999994, 0.025946050587120698, 1.0000000000000004, 7.480778888654222e-05, 0.009829573040835074, 0.8823256429765083, 0.0014213900571938358, 0.9999999999999998, 0.0017619161166845191, 0.0920022754599442, 0.9999901613661717, 0.16833565807383558, 0.999978508394483, 2.5852673613031683e-05, 0.9982888719942937, 0.9985460498230604, 0.9999999999999992, 0.0012057127123771246, 0.9971274657420108, 0.0001426558622209208, 0.999999999999999, 0.999599364165464, 0.8129749116312396, 6.115441003866129e-05, 0.9999999999999997, 0.8721646368819521, 0.38724079958632956, 0.64295952213097, 1.0000000000000004, 1.0000000000000002, 5.418968571356038e-05, 9.516226716508443e-07, 0.03430634695527076, 2.326675943611421e-05, 0.999997394231759</t>
         </is>
       </c>
+      <c r="K361" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -16576,6 +17525,9 @@
           <t>0.00014689901571051476, 6.729434635798322e-05, 0.5078775651033123, 0.27471469308180296, 0.00010561278290904354, 1.2601794185460792e-07, 0.0007212610513567031, 1.0000000000000004, 0.6889595508629779, 0.3999383730322659, 0.18761108849579616, 3.9007469420505e-05, 0.00019648614538765214, 0.8473758877524038, 0.22829366289224012, 0.014046266283241885, 0.9999972890288708, 0.5769395458905036, 8.13116329034294e-05, 5.178819653796514e-06, 0.0026978734548932307, 0.9724073431609075, 0.5117469220238421, 0.888557517931455, 0.6257841365245773, 0.9975253071636413, 0.9999999999999998, 0.9984884600546369, 0.9997603052167101</t>
         </is>
       </c>
+      <c r="K362" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -16624,6 +17576,9 @@
           <t>0.999835460921611, 0.00035717517642783105, 0.9991607797597576, 0.9841815877543176, 4.8335023804176224e-05, 1.0000000000000007, 0.9996693094238285, 8.533281606900588e-05, 0.9999017188362375, 0.9999857362034454, 0.00011651960551743456, 3.640694006527395e-05, 0.35954328195681423, 1.0000000000000009, 1.0000000000000002, 0.9999999999999993, 0.999874750327387, 0.6318005115079804, 0.7946622038356862, 0.99990072654741, 1.0000000000000004, 0.9999999999999991, 0.02447450835285807, 7.720844187565924e-05, 0.0019439631308594773, 0.00024609212526653483, 0.00016002190259596538, 6.10607122483816e-05, 0.0016587541372693137, 0.002707052738579298, 3.432156306473116e-05, 0.0012836693364510138, 8.428373782732293e-05, 0.2795902990702942, 0.001072610274355261</t>
         </is>
       </c>
+      <c r="K363" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -16672,6 +17627,9 @@
           <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
+      <c r="K364" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -16720,6 +17678,9 @@
           <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
+      <c r="K365" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -16768,6 +17729,9 @@
           <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
+      <c r="K366" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -16816,6 +17780,9 @@
           <t>0.014696611122848353, 0.005030362273846488, 0.0028318223805199327, 0.002684398779517433, 0.994760884632867, 0.007026289953628835, 0.9999999947898024, 0.004493804394021167, 0.017620070334289684, 0.006738376431197547, 0.00018522633118634943, 0.9971116248390315, 0.01618011059289278, 0.022306701564252084, 9.439148932459096e-05, 0.9874644890510079, 0.0064239404802395985, 1.0000000000000007, 0.0024603391880098323, 0.9852659489062447, 0.9434900352039545, 0.9877417101648296, 0.9861028142876566, 0.9999999999999997, 0.9948239859199954, 0.8380022117928736, 0.004561300071685791, 0.045786739079560816, 0.002504211647361193, 0.9993926450405061, 0.9735873844760757, 0.9850083083226198, 0.7701520394635946, 0.9980947826892871, 0.9086246526957307, 0.024036287718993743, 0.010577661024551032, 0.03258096695276012, 0.00017404507978708433, 0.007128817371318812</t>
         </is>
       </c>
+      <c r="K367" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -16864,6 +17831,9 @@
           <t>0.9999999999999998, 1.0000000000000007, 0.2152003796668561, 0.9545778515330581, 1.0, 0.9999999999999998, 0.9932616235687987, 0.03777243320466729, 1.0000000000000009, 0.8677574319302781, 0.033560411657890386, 1.0000000000000004, 0.5092270256157329, 0.0042002882635206115, 1.0000000000000002, 0.9999738944280142, 1.0, 1.0000000000000004, 0.9999056085106456, 1.0000000000000002, 0.03252516088801953, 0.9319351520637771, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.006806481329788015, 0.9997867169868059, 0.2704858343756534, 0.6519466849733234, 0.03539559412975538, 0.16199778820715693, 0.9954386999283149, 0.003924654573319967, 0.0004052623256769898, 0.09137534730426908, 0.9677157491620743, 0.04267586814465963</t>
         </is>
       </c>
+      <c r="K368" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -16912,6 +17882,9 @@
           <t>0.004711937692338354, 0.4887322319766512, 0.5535479150538906, 0.001588352692283609, 0.4018496867158882, 0.009068279544011527, 0.18808779766192243, 1.0000000000000009, 0.04187921326680131, 0.9999999999999997, 0.002842015179801912, 0.9857029932673116, 0.5707212162892621, 0.01268969321880255, 1.2395538817160178e-05, 0.8981779823454001, 1.0000000000000002, 0.9939000792143817, 1.150443299756236e-07, 0.6271727866528022, 0.8900558186671315, 0.3934878218063907, 0.23132300899060138, 0.00475531353127123, 1.0000000000000002, 0.2625112829603036, 0.8747392742050064</t>
         </is>
       </c>
+      <c r="K369" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -16960,6 +17933,9 @@
           <t>1.3665280109173466e-05, 0.0008407266239658177, 0.02459553982269143, 6.15095392641679e-05, 1.0000000000000004, 1.0000000000000004, 0.9683791755711295, 0.7963967968732273, 6.477941319269415e-06, 0.053393686509186945, 1.0000000000000004, 0.8952271556865586, 0.9999772994042383, 0.979183543644267, 0.9998240965522985, 0.003380754294167634, 0.9933978129215112, 0.9997593509575978, 3.3962346957954694e-05, 0.6321709047320416, 0.9839098346308706, 0.9965923606243321, 0.2684011219594302, 0.3698714763110789, 0.9757785131907507, 0.004487644352867498, 0.9972969991686669, 0.0004804688356651006, 0.018349581497950226, 0.023104188687024983</t>
         </is>
       </c>
+      <c r="K370" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -17008,6 +17984,9 @@
           <t>0.0016565253992983978, 0.0035632354357040753, 0.9986513174476327, 0.0006308691945812584, 0.9763088765966937, 0.004798858744487422, 0.12343139755395241, 0.1627374194550527, 0.0008002088172375917, 1.0000000000000002, 0.8569015778182761, 1.0000000000000016, 0.5778468166887192, 1.0000000000000004, 0.9973021300700516, 2.7113286011428242e-06, 0.08012801860035342, 0.9956581102412908, 0.027548211884426455, 1.0160503430775656e-06, 0.0009837054126598263, 0.3742147940999229, 0.1114390252180282, 0.48825062926248963, 0.7718717014444622, 0.9856324081364466, 0.9994621878197196, 0.45196540342104524, 1.0, 0.15261824532170007</t>
         </is>
       </c>
+      <c r="K371" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -17056,6 +18035,9 @@
           <t>0.2828541052929263, 7.26809369038387e-05, 0.00251709793647846, 0.9999999999999998, 0.9998830923873998, 0.20528727878842112, 0.9896689347870334, 1.0000000000000007, 0.9999998737185156, 0.8765686024460525, 0.4373241998664171, 0.9991997911827359, 0.14309842218174312, 0.2345423037864698, 0.9197663703481659, 0.0003173545487410125, 0.36819970530825, 0.015813000450319872, 0.0001252493489749183, 0.6265167411404956, 0.9999144066409377, 0.999963651347493</t>
         </is>
       </c>
+      <c r="K372" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -17104,6 +18086,9 @@
           <t>0.0067887205079617055, 0.0015391255728193192, 0.0020552173694893166, 0.002680472593695675, 0.9947700098967562, 0.0013036741774581574, 1.0000000000000002, 0.0005993884095856405, 0.01931626062404116, 2.6182091213769463e-06, 0.9960514126878179, 0.02531315565161337, 0.005634643724556976, 6.991874059631552e-06, 0.9936781052052928, 0.0011873331042474493, 1.0000000000000007, 0.0044628337844955885, 0.981938027986616, 0.9762498585231889, 0.9879093703428604, 2.0664788211457506e-05, 0.9858031592111738, 0.9999999999999997, 0.9976728213953011, 0.8314362094571293, 0.00024251822271030292, 0.004397440709882871, 0.991497511432827, 0.9812135951851498, 0.9918698878032208, 0.5467439193823153, 0.9985930776454361, 0.9064150840599814, 0.036445388889006856, 0.011963736718719427, 0.03215493905107363, 0.004475913618253192, 0.006397957003133912</t>
         </is>
       </c>
+      <c r="K373" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -17152,6 +18137,9 @@
           <t>0.9999775267963873, 1.0000000000000007, 9.55664440407178e-07, 0.8045967547440328, 1.0, 0.9999999999999998, 0.9999973817908929, 0.019749243196765794, 0.9891519237905889, 0.8859566876617134, 0.003082019355126612, 1.0000000000000004, 0.5105950861278049, 0.004161178477387086, 1.0000000000000002, 0.9782634868157625, 0.9995919690720226, 1.0000000000000004, 0.9999930081259307, 1.0000000000000002, 7.44717627738628e-05, 0.025879207965284697, 0.8403073967360203, 1.0, 0.9999999999999996, 1.0000000000000004, 0.9999999999999998, 1.0000000000000004, 0.01827835898736466, 0.999206580894849, 0.03380514233231011, 0.1685637905428793, 0.999757481777288, 0.0011246725436768823, 3.167127921880509e-05, 0.09358491594001864, 0.9631774290340557, 2.221911384119028e-05</t>
         </is>
       </c>
+      <c r="K374" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -17200,6 +18188,9 @@
           <t>8.131151498200891e-05, 0.681097803525554, 0.5013290407176527, 0.00014880324660171364, 1.262814850403896e-07, 0.39993838067849724, 2.1792518141814564e-06, 0.18761087952481248, 0.9984885515205657, 0.010751439978086067, 0.9999999999999997, 0.0026978699299492906, 0.9999972886713988, 0.57694024336863, 0.014046258597891277, 0.00010561105151224253, 5.134783543136277e-06, 0.9719253971701786, 0.9975019472717495, 0.9814152136362709, 6.759349948789213e-08, 0.6257852059000748, 0.8885609747819786, 0.5117493707375023, 0.22812829855554553, 1.0000000000000002, 0.0007063584443686103, 0.26352978056923343, 0.847381754678294</t>
         </is>
       </c>
+      <c r="K375" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -17248,6 +18239,9 @@
           <t>8.423374311592529e-05, 0.00165875609493979, 0.024194917817344657, 0.0004223440120539605, 1.0000000000000004, 1.0000000000000004, 0.9891925664292057, 0.00011690761259118062, 0.794712721211581, 4.999566107763076e-05, 0.06729587734991234, 1.0000000000000004, 0.9580983620613143, 0.9999999999999998, 0.9620559925452943, 0.9999999999999992, 0.0038010496594105122, 0.0034430248701252768, 1.0000000000000002, 0.9998976502178915, 0.0005822471271876824, 0.6318002946917548, 0.9841869995496813, 0.9998747506510213, 0.2755325802534351, 0.3727769004151381, 0.9777668368562132, 7.64377439686442e-06, 0.005047772746822691, 0.997585548744643, 8.559335906251925e-05, 0.005436440140424442, 0.022254206261718857, 3.6348652515142584e-05</t>
         </is>
       </c>
+      <c r="K376" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -17296,6 +18290,9 @@
           <t>0.9740539494128935, 0.9986423019723067, 0.9987191162893216, 1.7866102372492876e-05, 0.11767435702348632, 8.654212847221973e-05, 0.49198152774429815, 0.7235449484963689, 2.149160546720488e-05, 0.0007207957695661198, 0.0008201125552428128, 0.0001135679180764878, 0.0013956970390052482, 0.9999999999999992, 1.0000000000000002, 0.18702508836876325, 1.0000000000000007, 0.1278353631180432, 0.6127592004138895, 0.3568307237183291, 0.9999458103142709, 1.0, 1.0000000000000002, 0.9859537337167655, 0.4230604541094936, 0.9999186883670997, 0.9999990483773302, 1.0000000000000002, 0.9997504117071532, 2.890145993456415e-05, 1.0000000000000007, 0.0024746928363626086, 0.0015115399453561884, 7.30028101877567e-05</t>
         </is>
       </c>
+      <c r="K377" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -17344,6 +18341,9 @@
           <t>0.8568631063075521, 0.9981531033098524, 0.001207744379296519, 0.0055520644121212215, 0.9993408838246984, 0.9999999999999999, 6.720222964651735e-06, 0.08012933222609832, 0.45313309757349707, 0.9996795475250807, 1.0000000000000007, 0.00012618928012613948, 4.421761081264885e-05, 0.0009063965235585852, 1.0000000000000002, 0.16273743546227706, 0.5778463464720345, 0.12402330479057468, 1.0000000000000007, 2.481828443523267e-05, 0.15262411224759076, 0.7717063371077677, 2.710971127998447e-06, 0.9997854839969402, 0.9973021265451082, 0.027563755379156337, 0.4882530779761495, 0.11144248206855108, 0.3742158634754194, 0.9996842710453443</t>
         </is>
       </c>
+      <c r="K378" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -17391,6 +18391,9 @@
         <is>
           <t>0.14313689369246524, 0.015818412245682437, 0.9941883369427863, 0.00033069057617234033, 0.9197650549910243, 0.9999146671839301, 0.9999999999999999, 1.0000000000000009, 0.9998834803944731, 0.9999635930599434, 0.9999998739820589, 0.63973545699183, 0.00012524967261000257, 0.36819948849202416, 0.20533779616431622, 0.9990936034764155, 0.2861213464158157, 0.437324191505424, 0.2345425650321718, 0.8759766952094306, 5.805340835454201e-05, 7.142780027805115e-05</t>
         </is>
+      </c>
+      <c r="K379" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="380">
@@ -17426,6 +18429,7 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -17456,6 +18460,7 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -17486,6 +18491,7 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -17516,6 +18522,7 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -17546,6 +18553,7 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -17576,6 +18584,7 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -17606,6 +18615,7 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -17636,6 +18646,7 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -17666,6 +18677,7 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -17696,6 +18708,7 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -17726,6 +18739,7 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -17756,6 +18770,7 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -17802,6 +18817,9 @@
           <t>0.9780559068559642, 0.7770836074795211, 0.9178572457810183, 5.4630806256108955e-22, 1.2314385530258742e-07, 6.362508825481e-07, 0.7702502043815671, 0.8013039114234937, 0.5526661874109627, 0.9810920658405352, 0.8731727070378424, 0.8669495794597193, 0.00019743959249441737, 2.283158977882209e-06, 0.33647925665142575, 0.6628183817181398, 0.9999925924988091, 0.5625797938385011, 0.520278899085319, 0.8869153011655176</t>
         </is>
       </c>
+      <c r="K392" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -17848,6 +18866,9 @@
           <t>0.24521027938565934, 3.3477238458051567e-09, 0.2612134052017336, 7.746463809050289e-06, 0.7538335573181438, 0.0, 0.30432437981727706, 0.5188865077175276, 0.8981365548977667, 0.8787297137468583, 0.0042666379776787385, 0.348503817337518, 0.352567379008241, 0.5827396543052646, 2.3038996321835619e-07, 0.429592282036733, 0.26182139057130527, 0.9886555965530444, 0.8683882272927937, 0.9591117564903244</t>
         </is>
       </c>
+      <c r="K393" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -17894,6 +18915,9 @@
           <t>0.0502819701239947, 0.23190249056731935, 6.554251165482017e-08, 3.3929097664994244e-06, 0.9569261158088384, 0.6514961826624829, 0.9999999999999997, 0.39286513010780927, 0.5557336704281627, 0.10507286383995901</t>
         </is>
       </c>
+      <c r="K394" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17940,6 +18964,9 @@
           <t>0.00011349652241317276, 0.8792924427190709, 0.0016315230077775186, 0.9981451221208688, 0.0005550192306712537, 0.05088688958678776, 0.0007492917304567686, 0.8865733261523986, 0.0918215473467712, 0.9999614695284681, 0.8018130037986373, 0.000110417455630574, 0.521389418659589, 0.113983675371878, 3.728200922009275e-05, 0.003909456965862781, 3.2754209399678155e-08, 1.234622689024034e-05, 0.004125414500191761, 0.0002935492024133793, 0.998813601025533</t>
         </is>
       </c>
+      <c r="K395" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17986,6 +19013,9 @@
           <t>0.9972611340235377, 0.9998865034774218, 0.12070382168605569, 0.0003100198887649561, 4.970370876157558e-05, 0.9992507082695424, 4.293772965416458e-07, 1.0000000000000007, 3.8530471531999704e-05, 0.9997965239557738, 0.0, 1.8348477040673664e-05, 0.003785288359616831, 0.9824605852912667, 8.377201524089395e-05, 0.000139297235950782, 4.337612401414285e-05, 0.0011863989744723567</t>
         </is>
       </c>
+      <c r="K396" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -18032,6 +19062,9 @@
           <t>7.236544247995435e-06, 0.12174648649118253, 0.0003878993669039387, 0.0, 0.0, 0.5636714893235503, 0.006559079846645152, 0.9044566883186003, 2.7990164691175192e-05, 5.42239881847244e-05, 8.921190047391095e-07, 0.9999876537731077, 0.00034744692728121043, 1.0000000000000016, 0.0134140002085417, 4.4488523865131365e-06, 1.0, 0.9079386216930775, 0.6743983469946722, 0.9997278804026153, 0.11921731274302477, 0.9982869548624264, 0.9999517805989615</t>
         </is>
       </c>
+      <c r="K397" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -18078,6 +19111,9 @@
           <t>0.17725223294843345, 0.0014172748034957667, 0.1638848030549237, 0.00027246665598662127, 0.18756899772314584, 1.6756904405042444e-05, 0.09163385471569101, 0.9999720098353108, 0.9999457760117907, 0.09206099306563245, 0.3256016530053279, 1.000000000000001, 0.8807826872569751, 0.0014194959351889738</t>
         </is>
       </c>
+      <c r="K398" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -18124,6 +19160,9 @@
           <t>0.1179034518854923, 0.6387621217630376, 0.01965478759810082, 0.8782453491536567, 0.07211330850447445, 0.617673291900754, 0.03289883057031926, 0.0020821797699839668, 0.7024233811055804, 1.0, 0.9999999999999998, 0.7425631958829443, 0.43632851067645123, 0.7054106677630186, 0.0005207032000320474, 0.1131186142155708, 0.9934409201533567, 0.0018716405739860485, 0.0, 3.852412887486132e-07, 0.00025876347640056696, 0.0, 0.25453043472569953</t>
         </is>
       </c>
+      <c r="K399" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -18170,6 +19209,9 @@
           <t>0.00273886597646494, 0.4694410172069217, 0.9999795719273364, 8.164355150424025e-06, 0.38232670809924507, 0.0, 0.00013257335961967918, 2.0160432077912508e-05, 0.2945893322369863, 0.9994792967999997, 0.9981274673069724, 0.9958672647130937, 0.0, 0.9999117791323743, 0.49961189179604504, 0.25543739153179024, 1.3356120980360038e-05, 4.843277017515404e-06</t>
         </is>
       </c>
+      <c r="K400" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -18216,6 +19258,9 @@
           <t>0.3611371243913363, 0.5109041951949169, 2.0428072660050975e-05, 0.9996449815548275, 0.9278866914955118, 0.9671011694296805, 7.285285079242914e-05, 0.0, 2.1111755694385585e-06, 0.5002488109679948, 0.74456260846821, 0.9999099334348467</t>
         </is>
       </c>
+      <c r="K401" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -18262,6 +19307,9 @@
           <t>3.7355948641099807e-06, 1.7804492390722232e-06, 5.018977974721475e-07, 0.00010075384561549065, 4.49985563746508e-05, 0.9232814752101063, 1.0000000000000002, 0.9470309306432275, 0.0, 0.8939308481813236, 0.1169546405246056, 0.0005295605094567181, 0.9999999999999999, 4.530573515570147e-08, 0.9999999999999994, 0.704460225084521, 1.0000000000000004, 5.754766171299071e-11, 4.102294321050164e-06, 9.006656516124007e-05</t>
         </is>
       </c>
+      <c r="K402" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -18308,6 +19356,9 @@
           <t>0.00033353451278614235, 0.1996364450723334, 0.025803357959531422, 0.00017326066255315706, 1.1727616219096056e-08, 1.0000000000000013, 0.6091684606180532, 1.5119714265847615e-05, 0.06154308545830209, 0.9999999999999978, 0.5760611157668808, 0.7080293747201478, 0.00017009004492637503, 0.9995364909870452, 0.027242036211990665, 0.0006812070372065298</t>
         </is>
       </c>
+      <c r="K403" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -18354,6 +19405,9 @@
           <t>0.9995623908258221, 0.797978336240241, 2.20024672957866e-06, 0.999994954545299, 0.9991535478898051, 3.04537334513603e-05, 0.00018059207293494184, 0.00012109333083255393, 0.15333436058614947, 0.0006188929528088661, 8.37285640761524e-27, 0.9986992474666987, 0.11471669363948189, 0.13390562711714504, 1.0000000000000002, 0.9993187929627896</t>
         </is>
       </c>
+      <c r="K404" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -18400,6 +19454,9 @@
           <t>0.00010407466139064442, 0.0023852186874310814, 1.000000000000005, 0.6623608924443993, 5.045454701200519e-06, 0.9909119745234289, 0.0006731914476346631, 0.9999695462665481, 0.9998194079270666, 0.9998788949415485, 0.8466656394138499, 0.30608858831330393, 0.1260871722976367, 0.0010369265659974166, 1.7188817054787498e-06, 5.917096904293654e-06, 0.9384569145416966, 0.0013007525333065808, 0.3092221905936337, 4.619891121814991e-06, 1.128021155127117e-07, 9.944143761835305e-06, 0.8821779235805244, 1.7446750383552326e-06, 6.827326180315658e-07, 6.830887677148375e-07, 0.9999974547339822, 0.1580649981627065, 0.9998292126441309, 0.00045940671863276006, 0.9727579637880105</t>
         </is>
       </c>
+      <c r="K405" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -18446,6 +19503,9 @@
           <t>1.0000000000000002, 1.0000000000000004, 1.0000000000000004, 0.46437118122112175, 0.03177790252993006, 1.0000000000000009, 0.7518970774447352, 0.08209363315667396, 0.9999551495508604, 0.007474624811244491, 0.0965884964957949, 6.480676319751685e-05, 0.017684204490174733, 0.5390113587576549, 0.3264962194641466</t>
         </is>
       </c>
+      <c r="K406" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -18492,6 +19552,9 @@
           <t>4.155651760364181e-07, 0.9756357325060139, 0.7029361781199882, 0.011078894123691983, 0.9179063668433269, 0.9922641740204475, 0.0008597398440136311, 9.847547498188845e-06, 0.9999942305699692, 0.9999999999999993, 0.702435212387089, 0.14850648089063814, 1.0000000000000004, 0.0003876839890965538, 0.673503780535848, 1.0900159248253424e-06</t>
         </is>
       </c>
+      <c r="K407" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -18538,6 +19601,9 @@
           <t>0.999998499378834, 6.169030906028319e-07, 2.700830905881833e-07, 4.336987271425662e-07, 0.8739004222581556, 0.0001905119027233178, 1.5987423410659642e-07, 3.451101020410975e-07, 0.5356288187788724, 0.024364267493986777, 0.26528591935008244, 0.23702402843158074, 4.485044914560673e-05, 0.0002612011682998283, 1.0000000000000013, 0.9034115035042094, 0.9999351932367941, 0.9814461115220456, 0.9999884077774589, 2.7644985821968104e-07, 1.2051781957247098e-08, 5.769430030316401e-06, 0.2975647876129079, 0.3124821603517113, 0.9996123160109058, 0.9999987079836017, 0.999992741554536, 0.9999991555480063, 0.9999986697464894, 2.5452660187421014e-06, 6.972533943831184e-07, 4.5667544082283884e-07</t>
         </is>
       </c>
+      <c r="K408" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -18584,6 +19650,9 @@
           <t>6.101021175696617e-08, 0.4775048649755406, 0.9999999999999991, 0.9999950349987785, 0.8819880982234009, 0.6742375366027425, 0.005443794686462682, 0.7894339566936567, 0.48307468660050434, 0.2898793639420308, 0.1912309953454594, 0.9827007309419336, 0.920791927955111, 1.430448623131718e-07, 0.15251371713858755, 0.6037071202113345</t>
         </is>
       </c>
+      <c r="K409" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -18628,6 +19697,9 @@
           <t>0.00021687912206292182, 4.795566568912738e-06, 0.91337583173091, 7.869788350860788e-05, 8.575411004276487e-06, 0.0, 0.00011104933106020718, 0.00023358880549423225, 0.000130920696640643, 5.572428515925048e-05, 0.0002877434740556635, 0.00032547667645422174, 1.0646074572465026e-08, 0.9999803815759679, 0.9996377187916237, 0.8377655689208792, 0.5469362875402461, 0.9999882774060297, 0.00037404080411872394, 0.00013228831989045046, 4.7992715273655454e-05, 6.40030797434501e-05, 0.9997041423754807, 0.9995899084161568, 1.5936450007206227e-05</t>
         </is>
       </c>
+      <c r="K410" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -18672,6 +19744,9 @@
           <t>0.9999934043394028, 0.2077518159387604, 0.5506148639482364, 6.65721939354715e-15, 8.29998501397703e-16, 0.9999999999999909, 0.8757503374956068, 0.0435199543451125, 0.9999960662324501</t>
         </is>
       </c>
+      <c r="K411" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -18716,6 +19791,9 @@
           <t>0.02735420056403185, 5.896816205564579e-16, 1.2022953435894243e-16, 7.102582202384759e-17, 1.423855407016817e-14, 2.3682829961496105e-14, 8.289827068132526e-15, 1.7794691057695125e-14, 2.8859090101578276e-14, 7.783139228866106e-16, 0.9957295719452247, 0.6512688224050756, 0.5620257658457124, 6.165807737397557e-15, 0.9999999999999963, 0.10516912065069275, 8.702108012907438e-16</t>
         </is>
       </c>
+      <c r="K412" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -18760,6 +19838,9 @@
           <t>7.151572689721793e-17, 0.24780657736209957, 0.9372476197958335, 0.00043329269307350164, 2.4456032724011763e-16, 0.939866763511668, 0.012668213834240378, 0.14775604923976357, 0.9985815486102065, 0.6735559103906986</t>
         </is>
       </c>
+      <c r="K413" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -18804,6 +19885,9 @@
           <t>0.0, 0.0, 1.2795810592386652e-15, 0.9999999999999921, 0.9581496514240009, 0.0884564185933725, 7.665344748149544e-15, 0.9999999999999987, 0.0, 2.671852225627382e-16, 0.4270319149859002, 0.999999999999998, 0.9999999999999893, 0.9999999999999748, 0.009951352028892874, 0.999999999999996, 0.9999999999999988, 1.6650566007891458e-15, 0.26632701042253276, 1.0</t>
         </is>
       </c>
+      <c r="K414" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -18848,6 +19932,9 @@
           <t>0.9999999999999991, 0.041850348576002686, 0.9115435814066258, 0.19973053468238625, 4.0776414360049437e-20</t>
         </is>
       </c>
+      <c r="K415" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -18892,6 +19979,9 @@
           <t>3.9124821325475946e-16, 0.9999999999999982, 0.9999999999999992, 0.9999999999999992, 1.5564661623293697e-09, 8.216396424676746e-21, 6.700425870111652e-16, 0.9999999999999967, 1.0000000000000027</t>
         </is>
       </c>
+      <c r="K416" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -18938,6 +20028,9 @@
           <t>0.8770884818076587, 9.685985293767259e-11, 0.16362750123605635, 0.9999999999999994, 1.0000000000000002, 0.7071166661850978, 0.7091225308797001, 0.9999999999999997, 0.9396679558276386, 0.9800644800764614</t>
         </is>
       </c>
+      <c r="K417" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -18988,6 +20081,9 @@
           <t>6.273563590008479e-06, 0.00013408113431040753, 0.36071911576051324, 0.9196108057110176, 0.36213138005037676</t>
         </is>
       </c>
+      <c r="K418" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -19036,6 +20132,9 @@
           <t>5.72618510137487e-06, 2.9998289777129936e-09, 6.118795847230468e-06, 4.516742228355124e-06, 0.621984721382414, 0.004033898930722178, 0.9999999988434966, 0.0025668870278891245, 0.6771630101535648, 1.0000000000000002, 0.31068870746170235, 0.999999999880377, 0.37442865522630864, 0.010846051452588332, 0.8824504257527582, 1.5833772902510844e-08, 3.909178948461266e-08</t>
         </is>
       </c>
+      <c r="K419" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -19084,6 +20183,9 @@
           <t>0.9999999851929415, 0.999999999734329, 2.0020679562040147e-08, 0.9999999955337986, 9.479593363031937e-09, 2.4168576442852816e-09, 1.0920271939192761e-09, 0.7629401448646349, 0.9999999757595706, 0.9999999907101639, 0.9999999593870482, 1.8772965770371675e-09, 1.4968241550360494e-08, 0.9999999435932648, 0.9999999967708753, 5.612710357087217e-08, 0.2504521088155292, 2.0236280252869924e-08</t>
         </is>
       </c>
+      <c r="K420" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -19132,6 +20234,9 @@
           <t>5.463394586603951e-10, 1.0, 1.0, 1.3596905461070904e-08, 0.9999999999999997, 0.9999999707548013, 1.931817428544355e-08, 0.0007449218010132886, 2.8036704935786853e-09, 0.023945270036258036, 0.7911138646082351, 0.9999999992109085, 6.703176394135223e-11, 2.9712909660319662e-08, 0.23705985513543446, 9.81473394316282e-09, 0.9999999999999994, 0.9999999289390616, 1.0000000000000007, 0.9999999559563928, 3.635810083915448e-09, 3.2290674274488673e-09, 0.9999999424023145, 0.7495478327568861, 0.9999999797637382</t>
         </is>
       </c>
+      <c r="K421" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -19180,6 +20285,9 @@
           <t>1.0342394693938187e-09, 0.9740604781862794, 0.999999924618484, 0.999999962571862, 3.129875114545027e-08, 7.726657154221076e-09, 2.4819883029106576e-08, 5.057561993858848e-09, 0.9999999609641642, 0.1961503363839361, 0.003001980879070146, 0.9957606543318801, 1.3911329183156666e-08, 0.32520076480007715, 0.9941657760667857, 0.9929711420032913, 1.8967525858960477e-08, 3.662281707748554e-08, 1.3204677796366271e-08, 0.9999999847318729, 4.184469937840011e-08</t>
         </is>
       </c>
+      <c r="K422" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -19228,6 +20336,9 @@
           <t>1.5282781074562813e-08, 0.9999999796475257, 0.9992550536577351, 9.383399891228525e-08, 0.9999999962120065, 4.435992149747591e-08, 0.999999993763927, 0.9999999284390264, 0.9999999999953268, 0.7320215308206148, 0.10257658242240858, 5.845616745598939e-09, 5.649840765784507e-10, 0.3483217918040256, 0.007928724735848163, 2.3177433234305833e-09, 0.9999999860886701, 1.0000000000000004, 2.0042279279397118e-09, 6.348596709559675e-10, 9.496654083078392e-10, 7.998638763941061e-08, 0.00583421519120463, 6.001064049507356e-08, 6.829560202569462e-09</t>
         </is>
       </c>
+      <c r="K423" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -19276,6 +20387,9 @@
           <t>4.635506977975504e-09, 0.00578964373689796, 0.2815817649830113, 0.9999999999999996, 0.9999999794774398, 9.29008319942337e-09, 0.21711429655501008, 0.5571495386826577, 1.5781095309390754e-11, 0.6787310567333892, 0.9999999986787449, 0.7495510323081138, 0.9999999961749277, 2.6566782677668606e-08, 0.9999999887874695, 0.9999999636541613, 0.3337903827959142, 0.5707453710233967, 0.16436275168662193, 1.4691757151477331e-08, 3.341804170024827e-09</t>
         </is>
       </c>
+      <c r="K424" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -19324,6 +20438,9 @@
           <t>9.84311982464558e-10, 3.102161740370261e-08, 4.078214744098905e-11, 4.026222180097482e-08, 4.67410897918868e-12, 0.9999999922734462, 1.0, 0.016288171362965537, 0.897423416718072, 3.6825234970510173e-09, 1.0693062348132424e-08, 0.004239344996607891, 0.999999920013587, 0.007028851747739098, 0.9999999399893614, 0.9999999666036592, 1.1212604291156215e-08, 1.7378417347978326e-08, 0.9999999853081035, 0.6657904680005654, 0.9999999867951449</t>
         </is>
       </c>
+      <c r="K425" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -19372,6 +20489,9 @@
           <t>0.9481189271810677, 1.251088697352282e-08, 1.3836292887666777e-09, 0.9999999714580048, 0.34975442899832826, 0.1738771111989492, 0.6075270961801343, 0.9999999987045439, 0.30829806762348827, 0.4428504467701779, 0.9999999999999998, 1.2273215409587772e-08, 0.999999992251425, 0.9999999932633977, 0.14884308950862074, 0.9999999785778206, 1.6162030978144286e-09, 1.3709746373003378e-08, 3.3445924766713944e-08, 1.9963379025163132e-08, 2.942738053435113e-08, 0.9999999587289953, 2.4356909634574864e-09, 2.611561293895982e-10</t>
         </is>
       </c>
+      <c r="K426" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -19420,6 +20540,9 @@
           <t>0.9999999629886981, 0.9999999939721289, 0.9999999979910491, 0.0063601237733431955, 0.2516902872064637, 8.595305316701355e-10, 1.6839971114442424e-08, 0.9999999657797531, 0.7828856921869475, 3.5776585751517184e-08, 1.7820233074556699e-09, 9.07010962996855e-09, 4.573042997887569e-11, 9.907684891925356e-10, 0.9999999999999999, 1.0000000000000002, 0.9999999797641506, 0.009588685851157623, 1.7553728374431327e-08, 0.3342095286577153</t>
         </is>
       </c>
+      <c r="K427" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -19468,6 +20591,9 @@
           <t>0.00482994528834107, 0.9896902248197205, 0.0003317987482156782, 0.9967240556619928, 0.9704372706776815, 1.0, 0.9965968293469641, 0.9985023256711566, 0.0009122421313762401, 0.0006216375354479558, 0.0003879633448013951, 0.005342602873762529, 0.0003939304144977711, 9.203080155161241e-05, 4.4971205933306534e-05, 2.9466288101344124e-09, 1.0, 0.0014121076716940462, 0.005622989544440591, 0.003999604017672742, 0.9998533263084042, 1.0, 0.9950412347871563, 0.007578715306200876, 0.9992756411172473, 1.0000000000000002, 0.9761416415088554, 0.007693379713690099, 0.9999999999999992, 0.0017902223565666564, 0.9999999981477893, 0.9998838561821757, 0.9999999999999998, 0.957089396224758, 0.0003574809279667802, 3.1114583090596756e-05, 0.9999990845772783, 0.9871132251363666, 0.0008585186955146325, 1.0, 0.9999999999999998, 5.8246692190117626e-05, 7.45825105849858e-05, 0.0003364221486520931, 0.9942321155130814</t>
         </is>
       </c>
+      <c r="K428" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -19516,6 +20642,9 @@
           <t>0.0007106919305482663, 0.0066354469096307715, 0.0007731489784912269, 0.0017698388418882786, 0.006351544835263904, 3.781464026743544e-06, 0.9999926187063511, 0.9999999999999997, 0.9999777223777817, 0.0022813703380369986, 0.06445242093854109, 0.10908505884783891, 0.0015308021077556858, 0.0015131678097400434, 0.998753056879275, 0.9981405042313849, 0.9896379367571575, 0.9885826377049288, 0.9976564193017178, 0.009311414379136665, 0.9999999999999999, 0.0002776877580185878, 1.0, 0.9992797347357983, 0.9378583727039431, 0.0008152499345689397, 1.0000000000000009, 0.9815310771471971, 0.9999999999999999, 0.9997444658531486, 0.271762522068388, 0.9995145901387102, 0.9995524972170974, 0.00010484451724244086, 3.151870708023897e-05, 8.850815592589527e-07, 0.25666798283881254, 7.570769665039594e-05, 1.0</t>
         </is>
       </c>
+      <c r="K429" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -19564,6 +20693,9 @@
           <t>0.9952880623076337, 0.4378001181667679, 0.7847996203331418, 0.04542214846687625, 1.0000000000000002, 0.1320573417385416, 0.9850241105829701, 0.06462175558780911, 0.49077297438426537, 0.10091813795598943, 0.9999999999999999, 2.6105571985622473e-05, 0.4292787837107661, 0.9873103067811967, 0.00022522891163629573, 0.9529190044600623, 0.9674748391119764, 0.0020295329905437543, 0.06806484793622208, 3.7036027812494794e-09, 0.9952446864687264, 1.0000000000000002, 0.984850702384667, 0.9999999999999991, 0.7295141656242969, 0.348053315026737, 4.552120587293933e-07, 0.7335640624663884</t>
         </is>
       </c>
+      <c r="K430" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -19612,6 +20744,9 @@
           <t>0.48476821111441337, 0.004975039697081066, 0.003367581038624064, 0.9999999999999998, 0.9999999999999996, 0.20360320312677593, 0.9774894338168824, 1.0000000000000007, 1.0, 0.7835642774256821, 0.4401746928546635, 0.8461210437243714, 0.14320037720307371, 0.016976825902408243, 0.00014317467643169216, 0.9600571056418401, 0.0037130378989467033, 0.0066021870784924355, 0.36782909526796337, 0.016090165369109077, 0.003407639375664441, 0.6301285236889191, 0.9995195311643544, 0.9999999999999999</t>
         </is>
       </c>
+      <c r="K431" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -19660,6 +20795,9 @@
           <t>0.9999186884850202, 2.2473203560634074e-05, 0.4900855538582323, 0.9999990443355612, 0.19540324525603373, 1.0000000000000002, 0.11404331233824945, 0.9896687407082148, 0.010981204183544981, 0.48940491387219304, 0.0015114484794282298, 0.0019186786490142636, 0.9999999999999999, 1.1224898146691754e-05, 0.42305975663136725, 0.9859537414021163, 2.8881716678507206e-05, 0.002498052728254619, 0.9940413404169107, 0.974120792034788, 7.172013765586793e-05, 0.1596926032639938, 9.48769829858085e-05, 1.0000000000000007, 1.0000000000000002, 2.4085416653508987e-05, 0.9926043706177489, 0.9999999999999991, 1.0, 1.0, 0.00209315834127926, 0.6999349875247948</t>
         </is>
       </c>
+      <c r="K432" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -19708,6 +20846,9 @@
           <t>9.666433859826426e-09, 2.9568769163473905e-08, 0.9999820832863671, 0.9864732080552313, 0.9999999999999996, 0.8610032008890091, 1.0000000000000002, 0.9999999999999998, 0.9862173040109711, 0.9863574362626137, 0.801110099741485, 1.0000000000000002, 0.9999999999999997, 1.0000000000000002, 0.16665712497200783, 5.898537131440005e-06, 0.5801636941237702, 0.9999999999999994, 0.9999745123621877, 0.05158677853637685, 0.5374008645960721, 0.002218908367690689, 0.9999999999999998, 9.935909272844027e-10, 6.197279111783575e-08, 7.17186489747238e-05, 3.3783724815013617e-05, 1.0, 1.0</t>
         </is>
       </c>
+      <c r="K433" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -19741,9 +20882,24 @@
       <c r="G434" t="n">
         <v>2021</v>
       </c>
-      <c r="H434" t="inlineStr"/>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>st_louis_park_wards_2021.csv</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>27_053_122600, 27_053_022102, 27_053_022700, 27_053_022801, 27_053_022802, 27_053_022101, 27_053_022000, 27_053_022400</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>0.1640595822070428, 4.58050746691881e-07, 0.9994842366789193, 0.9994982538346432, 0.9952659374650945, 0.0007089358123650101, 0.0014538024958782878, 0.6216140248070953</t>
+        </is>
+      </c>
+      <c r="K434" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -19792,6 +20948,9 @@
           <t>6.0720712007671886e-09, 0.9999999999999999, 1.0000000000000004, 0.9999999983559021, 0.9999999914804492, 0.9999999920875406, 0.9999999743385498, 2.2371248923666546e-09, 0.6482262993187362, 0.9999999954067027, 0.5984183522877564, 0.9999999957252708, 0.9999999867098602, 2.8028960620429124e-08, 0.999999984002066, 0.9999999883699774, 0.0019560040541877067, 0.0022312013187347694, 1.878656647410079e-08, 8.944576897171723e-09, 0.22147526302559659</t>
         </is>
       </c>
+      <c r="K435" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -19825,9 +20984,24 @@
       <c r="G436" t="n">
         <v>2021</v>
       </c>
-      <c r="H436" t="inlineStr"/>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>st_louis_park_wards_2021.csv</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>27_053_026405, 27_053_026406, 27_053_021800, 27_053_021900, 27_053_022102, 27_053_022200, 27_053_022101, 27_053_026403, 27_053_026507, 27_053_022000</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>0.0004995356736043794, 0.00015301672871441212, 0.00024239302142541565, 0.0006325514466373923, 0.9992472006076126, 0.9993007028925319, 0.9992910641876148, 0.00011762781693788822, 9.61820859915572e-05, 0.9983124773248393</t>
+        </is>
+      </c>
+      <c r="K436" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -19876,6 +21050,9 @@
           <t>0.33504467494773, 0.8776632691992734, 0.002359847810137502, 1.0000000000000004, 0.9999999999999998, 0.013462244922591477, 0.9999999830355103, 1.3861353673112574e-05, 1.5462897832201004e-08, 0.0003477297343671717, 0.002384564387230703, 0.5735270434559584, 0.2598350687214333, 0.07440951794439724, 0.9974136334291217, 0.5094394023269112, 1.0, 1.0, 0.8328564987023447, 0.9999999999999993, 0.9948837715050597, 1.0, 1.0, 0.9999999999999997, 0.5333775308123025, 1.0, 0.1673916292564285, 0.6337012500387812, 0.9999999999999997, 0.5463310511690221, 1.8715453915762067e-10, 0.9888457209849395, 1.0, 0.9999999999999997, 1.0000000000000002, 0.996904030827917, 1.0, 1.0000000000000002, 0.9999758980434634, 1.649211908001141e-08, 0.9999999983142046, 0.04022826531674021, 0.5994709830334363</t>
         </is>
       </c>
+      <c r="K437" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -19924,6 +21101,9 @@
           <t>3.540543567446052e-08, 8.222037307764334e-09, 3.0177966012030266e-08, 0.9999999999999999, 0.3350084362682432, 0.5735478355248408, 2.0259044240701145e-09, 0.7900946108628609, 1.0000000000000002, 1.0, 1.0513288790601469e-08, 0.8636094836359111, 0.999999971813381, 0.9999999999999998, 0.8956295218890403, 0.9999999398705108, 0.5893110375948764, 1.6533421624521877e-08, 7.629249144794464e-11, 0.07561533573391449, 0.024520499003874457, 0.9999999830991595, 0.021166430333464895, 0.259277318780501, 0.34997702612594966, 0.9999999928073215</t>
         </is>
       </c>
+      <c r="K438" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -19972,6 +21152,9 @@
           <t>4.319605388321406e-08, 1.0000000000000002, 0.9999999813439766, 0.5400375240287414, 0.99999999701877, 0.999999963777583, 0.12401991889972959, 0.9999999909167318, 5.660651596212178e-09, 9.234035522311694e-11, 0.8685403304878049, 0.9999999959080911, 0.6634604131847402, 0.9999999999999999, 0.9999999814175285, 0.3334552586532895, 0.8104871682667478, 1.22161637478655e-09, 0.17594393691201368, 0.27079524546375106, 0.9999999964954499, 0.18223471147103631, 2.689803848284488e-08, 9.276572641872737e-09, 1.8129361840137833e-08, 0.2311743963089156, 3.3480397566137018e-09, 0.19520840306650702, 0.9999999956211673, 0.9964729284935023, 2.2860638066206238e-08, 0.3953264364707625, 1.3325138135878975e-08, 0.9999999999999999, 4.964253320455253e-09, 0.9273056353229195, 0.2541978461826746, 1.3968865114739789e-08, 0.33359075645299907, 1.2913218679951187e-08, 1.902062891856351e-08, 2.0630175404525e-08, 5.404122495007565e-10, 1.0, 1.0, 1.0000000000000002, 0.9999999999999997, 0.999999984597197, 2.0387379941028426e-08, 2.4368485149949185e-12</t>
         </is>
       </c>
+      <c r="K439" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -20020,6 +21203,9 @@
           <t>2.9626492758203975e-05, 0.08240206940034545, 0.0001918013454299876, 0.29531273997629875, 0.5644032113171775</t>
         </is>
       </c>
+      <c r="K440" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -20068,6 +21254,9 @@
           <t>0.03667248942826369, 0.2692150429403143, 0.0030299499031383142</t>
         </is>
       </c>
+      <c r="K441" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -20101,9 +21290,24 @@
       <c r="G442" t="n">
         <v>2023</v>
       </c>
-      <c r="H442" t="inlineStr"/>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>minnetonka_wards_2023.csv</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>27_053_023201, 27_053_023300, 27_053_023502, 27_053_026005, 27_053_026101, 27_053_026206, 27_053_026208, 27_053_026302, 27_053_026404, 27_053_026007, 27_053_026006, 27_053_026202, 27_053_023401, 27_053_026104, 27_053_026103</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>0.004691356422365989, 0.007330596803133542, 0.0018821482987660186, 0.001634020253926245, 0.9940342149808935, 0.43112091048673545, 0.524124348902795, 2.4356757403867104e-05, 0.0004349972490201808, 0.01002210935735091, 9.472121805062555e-05, 0.007323489873809578, 0.03463028118651898, 0.9948434004101218, 0.9955816380847299</t>
+        </is>
+      </c>
+      <c r="K442" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -20137,9 +21341,24 @@
       <c r="G443" t="n">
         <v>2023</v>
       </c>
-      <c r="H443" t="inlineStr"/>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>minnetonka_wards_2023.csv</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>27_053_026201, 27_053_026205, 27_053_026206, 27_053_026301, 27_053_026302, 27_053_026403, 27_053_026404, 27_053_026507, 27_053_026609, 27_053_026610, 27_053_026202, 27_053_027400, 27_053_027300</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>0.507945238643153, 0.0004841216320170053, 6.225669035906053e-06, 0.9893930892596804, 0.9498550270822278, 0.5907565028759121, 5.20638724122436e-06, 0.001532638822002746, 0.007161447227773334, 0.0010262271201528937, 0.9894696630920486, 0.001361596539823638, 0.06105200112346486</t>
+        </is>
+      </c>
+      <c r="K443" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -20173,9 +21392,24 @@
       <c r="G444" t="n">
         <v>2023</v>
       </c>
-      <c r="H444" t="inlineStr"/>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>bloomington_wards_2023.csv</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>27_053_125500, 27_037_060725, 27_053_025301, 27_053_025302, 27_053_025401, 27_053_025403, 27_053_025601, 27_053_025702, 27_053_024600, 27_053_024802, 27_053_025100, 27_053_025201, 27_053_025205, 27_053_024903, 27_053_980000, 27_053_025801</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>0.5548123600794633, 1.3693398326174633e-06, 1.45138256229509e-09, 5.569985361122059e-09, 0.9999999967271921, 0.9999999939940856, 0.005423258503782143, 3.3458848496303527e-10, 6.167953511845776e-09, 3.835693538483347e-09, 0.9207055315747803, 0.9999999318712386, 0.9999999896687024, 2.8739836454858045e-09, 7.062003191214882e-07, 2.4927014875356574e-09</t>
+        </is>
+      </c>
+      <c r="K444" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -20209,9 +21443,24 @@
       <c r="G445" t="n">
         <v>2023</v>
       </c>
-      <c r="H445" t="inlineStr"/>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>minnetonka_wards_2023.csv</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>27_053_026201, 27_053_026205, 27_053_026206, 27_053_026207, 27_053_026208, 27_053_026302, 27_053_026202, 27_053_026013, 27_053_027400, 27_053_027504, 27_019_090602</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>0.4844560528529054, 0.999515878367976, 0.5688715543025137, 0.9985530798590317, 0.45690844807099384, 0.04465067349948579, 0.0032068463342941936, 0.002464139989587554, 6.020391633726433e-05, 0.00016653339530168758, 5.6365300709741674e-05</t>
+        </is>
+      </c>
+      <c r="K445" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -20246,6 +21495,7 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -20280,6 +21530,7 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -20314,6 +21565,7 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -20348,6 +21600,7 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -20382,6 +21635,7 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -20416,6 +21670,7 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -20450,6 +21705,7 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -20484,6 +21740,7 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -20518,6 +21775,7 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -20552,6 +21810,7 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -20586,6 +21845,7 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -20620,6 +21880,7 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -20654,6 +21915,7 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -20688,6 +21950,7 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -20722,6 +21985,7 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -20756,6 +22020,7 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -20790,6 +22055,7 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -20824,6 +22090,7 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -20858,6 +22125,7 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -20892,6 +22160,7 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -20926,6 +22195,7 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -20960,6 +22230,7 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20994,6 +22265,7 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -21028,6 +22300,7 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -21062,6 +22335,7 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -21096,6 +22370,7 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -21130,6 +22405,7 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -21164,6 +22440,7 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -21198,6 +22475,7 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -21232,6 +22510,7 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -21266,6 +22545,7 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -21300,6 +22580,7 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -21334,6 +22615,7 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -21368,6 +22650,7 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -21402,6 +22685,7 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -21436,6 +22720,7 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -21470,6 +22755,7 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -21504,6 +22790,7 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -21538,6 +22825,7 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -21572,6 +22860,7 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -21606,6 +22895,7 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -21640,6 +22930,7 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -21674,6 +22965,7 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -21708,6 +23000,7 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -21742,6 +23035,7 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -21776,6 +23070,7 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21810,6 +23105,7 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21844,6 +23140,7 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21878,6 +23175,7 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21912,6 +23210,7 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -21946,6 +23245,7 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21980,6 +23280,7 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -22014,6 +23315,7 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -22048,6 +23350,7 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -22082,6 +23385,7 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
